--- a/Testing/Test Report/TestCases.xlsx
+++ b/Testing/Test Report/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Mazrouaa\Documents\GitHub\learning-hub\Testing\Test Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F207279E-9004-4C3C-873A-DB4048C5A442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB57B62B-659B-4904-BAC7-1BD02ACCB1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -369,17 +369,49 @@
 5- user should login using his valid account</t>
   </si>
   <si>
-    <t>uploading article from home page</t>
-  </si>
-  <si>
     <t>1- User click on Text Input Field Labelled by “What do you want to share?
 2-He chooses mathmatics category and clicks on Article button.
 3- he writes his article in the text input field and click on the add button.</t>
   </si>
   <si>
+    <t>uploading article from home page of
+ mathmatics category</t>
+  </si>
+  <si>
+    <t>uploading article from home page of
+ language category</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He chooses language category and clicks on Article button.
+3- he writes his article in the text input field and click on the add button.</t>
+  </si>
+  <si>
     <t>1- a pop up window will show up where he will find drop down list (to choose the category) , Article button and Upload button.
 2-a Text input Field and add button will appear.
-3-the Home page will be refreshed and his article will appear.</t>
+3-the Home page will be refreshed and his article will appear in it and in its category page.</t>
+  </si>
+  <si>
+    <t>uploading article from home page of
+ technology category</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He chooses technology category and clicks on Article button.
+3- he writes his article in the text input field and click on the add button.</t>
+  </si>
+  <si>
+    <t>uploading article from home page without choosing a category</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He doesn’t choose category and clicks on Article button.
+3- he writes his article in the text input field and click on the add button.</t>
+  </si>
+  <si>
+    <t>1- a pop up window will show up where he will find drop down list (to choose the category) , Article button and Upload button.
+2-a Text input Field and add button will appear.
+3-the Home page will be refreshed and a message will appear “you must Choose a category” and no article appears.</t>
   </si>
 </sst>
 </file>
@@ -625,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,16 +692,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -681,20 +704,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -703,17 +744,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1020,23 +1055,23 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="24" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="25"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="8" t="s">
         <v>6</v>
       </c>
@@ -1048,21 +1083,21 @@
       <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="15"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
@@ -1072,21 +1107,21 @@
       <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="15"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="143.4" customHeight="1">
@@ -1096,21 +1131,21 @@
       <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="15"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="158.4" customHeight="1">
@@ -1120,21 +1155,21 @@
       <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="15"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="144" customHeight="1">
@@ -1144,21 +1179,21 @@
       <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="15"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
@@ -1168,21 +1203,21 @@
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="15"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
@@ -1192,21 +1227,21 @@
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="15"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="156.6" customHeight="1">
@@ -1216,175 +1251,992 @@
       <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="15"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="14.4" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="25"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="14.4" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="14.4" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="23"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="14.4" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="39" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="40" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="41" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="42" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="43" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="44" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="45" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="46" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="47" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="48" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="49" ht="14.4" customHeight="1"/>
+    <row r="50" ht="14.4" customHeight="1"/>
+    <row r="51" ht="14.4" customHeight="1"/>
+    <row r="52" ht="14.4" customHeight="1"/>
+    <row r="53" ht="14.4" customHeight="1"/>
+    <row r="54" ht="14.4" customHeight="1"/>
+    <row r="55" ht="14.4" customHeight="1"/>
+    <row r="56" ht="14.4" customHeight="1"/>
+    <row r="57" ht="14.4" customHeight="1"/>
+    <row r="58" ht="14.4" customHeight="1"/>
+    <row r="59" ht="14.4" customHeight="1"/>
+    <row r="60" ht="14.4" customHeight="1"/>
+    <row r="61" ht="14.4" customHeight="1"/>
+    <row r="62" ht="14.4" customHeight="1"/>
+    <row r="63" ht="14.4" customHeight="1"/>
+    <row r="64" ht="14.4" customHeight="1"/>
+    <row r="65" ht="14.4" customHeight="1"/>
+    <row r="66" ht="14.4" customHeight="1"/>
+    <row r="67" ht="14.4" customHeight="1"/>
+    <row r="68" ht="14.4" customHeight="1"/>
+    <row r="69" ht="14.4" customHeight="1"/>
+    <row r="70" ht="14.4" customHeight="1"/>
+    <row r="71" ht="14.4" customHeight="1"/>
+    <row r="72" ht="14.4" customHeight="1"/>
+    <row r="73" ht="14.4" customHeight="1"/>
+    <row r="74" ht="14.4" customHeight="1"/>
+    <row r="75" ht="14.4" customHeight="1"/>
+    <row r="76" ht="14.4" customHeight="1"/>
+    <row r="77" ht="14.4" customHeight="1"/>
+    <row r="78" ht="14.4" customHeight="1"/>
+    <row r="79" ht="14.4" customHeight="1"/>
+    <row r="80" ht="14.4" customHeight="1"/>
+    <row r="81" ht="14.4" customHeight="1"/>
+    <row r="82" ht="14.4" customHeight="1"/>
+    <row r="83" ht="14.4" customHeight="1"/>
+    <row r="84" ht="14.4" customHeight="1"/>
+    <row r="85" ht="14.4" customHeight="1"/>
+    <row r="86" ht="14.4" customHeight="1"/>
+    <row r="87" ht="14.4" customHeight="1"/>
+    <row r="88" ht="14.4" customHeight="1"/>
+    <row r="89" ht="14.4" customHeight="1"/>
+    <row r="90" ht="14.4" customHeight="1"/>
+    <row r="91" ht="14.4" customHeight="1"/>
+    <row r="92" ht="14.4" customHeight="1"/>
+    <row r="93" ht="14.4" customHeight="1"/>
+    <row r="94" ht="14.4" customHeight="1"/>
+    <row r="95" ht="14.4" customHeight="1"/>
+    <row r="96" ht="14.4" customHeight="1"/>
+    <row r="97" ht="14.4" customHeight="1"/>
+    <row r="98" ht="14.4" customHeight="1"/>
+    <row r="99" ht="14.4" customHeight="1"/>
+    <row r="100" ht="14.4" customHeight="1"/>
+    <row r="101" ht="14.4" customHeight="1"/>
+    <row r="102" ht="14.4" customHeight="1"/>
+    <row r="103" ht="14.4" customHeight="1"/>
+    <row r="104" ht="14.4" customHeight="1"/>
+    <row r="105" ht="14.4" customHeight="1"/>
+    <row r="106" ht="14.4" customHeight="1"/>
+    <row r="107" ht="14.4" customHeight="1"/>
+    <row r="108" ht="14.4" customHeight="1"/>
+    <row r="109" ht="14.4" customHeight="1"/>
+    <row r="110" ht="14.4" customHeight="1"/>
+    <row r="111" ht="14.4" customHeight="1"/>
+    <row r="112" ht="14.4" customHeight="1"/>
+    <row r="113" ht="14.4" customHeight="1"/>
+    <row r="114" ht="14.4" customHeight="1"/>
+    <row r="115" ht="14.4" customHeight="1"/>
+    <row r="116" ht="14.4" customHeight="1"/>
+    <row r="117" ht="14.4" customHeight="1"/>
+    <row r="118" ht="14.4" customHeight="1"/>
+    <row r="119" ht="14.4" customHeight="1"/>
+    <row r="120" ht="14.4" customHeight="1"/>
+    <row r="121" ht="14.4" customHeight="1"/>
+    <row r="122" ht="14.4" customHeight="1"/>
+    <row r="123" ht="14.4" customHeight="1"/>
+    <row r="124" ht="14.4" customHeight="1"/>
+    <row r="125" ht="14.4" customHeight="1"/>
+    <row r="126" ht="14.4" customHeight="1"/>
+    <row r="127" ht="14.4" customHeight="1"/>
+    <row r="128" ht="14.4" customHeight="1"/>
+    <row r="129" ht="14.4" customHeight="1"/>
+    <row r="130" ht="14.4" customHeight="1"/>
+    <row r="131" ht="14.4" customHeight="1"/>
+    <row r="132" ht="14.4" customHeight="1"/>
+    <row r="133" ht="14.4" customHeight="1"/>
+    <row r="134" ht="14.4" customHeight="1"/>
+    <row r="135" ht="14.4" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F271FE2-6EF3-43D2-B6EB-8BA1A5C47F80}">
+  <dimension ref="A1:L135"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
+    <col min="4" max="4" width="0.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" customWidth="1"/>
+    <col min="9" max="10" width="31.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="157.80000000000001" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="143.4" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="158.4" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="144" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="156.6" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" customHeight="1">
@@ -1726,870 +2578,29 @@
   </sheetData>
   <mergeCells count="80">
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J8:K8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F271FE2-6EF3-43D2-B6EB-8BA1A5C47F80}">
-  <dimension ref="A1:L135"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1"/>
-    <col min="4" max="4" width="0.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" customWidth="1"/>
-    <col min="9" max="10" width="31.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="23.4">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="157.80000000000001" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="143.4" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="158.4" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="144" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="156.6" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-    </row>
-    <row r="35" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-    </row>
-    <row r="36" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-    </row>
-    <row r="37" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-    </row>
-    <row r="38" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="39" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="40" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="41" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="42" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="43" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="44" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="45" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="46" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="47" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="48" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="49" ht="14.4" customHeight="1"/>
-    <row r="50" ht="14.4" customHeight="1"/>
-    <row r="51" ht="14.4" customHeight="1"/>
-    <row r="52" ht="14.4" customHeight="1"/>
-    <row r="53" ht="14.4" customHeight="1"/>
-    <row r="54" ht="14.4" customHeight="1"/>
-    <row r="55" ht="14.4" customHeight="1"/>
-    <row r="56" ht="14.4" customHeight="1"/>
-    <row r="57" ht="14.4" customHeight="1"/>
-    <row r="58" ht="14.4" customHeight="1"/>
-    <row r="59" ht="14.4" customHeight="1"/>
-    <row r="60" ht="14.4" customHeight="1"/>
-    <row r="61" ht="14.4" customHeight="1"/>
-    <row r="62" ht="14.4" customHeight="1"/>
-    <row r="63" ht="14.4" customHeight="1"/>
-    <row r="64" ht="14.4" customHeight="1"/>
-    <row r="65" ht="14.4" customHeight="1"/>
-    <row r="66" ht="14.4" customHeight="1"/>
-    <row r="67" ht="14.4" customHeight="1"/>
-    <row r="68" ht="14.4" customHeight="1"/>
-    <row r="69" ht="14.4" customHeight="1"/>
-    <row r="70" ht="14.4" customHeight="1"/>
-    <row r="71" ht="14.4" customHeight="1"/>
-    <row r="72" ht="14.4" customHeight="1"/>
-    <row r="73" ht="14.4" customHeight="1"/>
-    <row r="74" ht="14.4" customHeight="1"/>
-    <row r="75" ht="14.4" customHeight="1"/>
-    <row r="76" ht="14.4" customHeight="1"/>
-    <row r="77" ht="14.4" customHeight="1"/>
-    <row r="78" ht="14.4" customHeight="1"/>
-    <row r="79" ht="14.4" customHeight="1"/>
-    <row r="80" ht="14.4" customHeight="1"/>
-    <row r="81" ht="14.4" customHeight="1"/>
-    <row r="82" ht="14.4" customHeight="1"/>
-    <row r="83" ht="14.4" customHeight="1"/>
-    <row r="84" ht="14.4" customHeight="1"/>
-    <row r="85" ht="14.4" customHeight="1"/>
-    <row r="86" ht="14.4" customHeight="1"/>
-    <row r="87" ht="14.4" customHeight="1"/>
-    <row r="88" ht="14.4" customHeight="1"/>
-    <row r="89" ht="14.4" customHeight="1"/>
-    <row r="90" ht="14.4" customHeight="1"/>
-    <row r="91" ht="14.4" customHeight="1"/>
-    <row r="92" ht="14.4" customHeight="1"/>
-    <row r="93" ht="14.4" customHeight="1"/>
-    <row r="94" ht="14.4" customHeight="1"/>
-    <row r="95" ht="14.4" customHeight="1"/>
-    <row r="96" ht="14.4" customHeight="1"/>
-    <row r="97" ht="14.4" customHeight="1"/>
-    <row r="98" ht="14.4" customHeight="1"/>
-    <row r="99" ht="14.4" customHeight="1"/>
-    <row r="100" ht="14.4" customHeight="1"/>
-    <row r="101" ht="14.4" customHeight="1"/>
-    <row r="102" ht="14.4" customHeight="1"/>
-    <row r="103" ht="14.4" customHeight="1"/>
-    <row r="104" ht="14.4" customHeight="1"/>
-    <row r="105" ht="14.4" customHeight="1"/>
-    <row r="106" ht="14.4" customHeight="1"/>
-    <row r="107" ht="14.4" customHeight="1"/>
-    <row r="108" ht="14.4" customHeight="1"/>
-    <row r="109" ht="14.4" customHeight="1"/>
-    <row r="110" ht="14.4" customHeight="1"/>
-    <row r="111" ht="14.4" customHeight="1"/>
-    <row r="112" ht="14.4" customHeight="1"/>
-    <row r="113" ht="14.4" customHeight="1"/>
-    <row r="114" ht="14.4" customHeight="1"/>
-    <row r="115" ht="14.4" customHeight="1"/>
-    <row r="116" ht="14.4" customHeight="1"/>
-    <row r="117" ht="14.4" customHeight="1"/>
-    <row r="118" ht="14.4" customHeight="1"/>
-    <row r="119" ht="14.4" customHeight="1"/>
-    <row r="120" ht="14.4" customHeight="1"/>
-    <row r="121" ht="14.4" customHeight="1"/>
-    <row r="122" ht="14.4" customHeight="1"/>
-    <row r="123" ht="14.4" customHeight="1"/>
-    <row r="124" ht="14.4" customHeight="1"/>
-    <row r="125" ht="14.4" customHeight="1"/>
-    <row r="126" ht="14.4" customHeight="1"/>
-    <row r="127" ht="14.4" customHeight="1"/>
-    <row r="128" ht="14.4" customHeight="1"/>
-    <row r="129" ht="14.4" customHeight="1"/>
-    <row r="130" ht="14.4" customHeight="1"/>
-    <row r="131" ht="14.4" customHeight="1"/>
-    <row r="132" ht="14.4" customHeight="1"/>
-    <row r="133" ht="14.4" customHeight="1"/>
-    <row r="134" ht="14.4" customHeight="1"/>
-    <row r="135" ht="14.4" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="H13:I13"/>
@@ -2598,354 +2609,6 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5682E82A-329E-4B95-BFE8-7CD98F83CCCC}">
-  <dimension ref="A1:L12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
-    <col min="8" max="8" width="24.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="0.5546875" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="23.4">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="48">
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:I11"/>
@@ -2995,6 +2658,378 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5682E82A-329E-4B95-BFE8-7CD98F83CCCC}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="0.5546875" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testing/Test Report/TestCases.xlsx
+++ b/Testing/Test Report/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Mazrouaa\Documents\GitHub\learning-hub\Testing\Test Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB57B62B-659B-4904-BAC7-1BD02ACCB1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF9DCB6-71F2-4AFA-9D91-DE38DCF24121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="129">
   <si>
     <t>ID</t>
   </si>
@@ -369,49 +369,196 @@
 5- user should login using his valid account</t>
   </si>
   <si>
-    <t>1- User click on Text Input Field Labelled by “What do you want to share?
-2-He chooses mathmatics category and clicks on Article button.
-3- he writes his article in the text input field and click on the add button.</t>
-  </si>
-  <si>
-    <t>uploading article from home page of
- mathmatics category</t>
-  </si>
-  <si>
-    <t>uploading article from home page of
- language category</t>
-  </si>
-  <si>
-    <t>1- User click on Text Input Field Labelled by “What do you want to share?
-2-He chooses language category and clicks on Article button.
-3- he writes his article in the text input field and click on the add button.</t>
-  </si>
-  <si>
-    <t>1- a pop up window will show up where he will find drop down list (to choose the category) , Article button and Upload button.
-2-a Text input Field and add button will appear.
-3-the Home page will be refreshed and his article will appear in it and in its category page.</t>
-  </si>
-  <si>
-    <t>uploading article from home page of
- technology category</t>
-  </si>
-  <si>
-    <t>1- User click on Text Input Field Labelled by “What do you want to share?
-2-He chooses technology category and clicks on Article button.
-3- he writes his article in the text input field and click on the add button.</t>
-  </si>
-  <si>
-    <t>uploading article from home page without choosing a category</t>
-  </si>
-  <si>
-    <t>1- User click on Text Input Field Labelled by “What do you want to share?
-2-He doesn’t choose category and clicks on Article button.
-3- he writes his article in the text input field and click on the add button.</t>
-  </si>
-  <si>
     <t>1- a pop up window will show up where he will find drop down list (to choose the category) , Article button and Upload button.
 2-a Text input Field and add button will appear.
 3-the Home page will be refreshed and a message will appear “you must Choose a category” and no article appears.</t>
+  </si>
+  <si>
+    <t>1- a pop up window will show up where he will find drop down list (to choose the category) , Article button and Upload button.
+2-a Text input Field and add button will appear.
+3-the Home page will be refreshed and his article will appear in it and in its category page and a message appears "Record created sucessfully".</t>
+  </si>
+  <si>
+    <t>1- a pop up window will show up where he will find drop down list (to choose the category) , Article button and Upload button.
+2-a Text input Field and add button will appear.
+3-the Home page will be refreshed and his article will appear in it and in its category page  and a message appears "Record created sucessfully".</t>
+  </si>
+  <si>
+    <t>1- a pop up window will show up where he will find drop down list (to choose the category) , Article button and Upload button.
+2-a choose file button and upload button will appear .
+3-the Home page will be refreshed and a message will appear “Record created sucessfully” and uploaded video/record appears in Home page and in its category page.</t>
+  </si>
+  <si>
+    <t>1- a pop up window will show up where he will find drop down list (to choose the category) , Article button and Upload button.
+2-a choose file button and upload button will appear .
+3-the Home page will be refreshed and a message will appear “you must choose a category” and uploaded video/record will not appear any where.</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_Add_012</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_Add_013</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_Add_014</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_Add_015</t>
+  </si>
+  <si>
+    <t>1-user should have a browser to navigate to signup page.
+2-User should have xampp  and it's control panel
+3- user should have the database on the phpmyadmin (reach it through xampp control panel) 
+4- open the apache server and sql server
+5- user should login using his valid account and navigate to language category page</t>
+  </si>
+  <si>
+    <t>1- a pop up window will show up where he will find mathmatics is the choosen category , Article button and Upload button.
+2-a Text input Field and add button will appear.
+3-the category page will be refreshed and his article will appear in it and in home page and a message appears "Record created sucessfully".</t>
+  </si>
+  <si>
+    <t>1-user should have a browser to navigate to signup page.
+2-User should have xampp  and it's control panel
+3- user should have the database on the phpmyadmin (reach it through xampp control panel) 
+4- open the apache server and sql server
+5- user should login using his valid account and navigate to mathmatics category page</t>
+  </si>
+  <si>
+    <t>1- a pop up window will show up where he will find language is the choosen category , Article button and Upload button.
+2-a Text input Field and add button will appear.
+3-the category page will be refreshed and his article will appear in it and in home page and a message appears "Record created sucessfully".</t>
+  </si>
+  <si>
+    <t>1-user should have a browser to navigate to signup page.
+2-User should have xampp  and it's control panel
+3- user should have the database on the phpmyadmin (reach it through xampp control panel) 
+4- open the apache server and sql server
+5- user should login using his valid account and navigate to technology category page</t>
+  </si>
+  <si>
+    <t>1- a pop up window will show up where he will find technology is the choosen category , Article button and Upload button.
+2-a Text input Field and add button will appear.
+3-the category page will be refreshed and his article will appear in it and in home page and a message appears "Record created sucessfully".</t>
+  </si>
+  <si>
+    <t>1- a pop up window will show up where he will find matmatics is the choosen category , Article button and Upload button.
+2-a choose file button and upload button will appear .
+3-the category page will be refreshed and a message will appear “Record created sucessfully” and uploaded video/record appears in Home page and in its category page.</t>
+  </si>
+  <si>
+    <t>1- a pop up window will show up where he will find technology is the choosen category , Article button and Upload button.
+2-a choose file button and upload button will appear .
+3-the category page will be refreshed and a message will appear “Record created sucessfully” and uploaded video/record appears in Home page and in its category page.</t>
+  </si>
+  <si>
+    <t>1- a pop up window will show up where he will find language is the choosen category , Article button and Upload button.
+2-a choose file button and upload button will appear .
+3-the category page will be refreshed and a message will appear “Record created sucessfully” and uploaded video/record appears in Home page and in its category page.</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He chooses mathmatics category and clicks on Article button.
+3- he writes his article (less than 1000 characters) in the text input field
+ and click on the add button.</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He chooses language category and clicks on Article button.
+3- he writes his article  (less than 1000 characters) in the text input field and click on the add button.</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He chooses technology category and clicks on Article button.
+3- he writes his article  (less than 1000 characters) in the text input field and click on the add button.</t>
+  </si>
+  <si>
+    <t>adding valid article from home page of
+ mathmatics category</t>
+  </si>
+  <si>
+    <t>adding vaild article from home page of
+ language category</t>
+  </si>
+  <si>
+    <t>adding vaild article from home page of
+ technology category</t>
+  </si>
+  <si>
+    <t>adding vaild article from home page without choosing a category</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He doesn’t choose category and clicks on Article button.
+3- he writes his article  (less than 1000 characters) in the text input field and click on the add button.</t>
+  </si>
+  <si>
+    <t>uploading valid video/recording from home page with mathmatics category</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He  choose mathmatics category and clicks on upload button.
+3- he clicks on choose file and choose a mp3 or mp4 and with size &lt;35 MB file from his device then clicks on upload button.</t>
+  </si>
+  <si>
+    <t>uploading valid video/recording from home page with technology category</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He  choose technology category and clicks on upload button.
+3- he clicks on choose file and choose a mp3 or mp4 and with size &lt;35 MB file from his device then clicks on upload button.</t>
+  </si>
+  <si>
+    <t>uploading valid video/recording from home page with language category</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He  choose language category and clicks on upload button.
+3- he clicks on choose file and choose a mp3 or mp4 and with size &lt;35 MB file from his device then clicks on upload button.</t>
+  </si>
+  <si>
+    <t>uploading vaild video/recording from home page without choosing a category</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He doesn't choose  category and clicks on upload button.
+3- he clicks on choose file and choose a mp3 or mp4 and with size &lt;35 MB file from his device then clicks on upload button.</t>
+  </si>
+  <si>
+    <t>adding vaild article from mathmatics category page</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He clicks on Article button.
+3- he writes his article (less than 1000 characters) in the text input field and click on the add button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adding valid article from language category page </t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He clicks on Article button.
+3- he writes his article  (less than 1000 characters) in the text input field and click on the add button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adding valid article from technology category page </t>
+  </si>
+  <si>
+    <t>uploading valid video/recording from mathmatics category page</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He clicks on upload button.
+3- he clicks on choose file and choose a mp3 or mp4 and with size &lt;35 MB file from his device then clicks on upload button.</t>
+  </si>
+  <si>
+    <t>uploading valid video/recording from technology category page</t>
+  </si>
+  <si>
+    <t>uploading valid video/recording from language category page</t>
+  </si>
+  <si>
+    <t>uploading valid video/recording from home page without choosing a category</t>
   </si>
 </sst>
 </file>
@@ -692,7 +839,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -704,38 +863,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -744,11 +876,26 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1055,23 +1202,23 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="27" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="28"/>
+      <c r="K1" s="23"/>
       <c r="L1" s="8" t="s">
         <v>6</v>
       </c>
@@ -1083,20 +1230,20 @@
       <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="16"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="16"/>
       <c r="L2" s="3"/>
     </row>
@@ -1107,20 +1254,20 @@
       <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="16"/>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="16"/>
       <c r="L3" s="3"/>
     </row>
@@ -1131,20 +1278,20 @@
       <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="16"/>
       <c r="L4" s="3"/>
     </row>
@@ -1155,20 +1302,20 @@
       <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="16"/>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="16"/>
       <c r="L5" s="3"/>
     </row>
@@ -1179,20 +1326,20 @@
       <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="16"/>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="16"/>
       <c r="L6" s="3"/>
     </row>
@@ -1203,20 +1350,20 @@
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="16"/>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="16"/>
       <c r="L7" s="3"/>
     </row>
@@ -1227,20 +1374,20 @@
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="16"/>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="15" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="16"/>
       <c r="L8" s="3"/>
     </row>
@@ -1251,992 +1398,175 @@
       <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="16"/>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="16"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="14.4" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="19"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="14.4" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="19"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="14.4" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="14.4" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-    </row>
-    <row r="35" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-    </row>
-    <row r="36" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-    </row>
-    <row r="37" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-    </row>
-    <row r="38" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="39" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="40" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="41" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="42" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="43" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="44" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="45" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="46" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="47" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="48" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="49" ht="14.4" customHeight="1"/>
-    <row r="50" ht="14.4" customHeight="1"/>
-    <row r="51" ht="14.4" customHeight="1"/>
-    <row r="52" ht="14.4" customHeight="1"/>
-    <row r="53" ht="14.4" customHeight="1"/>
-    <row r="54" ht="14.4" customHeight="1"/>
-    <row r="55" ht="14.4" customHeight="1"/>
-    <row r="56" ht="14.4" customHeight="1"/>
-    <row r="57" ht="14.4" customHeight="1"/>
-    <row r="58" ht="14.4" customHeight="1"/>
-    <row r="59" ht="14.4" customHeight="1"/>
-    <row r="60" ht="14.4" customHeight="1"/>
-    <row r="61" ht="14.4" customHeight="1"/>
-    <row r="62" ht="14.4" customHeight="1"/>
-    <row r="63" ht="14.4" customHeight="1"/>
-    <row r="64" ht="14.4" customHeight="1"/>
-    <row r="65" ht="14.4" customHeight="1"/>
-    <row r="66" ht="14.4" customHeight="1"/>
-    <row r="67" ht="14.4" customHeight="1"/>
-    <row r="68" ht="14.4" customHeight="1"/>
-    <row r="69" ht="14.4" customHeight="1"/>
-    <row r="70" ht="14.4" customHeight="1"/>
-    <row r="71" ht="14.4" customHeight="1"/>
-    <row r="72" ht="14.4" customHeight="1"/>
-    <row r="73" ht="14.4" customHeight="1"/>
-    <row r="74" ht="14.4" customHeight="1"/>
-    <row r="75" ht="14.4" customHeight="1"/>
-    <row r="76" ht="14.4" customHeight="1"/>
-    <row r="77" ht="14.4" customHeight="1"/>
-    <row r="78" ht="14.4" customHeight="1"/>
-    <row r="79" ht="14.4" customHeight="1"/>
-    <row r="80" ht="14.4" customHeight="1"/>
-    <row r="81" ht="14.4" customHeight="1"/>
-    <row r="82" ht="14.4" customHeight="1"/>
-    <row r="83" ht="14.4" customHeight="1"/>
-    <row r="84" ht="14.4" customHeight="1"/>
-    <row r="85" ht="14.4" customHeight="1"/>
-    <row r="86" ht="14.4" customHeight="1"/>
-    <row r="87" ht="14.4" customHeight="1"/>
-    <row r="88" ht="14.4" customHeight="1"/>
-    <row r="89" ht="14.4" customHeight="1"/>
-    <row r="90" ht="14.4" customHeight="1"/>
-    <row r="91" ht="14.4" customHeight="1"/>
-    <row r="92" ht="14.4" customHeight="1"/>
-    <row r="93" ht="14.4" customHeight="1"/>
-    <row r="94" ht="14.4" customHeight="1"/>
-    <row r="95" ht="14.4" customHeight="1"/>
-    <row r="96" ht="14.4" customHeight="1"/>
-    <row r="97" ht="14.4" customHeight="1"/>
-    <row r="98" ht="14.4" customHeight="1"/>
-    <row r="99" ht="14.4" customHeight="1"/>
-    <row r="100" ht="14.4" customHeight="1"/>
-    <row r="101" ht="14.4" customHeight="1"/>
-    <row r="102" ht="14.4" customHeight="1"/>
-    <row r="103" ht="14.4" customHeight="1"/>
-    <row r="104" ht="14.4" customHeight="1"/>
-    <row r="105" ht="14.4" customHeight="1"/>
-    <row r="106" ht="14.4" customHeight="1"/>
-    <row r="107" ht="14.4" customHeight="1"/>
-    <row r="108" ht="14.4" customHeight="1"/>
-    <row r="109" ht="14.4" customHeight="1"/>
-    <row r="110" ht="14.4" customHeight="1"/>
-    <row r="111" ht="14.4" customHeight="1"/>
-    <row r="112" ht="14.4" customHeight="1"/>
-    <row r="113" ht="14.4" customHeight="1"/>
-    <row r="114" ht="14.4" customHeight="1"/>
-    <row r="115" ht="14.4" customHeight="1"/>
-    <row r="116" ht="14.4" customHeight="1"/>
-    <row r="117" ht="14.4" customHeight="1"/>
-    <row r="118" ht="14.4" customHeight="1"/>
-    <row r="119" ht="14.4" customHeight="1"/>
-    <row r="120" ht="14.4" customHeight="1"/>
-    <row r="121" ht="14.4" customHeight="1"/>
-    <row r="122" ht="14.4" customHeight="1"/>
-    <row r="123" ht="14.4" customHeight="1"/>
-    <row r="124" ht="14.4" customHeight="1"/>
-    <row r="125" ht="14.4" customHeight="1"/>
-    <row r="126" ht="14.4" customHeight="1"/>
-    <row r="127" ht="14.4" customHeight="1"/>
-    <row r="128" ht="14.4" customHeight="1"/>
-    <row r="129" ht="14.4" customHeight="1"/>
-    <row r="130" ht="14.4" customHeight="1"/>
-    <row r="131" ht="14.4" customHeight="1"/>
-    <row r="132" ht="14.4" customHeight="1"/>
-    <row r="133" ht="14.4" customHeight="1"/>
-    <row r="134" ht="14.4" customHeight="1"/>
-    <row r="135" ht="14.4" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F271FE2-6EF3-43D2-B6EB-8BA1A5C47F80}">
-  <dimension ref="A1:L135"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1"/>
-    <col min="4" max="4" width="0.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" customWidth="1"/>
-    <col min="9" max="10" width="31.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="23.4">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="157.80000000000001" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="143.4" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="158.4" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="144" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="156.6" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" customHeight="1">
@@ -2578,13 +1908,886 @@
   </sheetData>
   <mergeCells count="80">
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J8:K8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F271FE2-6EF3-43D2-B6EB-8BA1A5C47F80}">
+  <dimension ref="A1:L135"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
+    <col min="4" max="4" width="0.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" customWidth="1"/>
+    <col min="9" max="10" width="31.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="157.80000000000001" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="143.4" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="158.4" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="144" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="156.6" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="39" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="40" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="41" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="42" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="43" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="44" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="45" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="46" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="47" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="48" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="49" ht="14.4" customHeight="1"/>
+    <row r="50" ht="14.4" customHeight="1"/>
+    <row r="51" ht="14.4" customHeight="1"/>
+    <row r="52" ht="14.4" customHeight="1"/>
+    <row r="53" ht="14.4" customHeight="1"/>
+    <row r="54" ht="14.4" customHeight="1"/>
+    <row r="55" ht="14.4" customHeight="1"/>
+    <row r="56" ht="14.4" customHeight="1"/>
+    <row r="57" ht="14.4" customHeight="1"/>
+    <row r="58" ht="14.4" customHeight="1"/>
+    <row r="59" ht="14.4" customHeight="1"/>
+    <row r="60" ht="14.4" customHeight="1"/>
+    <row r="61" ht="14.4" customHeight="1"/>
+    <row r="62" ht="14.4" customHeight="1"/>
+    <row r="63" ht="14.4" customHeight="1"/>
+    <row r="64" ht="14.4" customHeight="1"/>
+    <row r="65" ht="14.4" customHeight="1"/>
+    <row r="66" ht="14.4" customHeight="1"/>
+    <row r="67" ht="14.4" customHeight="1"/>
+    <row r="68" ht="14.4" customHeight="1"/>
+    <row r="69" ht="14.4" customHeight="1"/>
+    <row r="70" ht="14.4" customHeight="1"/>
+    <row r="71" ht="14.4" customHeight="1"/>
+    <row r="72" ht="14.4" customHeight="1"/>
+    <row r="73" ht="14.4" customHeight="1"/>
+    <row r="74" ht="14.4" customHeight="1"/>
+    <row r="75" ht="14.4" customHeight="1"/>
+    <row r="76" ht="14.4" customHeight="1"/>
+    <row r="77" ht="14.4" customHeight="1"/>
+    <row r="78" ht="14.4" customHeight="1"/>
+    <row r="79" ht="14.4" customHeight="1"/>
+    <row r="80" ht="14.4" customHeight="1"/>
+    <row r="81" ht="14.4" customHeight="1"/>
+    <row r="82" ht="14.4" customHeight="1"/>
+    <row r="83" ht="14.4" customHeight="1"/>
+    <row r="84" ht="14.4" customHeight="1"/>
+    <row r="85" ht="14.4" customHeight="1"/>
+    <row r="86" ht="14.4" customHeight="1"/>
+    <row r="87" ht="14.4" customHeight="1"/>
+    <row r="88" ht="14.4" customHeight="1"/>
+    <row r="89" ht="14.4" customHeight="1"/>
+    <row r="90" ht="14.4" customHeight="1"/>
+    <row r="91" ht="14.4" customHeight="1"/>
+    <row r="92" ht="14.4" customHeight="1"/>
+    <row r="93" ht="14.4" customHeight="1"/>
+    <row r="94" ht="14.4" customHeight="1"/>
+    <row r="95" ht="14.4" customHeight="1"/>
+    <row r="96" ht="14.4" customHeight="1"/>
+    <row r="97" ht="14.4" customHeight="1"/>
+    <row r="98" ht="14.4" customHeight="1"/>
+    <row r="99" ht="14.4" customHeight="1"/>
+    <row r="100" ht="14.4" customHeight="1"/>
+    <row r="101" ht="14.4" customHeight="1"/>
+    <row r="102" ht="14.4" customHeight="1"/>
+    <row r="103" ht="14.4" customHeight="1"/>
+    <row r="104" ht="14.4" customHeight="1"/>
+    <row r="105" ht="14.4" customHeight="1"/>
+    <row r="106" ht="14.4" customHeight="1"/>
+    <row r="107" ht="14.4" customHeight="1"/>
+    <row r="108" ht="14.4" customHeight="1"/>
+    <row r="109" ht="14.4" customHeight="1"/>
+    <row r="110" ht="14.4" customHeight="1"/>
+    <row r="111" ht="14.4" customHeight="1"/>
+    <row r="112" ht="14.4" customHeight="1"/>
+    <row r="113" ht="14.4" customHeight="1"/>
+    <row r="114" ht="14.4" customHeight="1"/>
+    <row r="115" ht="14.4" customHeight="1"/>
+    <row r="116" ht="14.4" customHeight="1"/>
+    <row r="117" ht="14.4" customHeight="1"/>
+    <row r="118" ht="14.4" customHeight="1"/>
+    <row r="119" ht="14.4" customHeight="1"/>
+    <row r="120" ht="14.4" customHeight="1"/>
+    <row r="121" ht="14.4" customHeight="1"/>
+    <row r="122" ht="14.4" customHeight="1"/>
+    <row r="123" ht="14.4" customHeight="1"/>
+    <row r="124" ht="14.4" customHeight="1"/>
+    <row r="125" ht="14.4" customHeight="1"/>
+    <row r="126" ht="14.4" customHeight="1"/>
+    <row r="127" ht="14.4" customHeight="1"/>
+    <row r="128" ht="14.4" customHeight="1"/>
+    <row r="129" ht="14.4" customHeight="1"/>
+    <row r="130" ht="14.4" customHeight="1"/>
+    <row r="131" ht="14.4" customHeight="1"/>
+    <row r="132" ht="14.4" customHeight="1"/>
+    <row r="133" ht="14.4" customHeight="1"/>
+    <row r="134" ht="14.4" customHeight="1"/>
+    <row r="135" ht="14.4" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="H17:I17"/>
@@ -2593,22 +2796,437 @@
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5682E82A-329E-4B95-BFE8-7CD98F83CCCC}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="0.5546875" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="176.4" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="180" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" ht="162.6" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" ht="193.8" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" ht="165" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:I11"/>
@@ -2658,379 +3276,8 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5682E82A-329E-4B95-BFE8-7CD98F83CCCC}">
-  <dimension ref="A1:L12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
-    <col min="8" max="8" width="24.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="0.5546875" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="23.4">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testing/Test Report/TestCases.xlsx
+++ b/Testing/Test Report/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Mazrouaa\Documents\GitHub\learning-hub\Testing\Test Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF9DCB6-71F2-4AFA-9D91-DE38DCF24121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BC835F-6A69-40F6-800E-8C262D7D3256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="139">
   <si>
     <t>ID</t>
   </si>
@@ -558,7 +558,49 @@
     <t>uploading valid video/recording from language category page</t>
   </si>
   <si>
-    <t>uploading valid video/recording from home page without choosing a category</t>
+    <t>TC_LearningHub_Add_016</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_Add_017</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He doesn't choose  category and clicks on upload button.
+3- he clicks on choose file and choose a mp3 or mp4 and with size &gt;35 MB file from his device then clicks on upload button.</t>
+  </si>
+  <si>
+    <t>uploading video/recording from home page with size&gt;35MB</t>
+  </si>
+  <si>
+    <t>1- a pop up window will show up where he will find drop down list (to choose the category) , Article button and Upload button.
+2-a choose file button and upload button will appear .
+3-the Home page will be refreshed and a message will appear “invalid file must be mp3 or mp4 and with size &lt;35 MB” and  video/record will not be uploaded.</t>
+  </si>
+  <si>
+    <t>adding empty article from home page with technology category</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He chooses technology category and clicks on Article button.
+3- he writes nothing in the text input field and click on the add button.</t>
+  </si>
+  <si>
+    <t>1- a pop up window will show up where he will find drop down list (to choose the category) , Article button and Upload button.
+2-a Text input Field and add button will appear.
+3-the Home page will be refreshed and  a message appears "Error empty content".</t>
+  </si>
+  <si>
+    <t>adding article from home page with technology category and more than 1000 characters</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He chooses technology category and clicks on Article button.
+3- he writes more than 1000 characters in the text input field and click on the add button.</t>
+  </si>
+  <si>
+    <t>1- a pop up window will show up where he will find drop down list (to choose the category) , Article button and Upload button.
+2-a Text input Field and add button will appear.
+3-the Home page will be refreshed and  a message appears "Error: Content must not exceed 1000 characters".</t>
   </si>
 </sst>
 </file>
@@ -842,16 +884,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -863,11 +896,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -875,27 +938,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1202,23 +1244,23 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="22" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="23"/>
+      <c r="K1" s="30"/>
       <c r="L1" s="8" t="s">
         <v>6</v>
       </c>
@@ -1230,21 +1272,21 @@
       <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="16"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
@@ -1254,21 +1296,21 @@
       <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="16"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="143.4" customHeight="1">
@@ -1278,21 +1320,21 @@
       <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="16"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="158.4" customHeight="1">
@@ -1302,21 +1344,21 @@
       <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="16"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="144" customHeight="1">
@@ -1326,21 +1368,21 @@
       <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
@@ -1350,21 +1392,21 @@
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="16"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
@@ -1374,21 +1416,21 @@
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="16"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="156.6" customHeight="1">
@@ -1398,175 +1440,992 @@
       <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="16"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="14.4" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="26"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="14.4" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="14.4" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="14.4" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="39" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="40" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="41" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="42" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="43" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="44" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="45" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="46" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="47" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="48" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="49" ht="14.4" customHeight="1"/>
+    <row r="50" ht="14.4" customHeight="1"/>
+    <row r="51" ht="14.4" customHeight="1"/>
+    <row r="52" ht="14.4" customHeight="1"/>
+    <row r="53" ht="14.4" customHeight="1"/>
+    <row r="54" ht="14.4" customHeight="1"/>
+    <row r="55" ht="14.4" customHeight="1"/>
+    <row r="56" ht="14.4" customHeight="1"/>
+    <row r="57" ht="14.4" customHeight="1"/>
+    <row r="58" ht="14.4" customHeight="1"/>
+    <row r="59" ht="14.4" customHeight="1"/>
+    <row r="60" ht="14.4" customHeight="1"/>
+    <row r="61" ht="14.4" customHeight="1"/>
+    <row r="62" ht="14.4" customHeight="1"/>
+    <row r="63" ht="14.4" customHeight="1"/>
+    <row r="64" ht="14.4" customHeight="1"/>
+    <row r="65" ht="14.4" customHeight="1"/>
+    <row r="66" ht="14.4" customHeight="1"/>
+    <row r="67" ht="14.4" customHeight="1"/>
+    <row r="68" ht="14.4" customHeight="1"/>
+    <row r="69" ht="14.4" customHeight="1"/>
+    <row r="70" ht="14.4" customHeight="1"/>
+    <row r="71" ht="14.4" customHeight="1"/>
+    <row r="72" ht="14.4" customHeight="1"/>
+    <row r="73" ht="14.4" customHeight="1"/>
+    <row r="74" ht="14.4" customHeight="1"/>
+    <row r="75" ht="14.4" customHeight="1"/>
+    <row r="76" ht="14.4" customHeight="1"/>
+    <row r="77" ht="14.4" customHeight="1"/>
+    <row r="78" ht="14.4" customHeight="1"/>
+    <row r="79" ht="14.4" customHeight="1"/>
+    <row r="80" ht="14.4" customHeight="1"/>
+    <row r="81" ht="14.4" customHeight="1"/>
+    <row r="82" ht="14.4" customHeight="1"/>
+    <row r="83" ht="14.4" customHeight="1"/>
+    <row r="84" ht="14.4" customHeight="1"/>
+    <row r="85" ht="14.4" customHeight="1"/>
+    <row r="86" ht="14.4" customHeight="1"/>
+    <row r="87" ht="14.4" customHeight="1"/>
+    <row r="88" ht="14.4" customHeight="1"/>
+    <row r="89" ht="14.4" customHeight="1"/>
+    <row r="90" ht="14.4" customHeight="1"/>
+    <row r="91" ht="14.4" customHeight="1"/>
+    <row r="92" ht="14.4" customHeight="1"/>
+    <row r="93" ht="14.4" customHeight="1"/>
+    <row r="94" ht="14.4" customHeight="1"/>
+    <row r="95" ht="14.4" customHeight="1"/>
+    <row r="96" ht="14.4" customHeight="1"/>
+    <row r="97" ht="14.4" customHeight="1"/>
+    <row r="98" ht="14.4" customHeight="1"/>
+    <row r="99" ht="14.4" customHeight="1"/>
+    <row r="100" ht="14.4" customHeight="1"/>
+    <row r="101" ht="14.4" customHeight="1"/>
+    <row r="102" ht="14.4" customHeight="1"/>
+    <row r="103" ht="14.4" customHeight="1"/>
+    <row r="104" ht="14.4" customHeight="1"/>
+    <row r="105" ht="14.4" customHeight="1"/>
+    <row r="106" ht="14.4" customHeight="1"/>
+    <row r="107" ht="14.4" customHeight="1"/>
+    <row r="108" ht="14.4" customHeight="1"/>
+    <row r="109" ht="14.4" customHeight="1"/>
+    <row r="110" ht="14.4" customHeight="1"/>
+    <row r="111" ht="14.4" customHeight="1"/>
+    <row r="112" ht="14.4" customHeight="1"/>
+    <row r="113" ht="14.4" customHeight="1"/>
+    <row r="114" ht="14.4" customHeight="1"/>
+    <row r="115" ht="14.4" customHeight="1"/>
+    <row r="116" ht="14.4" customHeight="1"/>
+    <row r="117" ht="14.4" customHeight="1"/>
+    <row r="118" ht="14.4" customHeight="1"/>
+    <row r="119" ht="14.4" customHeight="1"/>
+    <row r="120" ht="14.4" customHeight="1"/>
+    <row r="121" ht="14.4" customHeight="1"/>
+    <row r="122" ht="14.4" customHeight="1"/>
+    <row r="123" ht="14.4" customHeight="1"/>
+    <row r="124" ht="14.4" customHeight="1"/>
+    <row r="125" ht="14.4" customHeight="1"/>
+    <row r="126" ht="14.4" customHeight="1"/>
+    <row r="127" ht="14.4" customHeight="1"/>
+    <row r="128" ht="14.4" customHeight="1"/>
+    <row r="129" ht="14.4" customHeight="1"/>
+    <row r="130" ht="14.4" customHeight="1"/>
+    <row r="131" ht="14.4" customHeight="1"/>
+    <row r="132" ht="14.4" customHeight="1"/>
+    <row r="133" ht="14.4" customHeight="1"/>
+    <row r="134" ht="14.4" customHeight="1"/>
+    <row r="135" ht="14.4" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F271FE2-6EF3-43D2-B6EB-8BA1A5C47F80}">
+  <dimension ref="A1:L135"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
+    <col min="4" max="4" width="0.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" customWidth="1"/>
+    <col min="9" max="10" width="31.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="30"/>
+      <c r="L1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="157.80000000000001" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="143.4" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="158.4" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="144" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="156.6" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" customHeight="1">
@@ -1908,870 +2767,29 @@
   </sheetData>
   <mergeCells count="80">
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J8:K8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F271FE2-6EF3-43D2-B6EB-8BA1A5C47F80}">
-  <dimension ref="A1:L135"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1"/>
-    <col min="4" max="4" width="0.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" customWidth="1"/>
-    <col min="9" max="10" width="31.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="23.4">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="157.80000000000001" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="143.4" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="158.4" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="144" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="156.6" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-    </row>
-    <row r="35" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-    </row>
-    <row r="36" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-    </row>
-    <row r="37" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-    </row>
-    <row r="38" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="39" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="40" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="41" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="42" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="43" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="44" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="45" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="46" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="47" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="48" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="49" ht="14.4" customHeight="1"/>
-    <row r="50" ht="14.4" customHeight="1"/>
-    <row r="51" ht="14.4" customHeight="1"/>
-    <row r="52" ht="14.4" customHeight="1"/>
-    <row r="53" ht="14.4" customHeight="1"/>
-    <row r="54" ht="14.4" customHeight="1"/>
-    <row r="55" ht="14.4" customHeight="1"/>
-    <row r="56" ht="14.4" customHeight="1"/>
-    <row r="57" ht="14.4" customHeight="1"/>
-    <row r="58" ht="14.4" customHeight="1"/>
-    <row r="59" ht="14.4" customHeight="1"/>
-    <row r="60" ht="14.4" customHeight="1"/>
-    <row r="61" ht="14.4" customHeight="1"/>
-    <row r="62" ht="14.4" customHeight="1"/>
-    <row r="63" ht="14.4" customHeight="1"/>
-    <row r="64" ht="14.4" customHeight="1"/>
-    <row r="65" ht="14.4" customHeight="1"/>
-    <row r="66" ht="14.4" customHeight="1"/>
-    <row r="67" ht="14.4" customHeight="1"/>
-    <row r="68" ht="14.4" customHeight="1"/>
-    <row r="69" ht="14.4" customHeight="1"/>
-    <row r="70" ht="14.4" customHeight="1"/>
-    <row r="71" ht="14.4" customHeight="1"/>
-    <row r="72" ht="14.4" customHeight="1"/>
-    <row r="73" ht="14.4" customHeight="1"/>
-    <row r="74" ht="14.4" customHeight="1"/>
-    <row r="75" ht="14.4" customHeight="1"/>
-    <row r="76" ht="14.4" customHeight="1"/>
-    <row r="77" ht="14.4" customHeight="1"/>
-    <row r="78" ht="14.4" customHeight="1"/>
-    <row r="79" ht="14.4" customHeight="1"/>
-    <row r="80" ht="14.4" customHeight="1"/>
-    <row r="81" ht="14.4" customHeight="1"/>
-    <row r="82" ht="14.4" customHeight="1"/>
-    <row r="83" ht="14.4" customHeight="1"/>
-    <row r="84" ht="14.4" customHeight="1"/>
-    <row r="85" ht="14.4" customHeight="1"/>
-    <row r="86" ht="14.4" customHeight="1"/>
-    <row r="87" ht="14.4" customHeight="1"/>
-    <row r="88" ht="14.4" customHeight="1"/>
-    <row r="89" ht="14.4" customHeight="1"/>
-    <row r="90" ht="14.4" customHeight="1"/>
-    <row r="91" ht="14.4" customHeight="1"/>
-    <row r="92" ht="14.4" customHeight="1"/>
-    <row r="93" ht="14.4" customHeight="1"/>
-    <row r="94" ht="14.4" customHeight="1"/>
-    <row r="95" ht="14.4" customHeight="1"/>
-    <row r="96" ht="14.4" customHeight="1"/>
-    <row r="97" ht="14.4" customHeight="1"/>
-    <row r="98" ht="14.4" customHeight="1"/>
-    <row r="99" ht="14.4" customHeight="1"/>
-    <row r="100" ht="14.4" customHeight="1"/>
-    <row r="101" ht="14.4" customHeight="1"/>
-    <row r="102" ht="14.4" customHeight="1"/>
-    <row r="103" ht="14.4" customHeight="1"/>
-    <row r="104" ht="14.4" customHeight="1"/>
-    <row r="105" ht="14.4" customHeight="1"/>
-    <row r="106" ht="14.4" customHeight="1"/>
-    <row r="107" ht="14.4" customHeight="1"/>
-    <row r="108" ht="14.4" customHeight="1"/>
-    <row r="109" ht="14.4" customHeight="1"/>
-    <row r="110" ht="14.4" customHeight="1"/>
-    <row r="111" ht="14.4" customHeight="1"/>
-    <row r="112" ht="14.4" customHeight="1"/>
-    <row r="113" ht="14.4" customHeight="1"/>
-    <row r="114" ht="14.4" customHeight="1"/>
-    <row r="115" ht="14.4" customHeight="1"/>
-    <row r="116" ht="14.4" customHeight="1"/>
-    <row r="117" ht="14.4" customHeight="1"/>
-    <row r="118" ht="14.4" customHeight="1"/>
-    <row r="119" ht="14.4" customHeight="1"/>
-    <row r="120" ht="14.4" customHeight="1"/>
-    <row r="121" ht="14.4" customHeight="1"/>
-    <row r="122" ht="14.4" customHeight="1"/>
-    <row r="123" ht="14.4" customHeight="1"/>
-    <row r="124" ht="14.4" customHeight="1"/>
-    <row r="125" ht="14.4" customHeight="1"/>
-    <row r="126" ht="14.4" customHeight="1"/>
-    <row r="127" ht="14.4" customHeight="1"/>
-    <row r="128" ht="14.4" customHeight="1"/>
-    <row r="129" ht="14.4" customHeight="1"/>
-    <row r="130" ht="14.4" customHeight="1"/>
-    <row r="131" ht="14.4" customHeight="1"/>
-    <row r="132" ht="14.4" customHeight="1"/>
-    <row r="133" ht="14.4" customHeight="1"/>
-    <row r="134" ht="14.4" customHeight="1"/>
-    <row r="135" ht="14.4" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="H13:I13"/>
@@ -2780,453 +2798,6 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5682E82A-329E-4B95-BFE8-7CD98F83CCCC}">
-  <dimension ref="A1:L17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
-    <col min="8" max="8" width="24.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="0.5546875" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="23.4">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="176.4" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="180" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" ht="162.6" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:12" ht="193.8" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:12" ht="165" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:I11"/>
@@ -3276,6 +2847,550 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5682E82A-329E-4B95-BFE8-7CD98F83CCCC}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="0.5546875" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="30"/>
+      <c r="L1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="176.4" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="180" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" ht="162.6" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" ht="193.8" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" ht="165" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" ht="165" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" ht="165" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" ht="165" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" ht="165" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Testing/Test Report/TestCases.xlsx
+++ b/Testing/Test Report/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Mazrouaa\Documents\GitHub\learning-hub\Testing\Test Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BC835F-6A69-40F6-800E-8C262D7D3256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5D435C-19D2-466D-B06E-22E1AB1B3AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
     <sheet name="AddUser" sheetId="2" r:id="rId2"/>
     <sheet name="Add" sheetId="3" r:id="rId3"/>
+    <sheet name="Log out" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="155">
   <si>
     <t>ID</t>
   </si>
@@ -585,11 +586,6 @@
 3- he writes nothing in the text input field and click on the add button.</t>
   </si>
   <si>
-    <t>1- a pop up window will show up where he will find drop down list (to choose the category) , Article button and Upload button.
-2-a Text input Field and add button will appear.
-3-the Home page will be refreshed and  a message appears "Error empty content".</t>
-  </si>
-  <si>
     <t>adding article from home page with technology category and more than 1000 characters</t>
   </si>
   <si>
@@ -601,6 +597,71 @@
     <t>1- a pop up window will show up where he will find drop down list (to choose the category) , Article button and Upload button.
 2-a Text input Field and add button will appear.
 3-the Home page will be refreshed and  a message appears "Error: Content must not exceed 1000 characters".</t>
+  </si>
+  <si>
+    <t>1- a pop up window will show up where he will find drop down list (to choose the category) , Article button and Upload button.
+2-a Text input Field and add button will appear.
+3-the Home page will be refreshed and  a message appears "Error: Content is empty".</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_logout_001</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_logout_002</t>
+  </si>
+  <si>
+    <t>logging out from homepage</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_logout_003</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_logout_004</t>
+  </si>
+  <si>
+    <t>logging out from technology category page</t>
+  </si>
+  <si>
+    <t>logging out from mathmatics category page</t>
+  </si>
+  <si>
+    <t>logging out from language category page</t>
+  </si>
+  <si>
+    <t>1-user should have a browser to navigate to signup page.
+2-User should have xampp  and it's control panel
+3- user should have the database on the phpmyadmin (reach it through xampp control panel) 
+4- open the apache server and sql server
+5- user should login using his valid account and then navigate to technology page</t>
+  </si>
+  <si>
+    <t>1-user should have a browser to navigate to signup page.
+2-User should have xampp  and it's control panel
+3- user should have the database on the phpmyadmin (reach it through xampp control panel) 
+4- open the apache server and sql server
+5- user should login using his valid account and then navigate to language page</t>
+  </si>
+  <si>
+    <t>1- User click on the log out link in the upper right of the home page</t>
+  </si>
+  <si>
+    <t>1- the user will redirect to login page.</t>
+  </si>
+  <si>
+    <t>1- User click on the log out link in the upper right of the technology page</t>
+  </si>
+  <si>
+    <t>1-user should have a browser to navigate to signup page.
+2-User should have xampp  and it's control panel
+3- user should have the database on the phpmyadmin (reach it through xampp control panel) 
+4- open the apache server and sql server
+5- user should login using his valid account and then navigate to mathmatics page</t>
+  </si>
+  <si>
+    <t>1- User click on the log out link in the upper right of the mathmatics page</t>
+  </si>
+  <si>
+    <t>1- User click on the log out link in the upper right of the language page</t>
   </si>
 </sst>
 </file>
@@ -884,7 +945,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -896,41 +966,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -938,6 +978,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1244,23 +1305,23 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="29" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="30"/>
+      <c r="K1" s="23"/>
       <c r="L1" s="8" t="s">
         <v>6</v>
       </c>
@@ -1272,21 +1333,21 @@
       <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="14" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
@@ -1296,21 +1357,21 @@
       <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="14" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="16"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="143.4" customHeight="1">
@@ -1320,21 +1381,21 @@
       <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="14" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="158.4" customHeight="1">
@@ -1344,21 +1405,21 @@
       <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="14" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="144" customHeight="1">
@@ -1368,21 +1429,21 @@
       <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="27" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="14" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
@@ -1392,21 +1453,21 @@
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="27" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="14" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
@@ -1416,21 +1477,21 @@
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="14" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="156.6" customHeight="1">
@@ -1440,992 +1501,175 @@
       <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="14" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="14.4" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="26"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="20"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="14.4" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="20"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="14.4" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="14.4" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-    </row>
-    <row r="35" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-    </row>
-    <row r="36" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-    </row>
-    <row r="37" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-    </row>
-    <row r="38" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="39" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="40" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="41" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="42" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="43" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="44" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="45" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="46" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="47" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="48" spans="1:12" ht="14.4" customHeight="1"/>
-    <row r="49" ht="14.4" customHeight="1"/>
-    <row r="50" ht="14.4" customHeight="1"/>
-    <row r="51" ht="14.4" customHeight="1"/>
-    <row r="52" ht="14.4" customHeight="1"/>
-    <row r="53" ht="14.4" customHeight="1"/>
-    <row r="54" ht="14.4" customHeight="1"/>
-    <row r="55" ht="14.4" customHeight="1"/>
-    <row r="56" ht="14.4" customHeight="1"/>
-    <row r="57" ht="14.4" customHeight="1"/>
-    <row r="58" ht="14.4" customHeight="1"/>
-    <row r="59" ht="14.4" customHeight="1"/>
-    <row r="60" ht="14.4" customHeight="1"/>
-    <row r="61" ht="14.4" customHeight="1"/>
-    <row r="62" ht="14.4" customHeight="1"/>
-    <row r="63" ht="14.4" customHeight="1"/>
-    <row r="64" ht="14.4" customHeight="1"/>
-    <row r="65" ht="14.4" customHeight="1"/>
-    <row r="66" ht="14.4" customHeight="1"/>
-    <row r="67" ht="14.4" customHeight="1"/>
-    <row r="68" ht="14.4" customHeight="1"/>
-    <row r="69" ht="14.4" customHeight="1"/>
-    <row r="70" ht="14.4" customHeight="1"/>
-    <row r="71" ht="14.4" customHeight="1"/>
-    <row r="72" ht="14.4" customHeight="1"/>
-    <row r="73" ht="14.4" customHeight="1"/>
-    <row r="74" ht="14.4" customHeight="1"/>
-    <row r="75" ht="14.4" customHeight="1"/>
-    <row r="76" ht="14.4" customHeight="1"/>
-    <row r="77" ht="14.4" customHeight="1"/>
-    <row r="78" ht="14.4" customHeight="1"/>
-    <row r="79" ht="14.4" customHeight="1"/>
-    <row r="80" ht="14.4" customHeight="1"/>
-    <row r="81" ht="14.4" customHeight="1"/>
-    <row r="82" ht="14.4" customHeight="1"/>
-    <row r="83" ht="14.4" customHeight="1"/>
-    <row r="84" ht="14.4" customHeight="1"/>
-    <row r="85" ht="14.4" customHeight="1"/>
-    <row r="86" ht="14.4" customHeight="1"/>
-    <row r="87" ht="14.4" customHeight="1"/>
-    <row r="88" ht="14.4" customHeight="1"/>
-    <row r="89" ht="14.4" customHeight="1"/>
-    <row r="90" ht="14.4" customHeight="1"/>
-    <row r="91" ht="14.4" customHeight="1"/>
-    <row r="92" ht="14.4" customHeight="1"/>
-    <row r="93" ht="14.4" customHeight="1"/>
-    <row r="94" ht="14.4" customHeight="1"/>
-    <row r="95" ht="14.4" customHeight="1"/>
-    <row r="96" ht="14.4" customHeight="1"/>
-    <row r="97" ht="14.4" customHeight="1"/>
-    <row r="98" ht="14.4" customHeight="1"/>
-    <row r="99" ht="14.4" customHeight="1"/>
-    <row r="100" ht="14.4" customHeight="1"/>
-    <row r="101" ht="14.4" customHeight="1"/>
-    <row r="102" ht="14.4" customHeight="1"/>
-    <row r="103" ht="14.4" customHeight="1"/>
-    <row r="104" ht="14.4" customHeight="1"/>
-    <row r="105" ht="14.4" customHeight="1"/>
-    <row r="106" ht="14.4" customHeight="1"/>
-    <row r="107" ht="14.4" customHeight="1"/>
-    <row r="108" ht="14.4" customHeight="1"/>
-    <row r="109" ht="14.4" customHeight="1"/>
-    <row r="110" ht="14.4" customHeight="1"/>
-    <row r="111" ht="14.4" customHeight="1"/>
-    <row r="112" ht="14.4" customHeight="1"/>
-    <row r="113" ht="14.4" customHeight="1"/>
-    <row r="114" ht="14.4" customHeight="1"/>
-    <row r="115" ht="14.4" customHeight="1"/>
-    <row r="116" ht="14.4" customHeight="1"/>
-    <row r="117" ht="14.4" customHeight="1"/>
-    <row r="118" ht="14.4" customHeight="1"/>
-    <row r="119" ht="14.4" customHeight="1"/>
-    <row r="120" ht="14.4" customHeight="1"/>
-    <row r="121" ht="14.4" customHeight="1"/>
-    <row r="122" ht="14.4" customHeight="1"/>
-    <row r="123" ht="14.4" customHeight="1"/>
-    <row r="124" ht="14.4" customHeight="1"/>
-    <row r="125" ht="14.4" customHeight="1"/>
-    <row r="126" ht="14.4" customHeight="1"/>
-    <row r="127" ht="14.4" customHeight="1"/>
-    <row r="128" ht="14.4" customHeight="1"/>
-    <row r="129" ht="14.4" customHeight="1"/>
-    <row r="130" ht="14.4" customHeight="1"/>
-    <row r="131" ht="14.4" customHeight="1"/>
-    <row r="132" ht="14.4" customHeight="1"/>
-    <row r="133" ht="14.4" customHeight="1"/>
-    <row r="134" ht="14.4" customHeight="1"/>
-    <row r="135" ht="14.4" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F271FE2-6EF3-43D2-B6EB-8BA1A5C47F80}">
-  <dimension ref="A1:L135"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1"/>
-    <col min="4" max="4" width="0.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" customWidth="1"/>
-    <col min="9" max="10" width="31.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="23.4">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="157.80000000000001" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="143.4" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="158.4" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="144" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="156.6" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" customHeight="1">
@@ -2767,13 +2011,886 @@
   </sheetData>
   <mergeCells count="80">
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J8:K8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F271FE2-6EF3-43D2-B6EB-8BA1A5C47F80}">
+  <dimension ref="A1:L135"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
+    <col min="4" max="4" width="0.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" customWidth="1"/>
+    <col min="9" max="10" width="31.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="157.80000000000001" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="143.4" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="158.4" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="144" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="156.6" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="39" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="40" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="41" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="42" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="43" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="44" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="45" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="46" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="47" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="48" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="49" ht="14.4" customHeight="1"/>
+    <row r="50" ht="14.4" customHeight="1"/>
+    <row r="51" ht="14.4" customHeight="1"/>
+    <row r="52" ht="14.4" customHeight="1"/>
+    <row r="53" ht="14.4" customHeight="1"/>
+    <row r="54" ht="14.4" customHeight="1"/>
+    <row r="55" ht="14.4" customHeight="1"/>
+    <row r="56" ht="14.4" customHeight="1"/>
+    <row r="57" ht="14.4" customHeight="1"/>
+    <row r="58" ht="14.4" customHeight="1"/>
+    <row r="59" ht="14.4" customHeight="1"/>
+    <row r="60" ht="14.4" customHeight="1"/>
+    <row r="61" ht="14.4" customHeight="1"/>
+    <row r="62" ht="14.4" customHeight="1"/>
+    <row r="63" ht="14.4" customHeight="1"/>
+    <row r="64" ht="14.4" customHeight="1"/>
+    <row r="65" ht="14.4" customHeight="1"/>
+    <row r="66" ht="14.4" customHeight="1"/>
+    <row r="67" ht="14.4" customHeight="1"/>
+    <row r="68" ht="14.4" customHeight="1"/>
+    <row r="69" ht="14.4" customHeight="1"/>
+    <row r="70" ht="14.4" customHeight="1"/>
+    <row r="71" ht="14.4" customHeight="1"/>
+    <row r="72" ht="14.4" customHeight="1"/>
+    <row r="73" ht="14.4" customHeight="1"/>
+    <row r="74" ht="14.4" customHeight="1"/>
+    <row r="75" ht="14.4" customHeight="1"/>
+    <row r="76" ht="14.4" customHeight="1"/>
+    <row r="77" ht="14.4" customHeight="1"/>
+    <row r="78" ht="14.4" customHeight="1"/>
+    <row r="79" ht="14.4" customHeight="1"/>
+    <row r="80" ht="14.4" customHeight="1"/>
+    <row r="81" ht="14.4" customHeight="1"/>
+    <row r="82" ht="14.4" customHeight="1"/>
+    <row r="83" ht="14.4" customHeight="1"/>
+    <row r="84" ht="14.4" customHeight="1"/>
+    <row r="85" ht="14.4" customHeight="1"/>
+    <row r="86" ht="14.4" customHeight="1"/>
+    <row r="87" ht="14.4" customHeight="1"/>
+    <row r="88" ht="14.4" customHeight="1"/>
+    <row r="89" ht="14.4" customHeight="1"/>
+    <row r="90" ht="14.4" customHeight="1"/>
+    <row r="91" ht="14.4" customHeight="1"/>
+    <row r="92" ht="14.4" customHeight="1"/>
+    <row r="93" ht="14.4" customHeight="1"/>
+    <row r="94" ht="14.4" customHeight="1"/>
+    <row r="95" ht="14.4" customHeight="1"/>
+    <row r="96" ht="14.4" customHeight="1"/>
+    <row r="97" ht="14.4" customHeight="1"/>
+    <row r="98" ht="14.4" customHeight="1"/>
+    <row r="99" ht="14.4" customHeight="1"/>
+    <row r="100" ht="14.4" customHeight="1"/>
+    <row r="101" ht="14.4" customHeight="1"/>
+    <row r="102" ht="14.4" customHeight="1"/>
+    <row r="103" ht="14.4" customHeight="1"/>
+    <row r="104" ht="14.4" customHeight="1"/>
+    <row r="105" ht="14.4" customHeight="1"/>
+    <row r="106" ht="14.4" customHeight="1"/>
+    <row r="107" ht="14.4" customHeight="1"/>
+    <row r="108" ht="14.4" customHeight="1"/>
+    <row r="109" ht="14.4" customHeight="1"/>
+    <row r="110" ht="14.4" customHeight="1"/>
+    <row r="111" ht="14.4" customHeight="1"/>
+    <row r="112" ht="14.4" customHeight="1"/>
+    <row r="113" ht="14.4" customHeight="1"/>
+    <row r="114" ht="14.4" customHeight="1"/>
+    <row r="115" ht="14.4" customHeight="1"/>
+    <row r="116" ht="14.4" customHeight="1"/>
+    <row r="117" ht="14.4" customHeight="1"/>
+    <row r="118" ht="14.4" customHeight="1"/>
+    <row r="119" ht="14.4" customHeight="1"/>
+    <row r="120" ht="14.4" customHeight="1"/>
+    <row r="121" ht="14.4" customHeight="1"/>
+    <row r="122" ht="14.4" customHeight="1"/>
+    <row r="123" ht="14.4" customHeight="1"/>
+    <row r="124" ht="14.4" customHeight="1"/>
+    <row r="125" ht="14.4" customHeight="1"/>
+    <row r="126" ht="14.4" customHeight="1"/>
+    <row r="127" ht="14.4" customHeight="1"/>
+    <row r="128" ht="14.4" customHeight="1"/>
+    <row r="129" ht="14.4" customHeight="1"/>
+    <row r="130" ht="14.4" customHeight="1"/>
+    <row r="131" ht="14.4" customHeight="1"/>
+    <row r="132" ht="14.4" customHeight="1"/>
+    <row r="133" ht="14.4" customHeight="1"/>
+    <row r="134" ht="14.4" customHeight="1"/>
+    <row r="135" ht="14.4" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="H17:I17"/>
@@ -2782,22 +2899,808 @@
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5682E82A-329E-4B95-BFE8-7CD98F83CCCC}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="0.5546875" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="176.4" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="180" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" ht="162.6" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" ht="193.8" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" ht="165" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" ht="165" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" ht="165" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" ht="165" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" ht="165" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748D915B-90BF-4E6A-812D-E08D816AAF2A}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" customWidth="1"/>
+    <col min="9" max="9" width="35.77734375" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="136.80000000000001" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="136.80000000000001" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="136.80000000000001" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="136.80000000000001" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="136.80000000000001" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="136.80000000000001" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="136.80000000000001" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="136.80000000000001" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="136.80000000000001" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="136.80000000000001" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="136.80000000000001" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:I11"/>
@@ -2847,552 +3750,7 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5682E82A-329E-4B95-BFE8-7CD98F83CCCC}">
-  <dimension ref="A1:L20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
-    <col min="8" max="8" width="24.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="0.5546875" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="23.4">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="176.4" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="173.4" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="180" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:12" ht="162.6" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" ht="193.8" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:12" ht="165" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" ht="165" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" ht="165" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" ht="165" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" ht="165" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testing/Test Report/TestCases.xlsx
+++ b/Testing/Test Report/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alaa Osama\Documents\GitHub\learning-hub\Testing\Test Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57248E6A-6A65-4435-A4E2-9AEF9C8EC123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EC2192-D827-47AA-AADB-85564013A0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="Follow" sheetId="6" r:id="rId6"/>
     <sheet name="Log In" sheetId="7" r:id="rId7"/>
     <sheet name="Notification" sheetId="8" r:id="rId8"/>
+    <sheet name="Navigation" sheetId="9" r:id="rId9"/>
+    <sheet name="Delete" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="364">
   <si>
     <t>ID</t>
   </si>
@@ -2118,12 +2120,421 @@
   <si>
     <t>TC_LearningHub_Notification_005</t>
   </si>
+  <si>
+    <t>TC_LearningHub_NAV_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can navigate to technology  page after clicking technology from navigation bar </t>
+  </si>
+  <si>
+    <t>1- open learning hub website
+2- login as user</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+1-  click on technology from the navigation bar  </t>
+  </si>
+  <si>
+    <t>the systen should be redirected to technology category page</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_NAV_002</t>
+  </si>
+  <si>
+    <t>verifying that user can navigate to languages  page after clickin languages from navigation bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+1-  click on languages from the navigation bar  </t>
+  </si>
+  <si>
+    <t>the systen should be redirected to languages category page</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_NAV_003</t>
+  </si>
+  <si>
+    <t>verifying that user can navigate to mathematics  page after clicking mathematics from nVIGtion bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+1-  click on mathematics from the navigation bar  </t>
+  </si>
+  <si>
+    <t>the systen should be redirected to mathematics category page</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_NAV_004</t>
+  </si>
+  <si>
+    <t>verifying that user can navigate to home page by clicking on learning hub icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- click on learning hub icon </t>
+  </si>
+  <si>
+    <t>the system should be redirected to the home page</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_NAV_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can navigate to profile page after selecting profile from the dropdown list in navigation bar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- click on the dropdown list in the navigation ba
+2- select profile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the system should be redirected to profile page </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_NAV_006</t>
+  </si>
+  <si>
+    <t>verify that the profile page of the user includes this infornations Username-Email- Followed categories and the Role is User.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- open learning hub website
+2- login as user
+3- open profile page </t>
+  </si>
+  <si>
+    <r>
+      <t>the profile page should contains the user's informations Username-Email- Followed categories and the Role is User</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>TC_LearningHub_NAV_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can navigate to notification page after selecting notification from the dropdown list in navigation bar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- click on the dropdown list in the navigation ba
+2- select notification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the system should be redirected to the notification page </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_NAV_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that admin can navigate to technology  page after clicking technology from navigation bar </t>
+  </si>
+  <si>
+    <t>1- open learning hub website
+2- login as admin</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_NAV_009</t>
+  </si>
+  <si>
+    <t>verifying that admin can navigate to languages  page after clickin languages from navigation bar</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_NAV_010</t>
+  </si>
+  <si>
+    <t>verifying that admin can navigate to mathematics  page after clicking mathematics from nVIGtion bar</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_NAV_011</t>
+  </si>
+  <si>
+    <t>verifying that admin can navigate to home page by clicking on learning hub icon</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_NAV_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that admin can navigate to profile page after selecting profile from the dropdown list in navigation bar </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_NAV_013</t>
+  </si>
+  <si>
+    <t>verify that the profile page of the admin includes this infornations Username-Email- Followed categories and the Role is Admin
+and Add user and Del user buttons are exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the profile page should contains the user's informations Username-Email- Followed categories and the Role is Admin 
+and Add user and Del user buttons are exist </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_NAV_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that admin can navigate to notification page after selecting notification from the dropdown list in navigation bar </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete his  published article from the home page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- open learning hub website
+2- login as user
+3- navigate to home page </t>
+  </si>
+  <si>
+    <t>1- click on the Delete icon front of the user's Article only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the home page should be refreshed and the article should be deleted from this page and all other pages </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete his  published article from the technology category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- open learning hub website
+2- login as user
+3- navigate to technology category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the technology  page  should be refreshed and the article should be deleted from this page and all other pages </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete his  published article from the languages category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- open learning hub website
+2- login as user
+3- navigate to languages category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the languages  page  should be refreshed and the article should be deleted from this page and all other pages </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete his  published article from the mathematics category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- open learning hub website
+2- login as user
+3- navigate to mathematics category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the mathematics  page  should be refreshed and the article should be deleted from this page and all other pages </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete his his published record from the home page </t>
+  </si>
+  <si>
+    <t>1- click on the Delete icon front of the user's Record only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the home page should be refreshed and the Record should be deleted from this page and all other pages </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete his  published record from the technology category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the technology  page  should be refreshed and the record should be deleted from this page and all other pages </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete his  published record from the languages category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the languages  page  should be refreshed and the record should be deleted from this page and all other pages </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete his  published record from the mathematics category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the mathematics  page  should be refreshed and the record should be deleted from this page and all other pages </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete his his published video from the home page </t>
+  </si>
+  <si>
+    <t>1- click on the Delete icon front of the user's Video only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the home page should be refreshed and the video should be deleted from this page and all other pages </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete his his published video from the technology category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the technology  page  should be refreshed and the video should be deleted from this page and all other pages </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete his his published video from the languages category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the languages  page  should be refreshed and the video should be deleted from this page and all other pages </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete his his published video from the mathematics category page </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that admin can delete any published article from the home page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- open learning hub website
+2- login as admin 
+3- navigate to home page </t>
+  </si>
+  <si>
+    <t>1- click on the Delete icon front of the any user's Article</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that  admin can delete any published article from the technology category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- open learning hub website
+2- login as admin
+3- navigate to technology category page </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that admin can delete anypublished article from the languages category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- open learning hub website
+2- login as admin
+3- navigate to languages category page </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that  admin can delete any published article from the mathematics category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- open learning hub website
+2- login as admin
+3- navigate to mathematics category page </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that admin can delete any published record from the home page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- open learning hub website
+2- login as admin
+3- navigate to home page </t>
+  </si>
+  <si>
+    <t>1- click on the Delete icon front of the user's Record</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that  admin can delete any published record from the technology category page </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that admin can delete any published record from the languages category page </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that  admin can delete any published record from the mathematics category page </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that  admin can delete any published video from the home page </t>
+  </si>
+  <si>
+    <t>1- click on the Delete icon front of the user's Video</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that  admin can delete any published video from the technology category page </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that admin can delete any published video from the languages category page </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_DELETE _024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that  admin can delete any published video from the mathematics category page </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2202,6 +2613,34 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2253,7 +2692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2506,12 +2945,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2639,12 +3089,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2670,32 +3140,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2997,23 +3468,23 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="43" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="45" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="44"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
@@ -3025,21 +3496,21 @@
       <c r="B2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="46" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
@@ -3049,21 +3520,21 @@
       <c r="B3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="46" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="47"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="143.4" customHeight="1">
@@ -3073,21 +3544,21 @@
       <c r="B4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48" t="s">
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="47"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="158.4" customHeight="1">
@@ -3097,21 +3568,21 @@
       <c r="B5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48" t="s">
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="47"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="144" customHeight="1">
@@ -3121,21 +3592,21 @@
       <c r="B6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="46" t="s">
+      <c r="D6" s="53"/>
+      <c r="E6" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="47"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
@@ -3145,21 +3616,21 @@
       <c r="B7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="46" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="47"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="53"/>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
@@ -3169,21 +3640,21 @@
       <c r="B8" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="46" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48" t="s">
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="47"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="156.6" customHeight="1">
@@ -3193,175 +3664,175 @@
       <c r="B9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="46" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="47"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="53"/>
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="14.4" customHeight="1">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
       <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" customHeight="1">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="55"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
       <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" ht="14.4" customHeight="1">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
       <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12" ht="14.4" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="58"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:12" ht="14.4" customHeight="1">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
       <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" customHeight="1">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
       <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
       <c r="L16" s="41"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" customHeight="1">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
       <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" customHeight="1">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
       <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" customHeight="1">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
       <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" customHeight="1">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
       <c r="L20" s="41"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" customHeight="1">
@@ -3702,6 +4173,78 @@
     <row r="135" ht="14.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -3710,81 +4253,513 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4698EC-3F96-4DF1-A2F9-F91ED71E0192}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="37.6640625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="42" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="42" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" style="42" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="65" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A2" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+    </row>
+    <row r="3" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A3" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+    </row>
+    <row r="4" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A4" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+    </row>
+    <row r="5" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A5" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+    </row>
+    <row r="6" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A6" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+    </row>
+    <row r="7" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A7" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+    </row>
+    <row r="8" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A8" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+    </row>
+    <row r="9" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A9" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>309</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+    </row>
+    <row r="10" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A10" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+    </row>
+    <row r="11" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A11" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="E11" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+    </row>
+    <row r="12" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A12" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+    </row>
+    <row r="13" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A13" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>331</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+    </row>
+    <row r="14" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A14" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+    </row>
+    <row r="15" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A15" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+    </row>
+    <row r="16" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A16" s="63" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+    </row>
+    <row r="17" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A17" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+    </row>
+    <row r="18" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A18" s="63" t="s">
+        <v>345</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>348</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+    </row>
+    <row r="19" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A19" s="63" t="s">
+        <v>349</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>348</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+    </row>
+    <row r="20" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A20" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>341</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+    </row>
+    <row r="21" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A21" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>348</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+    </row>
+    <row r="22" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A22" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>357</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+    </row>
+    <row r="23" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A23" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>357</v>
+      </c>
+      <c r="E23" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+    </row>
+    <row r="24" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A24" s="63" t="s">
+        <v>360</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>341</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>357</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+    </row>
+    <row r="25" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A25" s="63" t="s">
+        <v>362</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>363</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>357</v>
+      </c>
+      <c r="E25" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3814,23 +4789,23 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="43" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="45" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="44"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
@@ -3842,21 +4817,21 @@
       <c r="B2" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="48" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="48" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
@@ -3866,21 +4841,21 @@
       <c r="B3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="48" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="47"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="143.4" customHeight="1">
@@ -3890,21 +4865,21 @@
       <c r="B4" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="48" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="48" t="s">
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="47"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="158.4" customHeight="1">
@@ -3914,21 +4889,21 @@
       <c r="B5" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="48" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="48" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="47"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="144" customHeight="1">
@@ -3938,21 +4913,21 @@
       <c r="B6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="48" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="48" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="47"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
@@ -3962,21 +4937,21 @@
       <c r="B7" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="48" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="48" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="47"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="53"/>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
@@ -3986,21 +4961,21 @@
       <c r="B8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="48" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="48" t="s">
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="47"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="156.6" customHeight="1">
@@ -4010,175 +4985,175 @@
       <c r="B9" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="48" t="s">
+      <c r="D9" s="55"/>
+      <c r="E9" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="48" t="s">
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="47"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="53"/>
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="14.4" customHeight="1">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
       <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" customHeight="1">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="55"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
       <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" ht="14.4" customHeight="1">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
       <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12" ht="14.4" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="58"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:12" ht="14.4" customHeight="1">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
       <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" customHeight="1">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
       <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
       <c r="L16" s="41"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" customHeight="1">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
       <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" customHeight="1">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
       <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" customHeight="1">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
       <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" customHeight="1">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
       <c r="L20" s="41"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" customHeight="1">
@@ -4519,6 +5494,78 @@
     <row r="135" ht="14.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -4527,78 +5574,6 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4636,23 +5611,23 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="43" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="45" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="44"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
@@ -4664,21 +5639,21 @@
       <c r="B2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="46" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="173.4" customHeight="1">
@@ -4688,21 +5663,21 @@
       <c r="B3" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="46" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="47"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="173.4" customHeight="1">
@@ -4712,21 +5687,21 @@
       <c r="B4" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48" t="s">
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="47"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="176.4" customHeight="1">
@@ -4736,21 +5711,21 @@
       <c r="B5" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48" t="s">
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="47"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="173.4" customHeight="1">
@@ -4760,21 +5735,21 @@
       <c r="B6" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="46" t="s">
+      <c r="D6" s="53"/>
+      <c r="E6" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="47"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="173.4" customHeight="1">
@@ -4784,21 +5759,21 @@
       <c r="B7" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="46" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="47"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="53"/>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="173.4" customHeight="1">
@@ -4808,21 +5783,21 @@
       <c r="B8" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="46" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48" t="s">
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="47"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="173.4" customHeight="1">
@@ -4832,21 +5807,21 @@
       <c r="B9" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="46" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="47"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="53"/>
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="173.4" customHeight="1">
@@ -4856,21 +5831,21 @@
       <c r="B10" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="46" t="s">
+      <c r="D10" s="53"/>
+      <c r="E10" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48" t="s">
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="47"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="173.4" customHeight="1">
@@ -4880,21 +5855,21 @@
       <c r="B11" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="46" t="s">
+      <c r="D11" s="53"/>
+      <c r="E11" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48" t="s">
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="47"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="53"/>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="173.4" customHeight="1">
@@ -4904,21 +5879,21 @@
       <c r="B12" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46" t="s">
+      <c r="D12" s="53"/>
+      <c r="E12" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48" t="s">
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="47"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="53"/>
       <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:12" ht="180" customHeight="1">
@@ -4928,19 +5903,19 @@
       <c r="B13" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="46" t="s">
+      <c r="D13" s="53"/>
+      <c r="E13" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48" t="s">
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="I13" s="49"/>
+      <c r="I13" s="55"/>
     </row>
     <row r="14" spans="1:12" ht="162.6" customHeight="1">
       <c r="A14" s="32" t="s">
@@ -4949,19 +5924,19 @@
       <c r="B14" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="46" t="s">
+      <c r="D14" s="53"/>
+      <c r="E14" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48" t="s">
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="49"/>
+      <c r="I14" s="55"/>
     </row>
     <row r="15" spans="1:12" ht="193.8" customHeight="1">
       <c r="A15" s="32" t="s">
@@ -4970,19 +5945,19 @@
       <c r="B15" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="46" t="s">
+      <c r="D15" s="53"/>
+      <c r="E15" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48" t="s">
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="49"/>
+      <c r="I15" s="55"/>
     </row>
     <row r="16" spans="1:12" ht="165" customHeight="1">
       <c r="A16" s="32" t="s">
@@ -4991,19 +5966,19 @@
       <c r="B16" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="46" t="s">
+      <c r="D16" s="53"/>
+      <c r="E16" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48" t="s">
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="49"/>
+      <c r="I16" s="55"/>
     </row>
     <row r="17" spans="1:9" ht="165" customHeight="1">
       <c r="A17" s="32" t="s">
@@ -5012,19 +5987,19 @@
       <c r="B17" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="46" t="s">
+      <c r="D17" s="53"/>
+      <c r="E17" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48" t="s">
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="55"/>
     </row>
     <row r="18" spans="1:9" ht="165" customHeight="1">
       <c r="A18" s="32" t="s">
@@ -5033,68 +6008,84 @@
       <c r="B18" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="46" t="s">
+      <c r="D18" s="53"/>
+      <c r="E18" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48" t="s">
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="I18" s="49"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:9" ht="165" customHeight="1">
       <c r="A19" s="32"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
     </row>
     <row r="20" spans="1:9" ht="165" customHeight="1">
       <c r="A20" s="32"/>
       <c r="B20" s="33"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:I11"/>
@@ -5103,46 +6094,30 @@
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5175,23 +6150,23 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="43" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="45" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="44"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
@@ -5203,21 +6178,21 @@
       <c r="B2" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="46" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="136.80000000000001" customHeight="1">
@@ -5227,21 +6202,21 @@
       <c r="B3" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="46" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="47"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="136.80000000000001" customHeight="1">
@@ -5251,21 +6226,21 @@
       <c r="B4" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48" t="s">
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="47"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="136.80000000000001" customHeight="1">
@@ -5275,123 +6250,163 @@
       <c r="B5" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48" t="s">
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="47"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A6" s="32"/>
       <c r="B6" s="33"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A7" s="32"/>
       <c r="B7" s="33"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="47"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="53"/>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A8" s="32"/>
       <c r="B8" s="33"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="47"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A9" s="32"/>
       <c r="B9" s="33"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="47"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="53"/>
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="47"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="33"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="47"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="53"/>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" s="33"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="47"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="53"/>
       <c r="L12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:I11"/>
@@ -5400,46 +6415,6 @@
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5745,23 +6720,23 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="43" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="45" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="44"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
@@ -5770,148 +6745,164 @@
       <c r="A2" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="46" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="46" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="46" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="46" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="47"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="46" t="s">
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="47"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="47"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="46" t="s">
+      <c r="D6" s="53"/>
+      <c r="E6" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="46" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="47"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="46" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="46" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="47"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="53"/>
       <c r="L7" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:I7"/>
@@ -5924,22 +6915,6 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5949,7 +6924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC5193B-BAD0-4FEF-BBB7-21CF823D3739}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -5971,23 +6946,23 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="43" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="45" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="44"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
@@ -5996,124 +6971,140 @@
       <c r="A2" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="46" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="46" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="46" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="46" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="47"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="46" t="s">
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="47"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="47"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="46" t="s">
+      <c r="D6" s="53"/>
+      <c r="E6" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="46" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="47"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:I5"/>
@@ -6122,23 +7113,315 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DAC4C4-CD79-4C1C-9FC4-F0A50E3BE56A}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="36.77734375" style="42" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="42" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="42" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="42" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="65" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="65" customFormat="1" ht="96" customHeight="1">
+      <c r="A2" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+    </row>
+    <row r="3" spans="1:7" s="65" customFormat="1" ht="91.2" customHeight="1">
+      <c r="A3" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+    </row>
+    <row r="4" spans="1:7" s="65" customFormat="1" ht="87" customHeight="1">
+      <c r="A4" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+    </row>
+    <row r="5" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A5" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+    </row>
+    <row r="6" spans="1:7" s="65" customFormat="1" ht="102" customHeight="1">
+      <c r="A6" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+    </row>
+    <row r="7" spans="1:7" s="65" customFormat="1" ht="100.2" customHeight="1">
+      <c r="A7" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+    </row>
+    <row r="8" spans="1:7" s="65" customFormat="1" ht="99.6" customHeight="1">
+      <c r="A8" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+    </row>
+    <row r="9" spans="1:7" s="65" customFormat="1" ht="95.4" customHeight="1">
+      <c r="A9" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+    </row>
+    <row r="10" spans="1:7" s="65" customFormat="1" ht="94.2" customHeight="1">
+      <c r="A10" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+    </row>
+    <row r="11" spans="1:7" s="65" customFormat="1" ht="95.4" customHeight="1">
+      <c r="A11" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+    </row>
+    <row r="12" spans="1:7" s="65" customFormat="1" ht="94.2" customHeight="1">
+      <c r="A12" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+    </row>
+    <row r="13" spans="1:7" s="65" customFormat="1" ht="94.8" customHeight="1">
+      <c r="A13" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+    </row>
+    <row r="14" spans="1:7" s="65" customFormat="1" ht="102.6" customHeight="1">
+      <c r="A14" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+    </row>
+    <row r="15" spans="1:7" s="65" customFormat="1" ht="94.8" customHeight="1">
+      <c r="A15" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testing/Test Report/TestCases.xlsx
+++ b/Testing/Test Report/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alaa Osama\Documents\GitHub\learning-hub\Testing\Test Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EC2192-D827-47AA-AADB-85564013A0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F1B38C-FF27-4B18-ADA3-E77C98AA189E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -1996,14 +1996,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-1- Navigate to the login page of the application.
-2- Enter the username and password with the correct case.
-3- Click on the 'Sign Up' Hyper Link.
-4- Repeat the process, but enter the username and/or password with incorrect case.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 
 The user should be able to log in when entering the correct case, and receive an error message when entering incorrect case.</t>
   </si>
@@ -2528,6 +2520,14 @@
   </si>
   <si>
     <t xml:space="preserve">verifying that  admin can delete any published video from the mathematics category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Navigate to the login page of the application.
+2- Enter the username and password with the correct case.
+3- Click on the 'Login' Hyper Link.
+4- Repeat the process, but enter the username and/or password with incorrect case.
+</t>
   </si>
 </sst>
 </file>
@@ -3092,29 +3092,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3140,33 +3144,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3468,23 +3468,23 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="60" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="61"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
@@ -3496,21 +3496,21 @@
       <c r="B2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
@@ -3520,21 +3520,21 @@
       <c r="B3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="53"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="143.4" customHeight="1">
@@ -3544,21 +3544,21 @@
       <c r="B4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="52" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54" t="s">
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="158.4" customHeight="1">
@@ -3568,21 +3568,21 @@
       <c r="B5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="52" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="53"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="144" customHeight="1">
@@ -3592,21 +3592,21 @@
       <c r="B6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="52" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="53"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
@@ -3616,21 +3616,21 @@
       <c r="B7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="52" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="53"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
@@ -3640,21 +3640,21 @@
       <c r="B8" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="52" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54" t="s">
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="53"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="156.6" customHeight="1">
@@ -3664,175 +3664,175 @@
       <c r="B9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="52" t="s">
+      <c r="D9" s="55"/>
+      <c r="E9" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54" t="s">
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="53"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="14.4" customHeight="1">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
       <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" customHeight="1">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
       <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" ht="14.4" customHeight="1">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="50"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12" ht="14.4" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="46"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="66"/>
       <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:12" ht="14.4" customHeight="1">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
       <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" customHeight="1">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
       <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
       <c r="L16" s="41"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" customHeight="1">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
       <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" customHeight="1">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
       <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" customHeight="1">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
       <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" customHeight="1">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
       <c r="L20" s="41"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" customHeight="1">
@@ -4173,6 +4173,78 @@
     <row r="135" ht="14.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -4181,78 +4253,6 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4263,7 +4263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4698EC-3F96-4DF1-A2F9-F91ED71E0192}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4279,484 +4279,484 @@
     <col min="8" max="16384" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="65" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:7" s="46" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A2" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="C2" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="D2" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="E2" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A3" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-    </row>
-    <row r="3" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="B3" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="C3" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="D3" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A4" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A5" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A6" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A7" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+    </row>
+    <row r="8" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A8" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A9" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A10" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A11" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A12" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A13" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A14" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="E14" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="E3" s="66" t="s">
-        <v>298</v>
-      </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-    </row>
-    <row r="4" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A4" s="63" t="s">
-        <v>299</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>300</v>
-      </c>
-      <c r="C4" s="66" t="s">
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A15" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+    </row>
+    <row r="16" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A16" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="E16" s="47" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="66" t="s">
-        <v>293</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>302</v>
-      </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-    </row>
-    <row r="5" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A5" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" s="66" t="s">
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+    </row>
+    <row r="17" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A17" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A18" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A19" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A20" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A21" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="C21" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="C5" s="66" t="s">
-        <v>305</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>293</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>306</v>
-      </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-    </row>
-    <row r="6" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A6" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>308</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>292</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-    </row>
-    <row r="7" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A7" s="63" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>313</v>
-      </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-    </row>
-    <row r="8" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A8" s="63" t="s">
-        <v>314</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>315</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>301</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>316</v>
-      </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-    </row>
-    <row r="9" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A9" s="63" t="s">
-        <v>317</v>
-      </c>
-      <c r="B9" s="66" t="s">
+      <c r="D21" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="E21" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="C9" s="66" t="s">
-        <v>305</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-    </row>
-    <row r="10" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A10" s="63" t="s">
-        <v>320</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>292</v>
-      </c>
-      <c r="D10" s="66" t="s">
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A22" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="E22" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="E10" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-    </row>
-    <row r="11" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A11" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="B11" s="66" t="s">
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A23" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="E23" s="47" t="s">
         <v>325</v>
       </c>
-      <c r="C11" s="66" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-    </row>
-    <row r="12" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A12" s="63" t="s">
-        <v>327</v>
-      </c>
-      <c r="B12" s="66" t="s">
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A24" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="E24" s="47" t="s">
         <v>328</v>
       </c>
-      <c r="C12" s="66" t="s">
-        <v>301</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>329</v>
-      </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-    </row>
-    <row r="13" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A13" s="63" t="s">
-        <v>330</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>331</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>305</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-    </row>
-    <row r="14" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A14" s="63" t="s">
-        <v>332</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>333</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>334</v>
-      </c>
-      <c r="D14" s="69" t="s">
-        <v>335</v>
-      </c>
-      <c r="E14" s="69" t="s">
-        <v>294</v>
-      </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-    </row>
-    <row r="15" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A15" s="63" t="s">
-        <v>336</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="D15" s="69" t="s">
-        <v>335</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>298</v>
-      </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-    </row>
-    <row r="16" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A16" s="63" t="s">
-        <v>339</v>
-      </c>
-      <c r="B16" s="66" t="s">
-        <v>340</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>341</v>
-      </c>
-      <c r="D16" s="69" t="s">
-        <v>335</v>
-      </c>
-      <c r="E16" s="66" t="s">
-        <v>302</v>
-      </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-    </row>
-    <row r="17" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A17" s="63" t="s">
-        <v>342</v>
-      </c>
-      <c r="B17" s="66" t="s">
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+    </row>
+    <row r="25" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A25" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="C25" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="C17" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>335</v>
-      </c>
-      <c r="E17" s="66" t="s">
-        <v>306</v>
-      </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-    </row>
-    <row r="18" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A18" s="63" t="s">
-        <v>345</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>347</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>348</v>
-      </c>
-      <c r="E18" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-    </row>
-    <row r="19" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A19" s="63" t="s">
-        <v>349</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>350</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>348</v>
-      </c>
-      <c r="E19" s="66" t="s">
-        <v>313</v>
-      </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-    </row>
-    <row r="20" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A20" s="63" t="s">
-        <v>351</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>352</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>341</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>348</v>
-      </c>
-      <c r="E20" s="66" t="s">
-        <v>316</v>
-      </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-    </row>
-    <row r="21" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A21" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>305</v>
-      </c>
-      <c r="D21" s="66" t="s">
-        <v>348</v>
-      </c>
-      <c r="E21" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-    </row>
-    <row r="22" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A22" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="B22" s="66" t="s">
+      <c r="D25" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="C22" s="66" t="s">
-        <v>292</v>
-      </c>
-      <c r="D22" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="E22" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-    </row>
-    <row r="23" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A23" s="63" t="s">
-        <v>358</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="D23" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="E23" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-    </row>
-    <row r="24" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A24" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="B24" s="66" t="s">
-        <v>361</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>341</v>
-      </c>
-      <c r="D24" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="E24" s="66" t="s">
-        <v>329</v>
-      </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-    </row>
-    <row r="25" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A25" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B25" s="66" t="s">
-        <v>363</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="D25" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="E25" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
+      <c r="E25" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4789,23 +4789,23 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="60" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="61"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
@@ -4817,21 +4817,21 @@
       <c r="B2" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="54" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="54" t="s">
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
@@ -4841,21 +4841,21 @@
       <c r="B3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="54" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="53"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="143.4" customHeight="1">
@@ -4865,21 +4865,21 @@
       <c r="B4" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="54" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="158.4" customHeight="1">
@@ -4889,21 +4889,21 @@
       <c r="B5" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="54" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="53"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="144" customHeight="1">
@@ -4913,21 +4913,21 @@
       <c r="B6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="54" t="s">
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="53"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
@@ -4937,21 +4937,21 @@
       <c r="B7" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="54" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="54" t="s">
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="53"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
@@ -4961,21 +4961,21 @@
       <c r="B8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="54" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="54" t="s">
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="53"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="156.6" customHeight="1">
@@ -4985,175 +4985,175 @@
       <c r="B9" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="54" t="s">
+      <c r="D9" s="57"/>
+      <c r="E9" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="54" t="s">
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="53"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="14.4" customHeight="1">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
       <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" customHeight="1">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
       <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" ht="14.4" customHeight="1">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="50"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12" ht="14.4" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="46"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="66"/>
       <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:12" ht="14.4" customHeight="1">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
       <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" customHeight="1">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
       <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
       <c r="L16" s="41"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" customHeight="1">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
       <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" customHeight="1">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
       <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" customHeight="1">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
       <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" customHeight="1">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
       <c r="L20" s="41"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" customHeight="1">
@@ -5494,6 +5494,78 @@
     <row r="135" ht="14.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -5502,78 +5574,6 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5611,23 +5611,23 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="60" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="61"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
@@ -5639,21 +5639,21 @@
       <c r="B2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="173.4" customHeight="1">
@@ -5663,21 +5663,21 @@
       <c r="B3" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="53"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="173.4" customHeight="1">
@@ -5687,21 +5687,21 @@
       <c r="B4" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="52" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54" t="s">
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="176.4" customHeight="1">
@@ -5711,21 +5711,21 @@
       <c r="B5" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="52" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="53"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="173.4" customHeight="1">
@@ -5735,21 +5735,21 @@
       <c r="B6" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="52" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="53"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="173.4" customHeight="1">
@@ -5759,21 +5759,21 @@
       <c r="B7" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="52" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="53"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="173.4" customHeight="1">
@@ -5783,21 +5783,21 @@
       <c r="B8" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="52" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54" t="s">
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="53"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="173.4" customHeight="1">
@@ -5807,21 +5807,21 @@
       <c r="B9" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="52" t="s">
+      <c r="D9" s="55"/>
+      <c r="E9" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54" t="s">
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="53"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="173.4" customHeight="1">
@@ -5831,21 +5831,21 @@
       <c r="B10" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="52" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54" t="s">
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="55"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="53"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="173.4" customHeight="1">
@@ -5855,21 +5855,21 @@
       <c r="B11" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="52" t="s">
+      <c r="D11" s="55"/>
+      <c r="E11" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54" t="s">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="53"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="173.4" customHeight="1">
@@ -5879,21 +5879,21 @@
       <c r="B12" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="52" t="s">
+      <c r="D12" s="55"/>
+      <c r="E12" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54" t="s">
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="53"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:12" ht="180" customHeight="1">
@@ -5903,19 +5903,19 @@
       <c r="B13" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="52" t="s">
+      <c r="D13" s="55"/>
+      <c r="E13" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="54" t="s">
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="I13" s="55"/>
+      <c r="I13" s="57"/>
     </row>
     <row r="14" spans="1:12" ht="162.6" customHeight="1">
       <c r="A14" s="32" t="s">
@@ -5924,19 +5924,19 @@
       <c r="B14" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="52" t="s">
+      <c r="D14" s="55"/>
+      <c r="E14" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54" t="s">
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="55"/>
+      <c r="I14" s="57"/>
     </row>
     <row r="15" spans="1:12" ht="193.8" customHeight="1">
       <c r="A15" s="32" t="s">
@@ -5945,19 +5945,19 @@
       <c r="B15" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="52" t="s">
+      <c r="D15" s="55"/>
+      <c r="E15" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="54" t="s">
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="55"/>
+      <c r="I15" s="57"/>
     </row>
     <row r="16" spans="1:12" ht="165" customHeight="1">
       <c r="A16" s="32" t="s">
@@ -5966,19 +5966,19 @@
       <c r="B16" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="52" t="s">
+      <c r="D16" s="55"/>
+      <c r="E16" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54" t="s">
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="55"/>
+      <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" ht="165" customHeight="1">
       <c r="A17" s="32" t="s">
@@ -5987,19 +5987,19 @@
       <c r="B17" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="52" t="s">
+      <c r="D17" s="55"/>
+      <c r="E17" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="54" t="s">
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="55"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" spans="1:9" ht="165" customHeight="1">
       <c r="A18" s="32" t="s">
@@ -6008,44 +6008,108 @@
       <c r="B18" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="52" t="s">
+      <c r="D18" s="55"/>
+      <c r="E18" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="54" t="s">
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="I18" s="55"/>
+      <c r="I18" s="57"/>
     </row>
     <row r="19" spans="1:9" ht="165" customHeight="1">
       <c r="A19" s="32"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
     </row>
     <row r="20" spans="1:9" ht="165" customHeight="1">
       <c r="A20" s="32"/>
       <c r="B20" s="33"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="55"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -6054,70 +6118,6 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6150,23 +6150,23 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="60" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="61"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
@@ -6178,21 +6178,21 @@
       <c r="B2" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="136.80000000000001" customHeight="1">
@@ -6202,21 +6202,21 @@
       <c r="B3" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="53"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="136.80000000000001" customHeight="1">
@@ -6226,21 +6226,21 @@
       <c r="B4" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="52" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54" t="s">
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="136.80000000000001" customHeight="1">
@@ -6250,123 +6250,163 @@
       <c r="B5" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="52" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="53"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A6" s="32"/>
       <c r="B6" s="33"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A7" s="32"/>
       <c r="B7" s="33"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A8" s="32"/>
       <c r="B8" s="33"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A9" s="32"/>
       <c r="B9" s="33"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="33"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" s="33"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -6375,46 +6415,6 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6697,8 +6697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B46B66-3A42-4D8C-BD4A-0753201BE4DA}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6720,23 +6720,23 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="60" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="61"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
@@ -6748,21 +6748,21 @@
       <c r="B2" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="52" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
@@ -6772,21 +6772,21 @@
       <c r="B3" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="52" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="53"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
@@ -6796,21 +6796,21 @@
       <c r="B4" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="52" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="52" t="s">
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
@@ -6820,21 +6820,21 @@
       <c r="B5" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="52" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="52" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="53"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
@@ -6844,21 +6844,21 @@
       <c r="B6" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="52" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="52" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="53"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
@@ -6868,41 +6868,25 @@
       <c r="B7" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="52" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="53"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:I7"/>
@@ -6915,6 +6899,22 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6946,149 +6946,165 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="60" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="61"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A2" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="C2" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="52" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A3" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="C3" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="52" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="53"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A4" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="C4" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="52" t="s">
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A5" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="C5" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="52" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="53"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B6" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="52" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="53"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -7097,22 +7113,6 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7138,288 +7138,288 @@
     <col min="8" max="16384" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="65" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:7" s="46" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="65" customFormat="1" ht="96" customHeight="1">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:7" s="46" customFormat="1" ht="96" customHeight="1">
+      <c r="A2" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="C2" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="D2" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="E2" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:7" s="46" customFormat="1" ht="91.2" customHeight="1">
+      <c r="A3" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-    </row>
-    <row r="3" spans="1:7" s="65" customFormat="1" ht="91.2" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="B3" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="C3" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="E3" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" s="46" customFormat="1" ht="87" customHeight="1">
+      <c r="A4" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A5" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" s="46" customFormat="1" ht="102" customHeight="1">
+      <c r="A6" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" s="46" customFormat="1" ht="100.2" customHeight="1">
+      <c r="A7" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+    </row>
+    <row r="8" spans="1:7" s="46" customFormat="1" ht="99.6" customHeight="1">
+      <c r="A8" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="1:7" s="46" customFormat="1" ht="95.4" customHeight="1">
+      <c r="A9" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="E9" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" s="46" customFormat="1" ht="94.2" customHeight="1">
+      <c r="A10" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="E3" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-    </row>
-    <row r="4" spans="1:7" s="65" customFormat="1" ht="87" customHeight="1">
-      <c r="A4" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="1:7" s="46" customFormat="1" ht="95.4" customHeight="1">
+      <c r="A11" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="C4" s="66" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="66" t="s">
+      <c r="E11" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="E4" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-    </row>
-    <row r="5" spans="1:7" s="65" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A5" s="63" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="66" t="s">
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="1:7" s="46" customFormat="1" ht="94.2" customHeight="1">
+      <c r="A12" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="66" t="s">
-        <v>247</v>
-      </c>
-      <c r="D5" s="66" t="s">
+      <c r="E12" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="E5" s="66" t="s">
-        <v>261</v>
-      </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-    </row>
-    <row r="6" spans="1:7" s="65" customFormat="1" ht="102" customHeight="1">
-      <c r="A6" s="63" t="s">
-        <v>262</v>
-      </c>
-      <c r="B6" s="66" t="s">
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="1:7" s="46" customFormat="1" ht="94.8" customHeight="1">
+      <c r="A13" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="66" t="s">
-        <v>247</v>
-      </c>
-      <c r="D6" s="66" t="s">
+      <c r="E13" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="E6" s="66" t="s">
-        <v>265</v>
-      </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-    </row>
-    <row r="7" spans="1:7" s="65" customFormat="1" ht="100.2" customHeight="1">
-      <c r="A7" s="63" t="s">
-        <v>266</v>
-      </c>
-      <c r="B7" s="67" t="s">
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:7" s="46" customFormat="1" ht="102.6" customHeight="1">
+      <c r="A14" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="66" t="s">
-        <v>268</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>269</v>
-      </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-    </row>
-    <row r="8" spans="1:7" s="65" customFormat="1" ht="99.6" customHeight="1">
-      <c r="A8" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="B8" s="66" t="s">
+      <c r="E14" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:7" s="46" customFormat="1" ht="94.8" customHeight="1">
+      <c r="A15" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="C8" s="66" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="66" t="s">
+      <c r="E15" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-    </row>
-    <row r="9" spans="1:7" s="65" customFormat="1" ht="95.4" customHeight="1">
-      <c r="A9" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-    </row>
-    <row r="10" spans="1:7" s="65" customFormat="1" ht="94.2" customHeight="1">
-      <c r="A10" s="63" t="s">
-        <v>277</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>278</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>252</v>
-      </c>
-      <c r="E10" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-    </row>
-    <row r="11" spans="1:7" s="65" customFormat="1" ht="95.4" customHeight="1">
-      <c r="A11" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>256</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-    </row>
-    <row r="12" spans="1:7" s="65" customFormat="1" ht="94.2" customHeight="1">
-      <c r="A12" s="63" t="s">
-        <v>281</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>282</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>260</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-    </row>
-    <row r="13" spans="1:7" s="65" customFormat="1" ht="94.8" customHeight="1">
-      <c r="A13" s="63" t="s">
-        <v>283</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>264</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>265</v>
-      </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-    </row>
-    <row r="14" spans="1:7" s="65" customFormat="1" ht="102.6" customHeight="1">
-      <c r="A14" s="63" t="s">
-        <v>285</v>
-      </c>
-      <c r="B14" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>268</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-    </row>
-    <row r="15" spans="1:7" s="65" customFormat="1" ht="94.8" customHeight="1">
-      <c r="A15" s="63" t="s">
-        <v>288</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>289</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testing/Test Report/TestCases.xlsx
+++ b/Testing/Test Report/TestCases.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alaa Osama\Documents\GitHub\learning-hub\Testing\Test Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F1B38C-FF27-4B18-ADA3-E77C98AA189E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F2C616-1579-4771-9B27-16DF562DE06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SignUp" sheetId="1" r:id="rId1"/>
+    <sheet name="Register" sheetId="1" r:id="rId1"/>
     <sheet name="AddUser" sheetId="2" r:id="rId2"/>
     <sheet name="Add" sheetId="3" r:id="rId3"/>
     <sheet name="Log out" sheetId="4" r:id="rId4"/>
@@ -52,9 +52,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>TC_LearningHub_Signup_001</t>
-  </si>
-  <si>
     <t>Test with valid inputs in all fields.</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
 should be able to log in to his/her account from the login page.</t>
   </si>
   <si>
-    <t>TC_LearningHub_Signup_002</t>
-  </si>
-  <si>
     <t>Test with an invalid username containing special characters.</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
  with the type of error for invalid username containing special characters.</t>
   </si>
   <si>
-    <t>TC_LearningHub_Signup_003</t>
-  </si>
-  <si>
     <t>Test with an invalid email format.</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
  with the type of error for invalid email format.</t>
   </si>
   <si>
-    <t>TC_LearningHub_Signup_004</t>
-  </si>
-  <si>
     <t>Test with an invalid password containing less than five characters.</t>
   </si>
   <si>
@@ -122,9 +110,6 @@
  the type of error for invalid password containing less than five characters.</t>
   </si>
   <si>
-    <t>TC_LearningHub_Signup_005</t>
-  </si>
-  <si>
     <t>Test with an invalid password not containing any numeric value.</t>
   </si>
   <si>
@@ -138,9 +123,6 @@
  the type of error for invalid password not containing any numeric value.</t>
   </si>
   <si>
-    <t>TC_LearningHub_Signup_006</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Test with an invalid password not containing any special character.</t>
   </si>
   <si>
@@ -154,9 +136,6 @@
  the type of error for invalid password not containing any special character</t>
   </si>
   <si>
-    <t>TC_LearningHub_Signup_007</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Test with confirm password not matching the password field.</t>
   </si>
   <si>
@@ -168,9 +147,6 @@
   <si>
     <t xml:space="preserve"> A message should appear saying "the data entered are not valid" with
  the type of error for confirm password not matching the password field.</t>
-  </si>
-  <si>
-    <t>TC_LearningHub_Signup_008</t>
   </si>
   <si>
     <t>Test with a username that is already taken.</t>
@@ -2528,6 +2504,30 @@
 3- Click on the 'Login' Hyper Link.
 4- Repeat the process, but enter the username and/or password with incorrect case.
 </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_Register_001</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_Register_002</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_Register_003</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_Register_004</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_Register_005</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_Register_006</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_Register_007</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_Register_008</t>
   </si>
 </sst>
 </file>
@@ -3113,12 +3113,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3144,29 +3161,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3446,8 +3446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3468,371 +3468,371 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
+      <c r="I1" s="68"/>
+      <c r="J1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="52"/>
+      <c r="K1" s="68"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="157.80000000000001" customHeight="1">
       <c r="A2" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="C2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="54" t="s">
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
       <c r="A3" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="143.4" customHeight="1">
       <c r="A4" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="55"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="158.4" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="144" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
+        <v>20</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="60"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
       <c r="A7" s="32" t="s">
-        <v>28</v>
+        <v>361</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="55"/>
+        <v>23</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
       <c r="A8" s="32" t="s">
-        <v>32</v>
+        <v>362</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="55"/>
+        <v>26</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="156.6" customHeight="1">
       <c r="A9" s="32" t="s">
-        <v>36</v>
+        <v>363</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="55"/>
+        <v>29</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="60"/>
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="14.4" customHeight="1">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
       <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" customHeight="1">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" ht="14.4" customHeight="1">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
       <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12" ht="14.4" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="66"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="53"/>
       <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:12" ht="14.4" customHeight="1">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
       <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" customHeight="1">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
       <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
       <c r="L16" s="41"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" customHeight="1">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
       <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" customHeight="1">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
       <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" customHeight="1">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" customHeight="1">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
       <c r="L20" s="41"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" customHeight="1">
@@ -4173,6 +4173,78 @@
     <row r="135" ht="14.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -4181,78 +4253,6 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4304,456 +4304,456 @@
     </row>
     <row r="2" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A2" s="44" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F2" s="47"/>
       <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A3" s="44" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A4" s="44" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A5" s="44" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A6" s="44" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A7" s="44" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A8" s="44" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C8" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="D8" s="47" t="s">
-        <v>308</v>
-      </c>
       <c r="E8" s="47" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A9" s="44" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A10" s="44" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A11" s="44" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A12" s="44" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A13" s="44" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A14" s="44" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A15" s="44" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A16" s="44" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A17" s="44" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="47"/>
     </row>
     <row r="18" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A18" s="44" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A19" s="44" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A20" s="44" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A21" s="44" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A22" s="44" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
     </row>
     <row r="23" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A23" s="44" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
     </row>
     <row r="24" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A24" s="44" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
     </row>
     <row r="25" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A25" s="44" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
@@ -4789,371 +4789,371 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
+      <c r="I1" s="68"/>
+      <c r="J1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="52"/>
+      <c r="K1" s="68"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="157.80000000000001" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
+        <v>33</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="62"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
+        <v>38</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="143.4" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="55"/>
+      <c r="C4" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="62"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="158.4" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="55"/>
+        <v>46</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="144" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
+        <v>50</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="60"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
       <c r="A7" s="32" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="55"/>
+        <v>54</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
       <c r="A8" s="32" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="55"/>
+        <v>58</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="156.6" customHeight="1">
       <c r="A9" s="32" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="55"/>
+        <v>62</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="60"/>
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="14.4" customHeight="1">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
       <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" customHeight="1">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" ht="14.4" customHeight="1">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
       <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12" ht="14.4" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="66"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="53"/>
       <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:12" ht="14.4" customHeight="1">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
       <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" customHeight="1">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
       <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
       <c r="L16" s="41"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" customHeight="1">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
       <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" customHeight="1">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
       <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" customHeight="1">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" customHeight="1">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
       <c r="L20" s="41"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" customHeight="1">
@@ -5494,6 +5494,78 @@
     <row r="135" ht="14.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -5502,78 +5574,6 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5611,465 +5611,481 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
+      <c r="I1" s="68"/>
+      <c r="J1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="52"/>
+      <c r="K1" s="68"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="173.4" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
+        <v>66</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="62"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="173.4" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
+        <v>71</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="173.4" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="55"/>
+      <c r="C4" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="62"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="176.4" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="55"/>
+        <v>78</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="173.4" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
+        <v>82</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="60"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="173.4" customHeight="1">
       <c r="A7" s="32" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="55"/>
+        <v>86</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="173.4" customHeight="1">
       <c r="A8" s="32" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="55"/>
+        <v>89</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="173.4" customHeight="1">
       <c r="A9" s="32" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="55"/>
+        <v>92</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="60"/>
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="173.4" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="55"/>
+        <v>96</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="62"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="60"/>
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="173.4" customHeight="1">
       <c r="A11" s="32" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="60"/>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="173.4" customHeight="1">
       <c r="A12" s="32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="55"/>
+        <v>106</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="60"/>
       <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:12" ht="180" customHeight="1">
       <c r="A13" s="32" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="57"/>
+        <v>110</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="62"/>
     </row>
     <row r="14" spans="1:12" ht="162.6" customHeight="1">
       <c r="A14" s="32" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="57"/>
+      <c r="I14" s="62"/>
     </row>
     <row r="15" spans="1:12" ht="193.8" customHeight="1">
       <c r="A15" s="32" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="57"/>
+        <v>117</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:12" ht="165" customHeight="1">
       <c r="A16" s="32" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" s="57"/>
+        <v>120</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:9" ht="165" customHeight="1">
       <c r="A17" s="32" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="57"/>
+        <v>124</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" ht="165" customHeight="1">
       <c r="A18" s="32" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="57"/>
+        <v>128</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:9" ht="165" customHeight="1">
       <c r="A19" s="32"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" ht="165" customHeight="1">
       <c r="A20" s="32"/>
       <c r="B20" s="33"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:I11"/>
@@ -6078,46 +6094,30 @@
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6150,223 +6150,263 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
+      <c r="I1" s="68"/>
+      <c r="J1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="52"/>
+      <c r="K1" s="68"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
+        <v>132</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="62"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
+        <v>136</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="55"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="62"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="55"/>
+        <v>144</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A6" s="32"/>
       <c r="B6" s="33"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="60"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A7" s="32"/>
       <c r="B7" s="33"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="55"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A8" s="32"/>
       <c r="B8" s="33"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="55"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A9" s="32"/>
       <c r="B9" s="33"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="55"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="60"/>
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="55"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="60"/>
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="33"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="55"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="60"/>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" s="33"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="55"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="60"/>
       <c r="L12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:I11"/>
@@ -6375,46 +6415,6 @@
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6463,95 +6463,95 @@
     </row>
     <row r="2" spans="1:7" ht="190.05" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" ht="158.4">
       <c r="A3" s="22" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="228" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="158.4">
       <c r="A5" s="22" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="235.95" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
@@ -6605,76 +6605,76 @@
     </row>
     <row r="2" spans="1:7" ht="180" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="144">
       <c r="A3" s="5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="249" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="144">
       <c r="A5" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -6697,7 +6697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B46B66-3A42-4D8C-BD4A-0753201BE4DA}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -6720,173 +6720,189 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
+      <c r="I1" s="68"/>
+      <c r="J1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="52"/>
+      <c r="K1" s="68"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
+        <v>185</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" s="60"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
+        <v>189</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" s="60"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="55"/>
+        <v>195</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="60"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="55"/>
+        <v>199</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" s="60"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
+        <v>206</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" s="60"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="60"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A7" s="32" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="55"/>
+        <v>208</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="I7" s="60"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:I7"/>
@@ -6899,22 +6915,6 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6946,149 +6946,165 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
+      <c r="I1" s="68"/>
+      <c r="J1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="52"/>
+      <c r="K1" s="68"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
+        <v>213</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="60"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
+        <v>218</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="60"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="55"/>
+        <v>223</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="I4" s="60"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="55"/>
+        <v>228</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" s="60"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
+        <v>231</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="I6" s="60"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="60"/>
       <c r="L6" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:I5"/>
@@ -7097,22 +7113,6 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7163,260 +7163,260 @@
     </row>
     <row r="2" spans="1:7" s="46" customFormat="1" ht="96" customHeight="1">
       <c r="A2" s="44" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F2" s="47"/>
       <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7" s="46" customFormat="1" ht="91.2" customHeight="1">
       <c r="A3" s="44" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" s="46" customFormat="1" ht="87" customHeight="1">
       <c r="A4" s="44" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A5" s="44" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:7" s="46" customFormat="1" ht="102" customHeight="1">
       <c r="A6" s="44" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:7" s="46" customFormat="1" ht="100.2" customHeight="1">
       <c r="A7" s="44" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:7" s="46" customFormat="1" ht="99.6" customHeight="1">
       <c r="A8" s="44" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:7" s="46" customFormat="1" ht="95.4" customHeight="1">
       <c r="A9" s="44" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:7" s="46" customFormat="1" ht="94.2" customHeight="1">
       <c r="A10" s="44" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:7" s="46" customFormat="1" ht="95.4" customHeight="1">
       <c r="A11" s="44" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:7" s="46" customFormat="1" ht="94.2" customHeight="1">
       <c r="A12" s="44" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:7" s="46" customFormat="1" ht="94.8" customHeight="1">
       <c r="A13" s="44" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:7" s="46" customFormat="1" ht="102.6" customHeight="1">
       <c r="A14" s="44" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:7" s="46" customFormat="1" ht="94.8" customHeight="1">
       <c r="A15" s="44" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>

--- a/Testing/Test Report/TestCases.xlsx
+++ b/Testing/Test Report/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="5"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="370">
   <si>
     <t>ID</t>
   </si>
@@ -655,14 +655,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1-user should have a browser to navigate to signup page.</t>
+      <t>1-admin should have a browser to navigate to signup page.</t>
     </r>
     <r>
       <rPr>
@@ -672,142 +665,19 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+2-admin should have xampp and it's control panel
+3- admin should have the database on the phpmyadmin (reach it through xampp control panel) 
+4- open the apache server and sql server
+5- Admin is logged in and navigated to the delete user page</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2-User should have xampp and it's control panel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">3- user should have the database on the phpmyadmin (reach it through xampp control panel) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4- open the apache server and sql server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5- Admin is logged in and navigated to the delete user page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Username:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>" HasnaaAmed "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>E-mail :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>" Hasnaa@yahoo.com "</t>
-    </r>
+  </si>
+  <si>
+    <t>1.fill fields in delete user page
+ Username:
+" HasnaaAmed "
+E-mail :
+" Hasnaa@yahoo.com "
+2.click on delete button</t>
   </si>
   <si>
     <r>
@@ -857,71 +727,29 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Username:</t>
+      <t>1-admin should have a browser to navigate to signup page.</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+2-admin should have xampp and it's control panel
+3- admin should have the database on the phpmyadmin (reach it through xampp control panel) 
+4- open the apache server and sql server
+6- Admin is logged in and navigated to the delete user page</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>" AdminAmed "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>E-mail :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>" Ahmed@yahoo.com "</t>
-    </r>
+  </si>
+  <si>
+    <t>1.fill fields in delete user page
+Username:
+" AdminAmed "
+E-mail :
+" Ahmed@yahoo.com "
+2.click on delete button</t>
   </si>
   <si>
     <r>
@@ -998,71 +826,29 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Username:</t>
+      <t>1-admin should have a browser to navigate to signup page.</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+2-admin should have xampp and it's control panel
+3- admin should have the database on the phpmyadmin (reach it through xampp control panel) 
+4- open the apache server and sql server
+7- Admin is logged in and navigated to the delete user page</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>" HasnaaAmed# "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>E-mail :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>" Hasnaa@yahoo.com "</t>
-    </r>
+  </si>
+  <si>
+    <t>1.fill fields in delete user page
+Username:
+" HasnaaAmed# "
+E-mail :
+" Hasnaa@yahoo.com "
+2.click on delete button</t>
   </si>
   <si>
     <r>
@@ -1148,71 +934,29 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Username:</t>
+      <t>1-admin should have a browser to navigate to signup page.</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+2-admin should have xampp and it's control panel
+3- admin should have the database on the phpmyadmin (reach it through xampp control panel) 
+4- open the apache server and sql server
+8- Admin is logged in and navigated to the delete user page</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>" HasnaaAmed22 "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>E-mail :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>" Hasnaa@yahoo.com "</t>
-    </r>
+  </si>
+  <si>
+    <t>1.fill fields in delete user page
+Username:
+" HasnaaAmed22 "
+E-mail :
+" Hasnaa@yahoo.com "
+2.click on delete button</t>
   </si>
   <si>
     <t>TC_LearningHub_deleteuser_005</t>
@@ -1250,71 +994,29 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Username: </t>
+      <t>1-admin should have a browser to navigate to signup page.</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+2-admin should have xampp and it's control panel
+3- admin should have the database on the phpmyadmin (reach it through xampp control panel) 
+4- open the apache server and sql server
+9- Admin is logged in and navigated to the delete user page</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">" HasnaaAmed " </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">E-mail : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>" Ahmed@yahoo.com "</t>
-    </r>
+  </si>
+  <si>
+    <t>1.fill fields in delete user page
+Username: 
+" HasnaaAmed " 
+E-mail : 
+" Ahmed@yahoo.com "
+2.click on delete button</t>
   </si>
   <si>
     <r>
@@ -1373,6 +1075,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1-user should have a browser to navigate to signup page.</t>
     </r>
     <r>
@@ -1479,6 +1188,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1-user should have a browser to navigate to signup page.</t>
     </r>
     <r>
@@ -1584,6 +1300,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1-user should have a browser to navigate to signup page.</t>
     </r>
     <r>
@@ -2362,12 +2085,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2416,12 +2139,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -2455,16 +2172,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2472,7 +2182,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2493,16 +2210,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2524,6 +2241,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -2539,16 +2263,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2569,16 +2286,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2594,6 +2303,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2664,13 +2381,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2682,7 +2477,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2694,127 +2519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2826,7 +2531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2844,7 +2549,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3129,6 +2846,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3154,32 +2895,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3197,32 +2912,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3232,131 +2949,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3399,97 +3116,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3501,7 +3218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3519,10 +3236,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3531,10 +3248,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3543,13 +3260,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
@@ -4737,456 +4454,456 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>295</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A16" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A20" s="4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A23" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>359</v>
-      </c>
       <c r="E24" s="5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A25" s="4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -6865,7 +6582,7 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -6929,70 +6646,70 @@
         <v>161</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
     </row>
     <row r="4" ht="228" customHeight="1" spans="1:7">
       <c r="A4" s="37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
     </row>
     <row r="5" ht="165.75" spans="1:7">
       <c r="A5" s="37" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B5" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>169</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>167</v>
       </c>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
     </row>
     <row r="6" ht="235.95" customHeight="1" spans="1:7">
       <c r="A6" s="37" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
@@ -7008,7 +6725,7 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -7048,76 +6765,76 @@
     </row>
     <row r="2" ht="199" customHeight="1" spans="1:7">
       <c r="A2" s="20" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
     </row>
     <row r="3" ht="195" customHeight="1" spans="1:7">
       <c r="A3" s="20" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
     </row>
     <row r="4" ht="249" customHeight="1" spans="1:7">
       <c r="A4" s="20" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
     </row>
     <row r="5" ht="180.75" spans="1:7">
       <c r="A5" s="20" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B5" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>187</v>
-      </c>
       <c r="D5" s="26" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
@@ -7188,22 +6905,22 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A2" s="11" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="13" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="13" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="11"/>
@@ -7212,22 +6929,22 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A3" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="13" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="11"/>
@@ -7236,22 +6953,22 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A4" s="11" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11"/>
@@ -7260,22 +6977,22 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A5" s="11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="13" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="13" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="11"/>
@@ -7284,22 +7001,22 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A6" s="11" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="11"/>
@@ -7308,22 +7025,22 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A7" s="11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="13" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="11"/>
@@ -7416,22 +7133,22 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A2" s="11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="13" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="13" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="11"/>
@@ -7440,22 +7157,22 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A3" s="11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="13" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="13" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="11"/>
@@ -7464,22 +7181,22 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A4" s="11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="13" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11"/>
@@ -7488,22 +7205,22 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A5" s="11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="13" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="11"/>
@@ -7512,22 +7229,22 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A6" s="11" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="11"/>
@@ -7612,260 +7329,260 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="96" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="91.2" customHeight="1" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>249</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="87" customHeight="1" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="102" customHeight="1" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="100.2" customHeight="1" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="99.6" customHeight="1" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="95.4" customHeight="1" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="94.2" customHeight="1" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="95.4" customHeight="1" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>278</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="94.2" customHeight="1" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="94.8" customHeight="1" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="102.6" customHeight="1" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="94.8" customHeight="1" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>274</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>

--- a/Testing/Test Report/TestCases.xlsx
+++ b/Testing/Test Report/TestCases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alaa Osama\Documents\GitHub\learning-hub\Testing\Test Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Mazrouaa\Documents\GitHub\learning-hub\Testing\Test Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F2C616-1579-4771-9B27-16DF562DE06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96304B7-BA67-49AD-9184-31EB80DB5B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="366">
   <si>
     <t>ID</t>
   </si>
@@ -488,11 +488,6 @@
   </si>
   <si>
     <t>uploading valid video/recording from mathmatics category page</t>
-  </si>
-  <si>
-    <t>1- User click on Text Input Field Labelled by “What do you want to share?
-2-He clicks on upload button.
-3- he clicks on choose file and choose a mp3 or mp4 and with size &lt;35 MB file from his device then clicks on upload button.</t>
   </si>
   <si>
     <t>1- a pop up window will show up where he will find matmatics is the choosen category , Article button and Upload button.
@@ -2528,6 +2523,21 @@
   </si>
   <si>
     <t>TC_LearningHub_Register_008</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He chooses mathmatics category clicks on upload button.
+3- he clicks on choose file and choose a mp3 or mp4 and with size &lt;35 MB file from his device then clicks on upload button.</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2-He chooses technology category clicks on upload button.
+3- he clicks on choose file and choose a mp3 or mp4 and with size &lt;35 MB file from his device then clicks on upload button.</t>
+  </si>
+  <si>
+    <t>1- User click on Text Input Field Labelled by “What do you want to share?
+2- He chooses language category clicks on upload button.
+3- he clicks on choose file and choose a mp3 or mp4 and with size &lt;35 MB file from his device then clicks on upload button.</t>
   </si>
 </sst>
 </file>
@@ -3113,29 +3123,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3161,12 +3154,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3446,7 +3456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -3468,371 +3478,371 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="67" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="68"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="157.80000000000001" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="59" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="60"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="59" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="60"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="143.4" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="59" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61" t="s">
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="60"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="158.4" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="59" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="60"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="144" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="59" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="60"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
       <c r="A7" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="60"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
       <c r="A8" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="59" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61" t="s">
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="60"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="156.6" customHeight="1">
       <c r="A9" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="59" t="s">
+      <c r="D9" s="55"/>
+      <c r="E9" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61" t="s">
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="60"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="14.4" customHeight="1">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="65"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
       <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" customHeight="1">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
       <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" ht="14.4" customHeight="1">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12" ht="14.4" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="53"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="66"/>
       <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:12" ht="14.4" customHeight="1">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
       <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" customHeight="1">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
       <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
       <c r="L16" s="41"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" customHeight="1">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
       <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" customHeight="1">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
       <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" customHeight="1">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
       <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" customHeight="1">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
       <c r="L20" s="41"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" customHeight="1">
@@ -4173,6 +4183,78 @@
     <row r="135" ht="14.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -4181,78 +4263,6 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4304,456 +4314,456 @@
     </row>
     <row r="2" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A2" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="C2" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="D2" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="E2" s="47" t="s">
         <v>284</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>285</v>
       </c>
       <c r="F2" s="47"/>
       <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A3" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="C3" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="D3" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="47" t="s">
         <v>288</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>289</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A4" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="C4" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="D4" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>292</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>293</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A5" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="C5" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="D5" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="47" t="s">
         <v>296</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>297</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A6" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="C6" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="D6" s="47" t="s">
+      <c r="E6" s="47" t="s">
         <v>300</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>301</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A7" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="47" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="C7" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="E7" s="47" t="s">
         <v>303</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>304</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A8" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="C8" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="47" t="s">
         <v>306</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>307</v>
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A9" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="C9" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="47" t="s">
         <v>309</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>310</v>
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A10" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="C10" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="D10" s="47" t="s">
+      <c r="E10" s="47" t="s">
         <v>313</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>314</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A11" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="C11" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="E11" s="47" t="s">
         <v>316</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>317</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A12" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="C12" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="E12" s="47" t="s">
         <v>319</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>320</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A13" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="B13" s="49" t="s">
-        <v>322</v>
-      </c>
       <c r="C13" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A14" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="C14" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="D14" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>326</v>
-      </c>
       <c r="E14" s="50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A15" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="B15" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="C15" s="47" t="s">
         <v>328</v>
       </c>
-      <c r="C15" s="47" t="s">
-        <v>329</v>
-      </c>
       <c r="D15" s="50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A16" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="B16" s="47" t="s">
         <v>330</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="C16" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="C16" s="47" t="s">
-        <v>332</v>
-      </c>
       <c r="D16" s="50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A17" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="C17" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>335</v>
-      </c>
       <c r="D17" s="50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="47"/>
     </row>
     <row r="18" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A18" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="C18" s="47" t="s">
         <v>337</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="D18" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="D18" s="47" t="s">
-        <v>339</v>
-      </c>
       <c r="E18" s="47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A19" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="47" t="s">
         <v>340</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>341</v>
-      </c>
       <c r="C19" s="47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A20" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="B20" s="47" t="s">
-        <v>343</v>
-      </c>
       <c r="C20" s="47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A21" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="B21" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="B21" s="47" t="s">
-        <v>345</v>
-      </c>
       <c r="C21" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A22" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="B22" s="47" t="s">
         <v>346</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="C22" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D22" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="C22" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>348</v>
-      </c>
       <c r="E22" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
     </row>
     <row r="23" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A23" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="B23" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>350</v>
-      </c>
       <c r="C23" s="47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
     </row>
     <row r="24" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A24" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="B24" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="B24" s="47" t="s">
-        <v>352</v>
-      </c>
       <c r="C24" s="47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
     </row>
     <row r="25" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A25" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="B25" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="B25" s="47" t="s">
-        <v>354</v>
-      </c>
       <c r="C25" s="47" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
@@ -4767,7 +4777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4789,23 +4799,23 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="67" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="68"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
@@ -4817,21 +4827,21 @@
       <c r="B2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="61" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="61" t="s">
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="60"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
@@ -4841,21 +4851,21 @@
       <c r="B3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="61" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="61" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="60"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="143.4" customHeight="1">
@@ -4865,21 +4875,21 @@
       <c r="B4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="61" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="61" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="60"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="158.4" customHeight="1">
@@ -4889,21 +4899,21 @@
       <c r="B5" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="61" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="61" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="60"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="144" customHeight="1">
@@ -4913,21 +4923,21 @@
       <c r="B6" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="61" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="61" t="s">
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="60"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="154.80000000000001" customHeight="1">
@@ -4937,21 +4947,21 @@
       <c r="B7" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="61" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="61" t="s">
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="60"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="145.80000000000001" customHeight="1">
@@ -4961,21 +4971,21 @@
       <c r="B8" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="61" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="61" t="s">
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="60"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="156.6" customHeight="1">
@@ -4985,175 +4995,175 @@
       <c r="B9" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="61" t="s">
+      <c r="D9" s="57"/>
+      <c r="E9" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="61" t="s">
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="60"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="14.4" customHeight="1">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="65"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
       <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" customHeight="1">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
       <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" ht="14.4" customHeight="1">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12" ht="14.4" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="53"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="66"/>
       <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:12" ht="14.4" customHeight="1">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
       <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" customHeight="1">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
       <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
       <c r="L16" s="41"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" customHeight="1">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
       <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" customHeight="1">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
       <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" customHeight="1">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
       <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" customHeight="1">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
       <c r="L20" s="41"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" customHeight="1">
@@ -5494,6 +5504,78 @@
     <row r="135" ht="14.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -5502,78 +5584,6 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5584,8 +5594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5611,23 +5621,23 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="67" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="68"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
@@ -5639,21 +5649,21 @@
       <c r="B2" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="59" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="60"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="173.4" customHeight="1">
@@ -5663,21 +5673,21 @@
       <c r="B3" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="59" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="60"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="173.4" customHeight="1">
@@ -5687,21 +5697,21 @@
       <c r="B4" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="59" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61" t="s">
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="60"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="176.4" customHeight="1">
@@ -5711,21 +5721,21 @@
       <c r="B5" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="59" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="60"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="173.4" customHeight="1">
@@ -5735,21 +5745,21 @@
       <c r="B6" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="59" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="60"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="173.4" customHeight="1">
@@ -5759,21 +5769,21 @@
       <c r="B7" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="60"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="173.4" customHeight="1">
@@ -5783,21 +5793,21 @@
       <c r="B8" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="59" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61" t="s">
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="60"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="173.4" customHeight="1">
@@ -5807,21 +5817,21 @@
       <c r="B9" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="59" t="s">
+      <c r="D9" s="55"/>
+      <c r="E9" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61" t="s">
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="60"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="173.4" customHeight="1">
@@ -5831,21 +5841,21 @@
       <c r="B10" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="59" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61" t="s">
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="60"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="173.4" customHeight="1">
@@ -5855,21 +5865,21 @@
       <c r="B11" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="59" t="s">
+      <c r="D11" s="55"/>
+      <c r="E11" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61" t="s">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="60"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="173.4" customHeight="1">
@@ -5879,21 +5889,21 @@
       <c r="B12" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="59" t="s">
+      <c r="D12" s="55"/>
+      <c r="E12" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61" t="s">
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="60"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:12" ht="180" customHeight="1">
@@ -5903,149 +5913,213 @@
       <c r="B13" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="59" t="s">
+      <c r="D13" s="55"/>
+      <c r="E13" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" s="62"/>
+      <c r="I13" s="57"/>
     </row>
     <row r="14" spans="1:12" ht="162.6" customHeight="1">
       <c r="A14" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="C14" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="I14" s="62"/>
+      <c r="I14" s="57"/>
     </row>
     <row r="15" spans="1:12" ht="193.8" customHeight="1">
       <c r="A15" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="C15" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="55"/>
+      <c r="E15" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" s="62"/>
+      <c r="I15" s="57"/>
     </row>
     <row r="16" spans="1:12" ht="165" customHeight="1">
       <c r="A16" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="C16" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="59" t="s">
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" ht="165" customHeight="1">
       <c r="A17" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="C17" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="59" t="s">
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="62"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" spans="1:9" ht="165" customHeight="1">
       <c r="A18" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="C18" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="59" t="s">
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" s="62"/>
+      <c r="I18" s="57"/>
     </row>
     <row r="19" spans="1:9" ht="165" customHeight="1">
       <c r="A19" s="32"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
     </row>
     <row r="20" spans="1:9" ht="165" customHeight="1">
       <c r="A20" s="32"/>
       <c r="B20" s="33"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -6054,70 +6128,6 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6150,223 +6160,263 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="67" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="68"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A2" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="59" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="60"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A3" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="60"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A4" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="C4" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="60"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A5" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="C5" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="60"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A6" s="32"/>
       <c r="B6" s="33"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="60"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A7" s="32"/>
       <c r="B7" s="33"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="60"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A8" s="32"/>
       <c r="B8" s="33"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="60"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A9" s="32"/>
       <c r="B9" s="33"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="60"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="60"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="33"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="60"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="136.80000000000001" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" s="33"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="60"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -6375,46 +6425,6 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6463,95 +6473,95 @@
     </row>
     <row r="2" spans="1:7" ht="190.05" customHeight="1">
       <c r="A2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>151</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" ht="158.4">
       <c r="A3" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>154</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>155</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="228" customHeight="1">
       <c r="A4" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="C4" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="25" t="s">
+      <c r="E4" s="28" t="s">
         <v>158</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>159</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="158.4">
       <c r="A5" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="C5" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>162</v>
-      </c>
       <c r="E5" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="235.95" customHeight="1">
       <c r="A6" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="C6" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="25" t="s">
+      <c r="E6" s="25" t="s">
         <v>165</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>166</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
@@ -6605,76 +6615,76 @@
     </row>
     <row r="2" spans="1:7" ht="180" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="144">
       <c r="A3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="249" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="144">
       <c r="A5" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="14" t="s">
         <v>182</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>183</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -6720,189 +6730,173 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="67" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="68"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A2" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="C2" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="60"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="55"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="60"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="60"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A5" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="C5" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="59" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="60"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A6" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="59" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="60"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A7" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="C7" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="59" t="s">
-        <v>355</v>
-      </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="60"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" s="55"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:I7"/>
@@ -6915,6 +6909,22 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6946,149 +6956,165 @@
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="67" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="68"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A2" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="C2" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="59" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="60"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A3" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="C3" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="59" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="60"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A4" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="C4" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="59" t="s">
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="60"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A5" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="C5" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="59" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="60"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" s="42" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B6" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="59" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="60"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -7097,22 +7123,6 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7163,260 +7173,260 @@
     </row>
     <row r="2" spans="1:7" s="46" customFormat="1" ht="96" customHeight="1">
       <c r="A2" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="C2" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="D2" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="E2" s="47" t="s">
         <v>239</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>240</v>
       </c>
       <c r="F2" s="47"/>
       <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7" s="46" customFormat="1" ht="91.2" customHeight="1">
       <c r="A3" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="C3" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" s="47" t="s">
+      <c r="E3" s="47" t="s">
         <v>243</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>244</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" s="46" customFormat="1" ht="87" customHeight="1">
       <c r="A4" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="C4" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" s="47" t="s">
+      <c r="E4" s="47" t="s">
         <v>247</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>248</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:7" s="46" customFormat="1" ht="96.6" customHeight="1">
       <c r="A5" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="C5" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="C5" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" s="47" t="s">
+      <c r="E5" s="47" t="s">
         <v>251</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>252</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:7" s="46" customFormat="1" ht="102" customHeight="1">
       <c r="A6" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="C6" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="47" t="s">
+      <c r="E6" s="47" t="s">
         <v>255</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>256</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:7" s="46" customFormat="1" ht="100.2" customHeight="1">
       <c r="A7" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="E7" s="48" t="s">
         <v>259</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>260</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:7" s="46" customFormat="1" ht="99.6" customHeight="1">
       <c r="A8" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="C8" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="D8" s="47" t="s">
+      <c r="E8" s="47" t="s">
         <v>263</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>264</v>
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:7" s="46" customFormat="1" ht="95.4" customHeight="1">
       <c r="A9" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="C9" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>267</v>
-      </c>
       <c r="D9" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" s="47" t="s">
         <v>239</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>240</v>
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:7" s="46" customFormat="1" ht="94.2" customHeight="1">
       <c r="A10" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>269</v>
-      </c>
       <c r="C10" s="47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D10" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="47" t="s">
         <v>243</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>244</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:7" s="46" customFormat="1" ht="95.4" customHeight="1">
       <c r="A11" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>271</v>
-      </c>
       <c r="C11" s="47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D11" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="47" t="s">
         <v>247</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>248</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:7" s="46" customFormat="1" ht="94.2" customHeight="1">
       <c r="A12" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>273</v>
-      </c>
       <c r="C12" s="47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D12" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="47" t="s">
         <v>251</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>252</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:7" s="46" customFormat="1" ht="94.8" customHeight="1">
       <c r="A13" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>275</v>
-      </c>
       <c r="C13" s="47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D13" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="47" t="s">
         <v>255</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>256</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:7" s="46" customFormat="1" ht="102.6" customHeight="1">
       <c r="A14" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="C14" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" s="48" t="s">
         <v>277</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>278</v>
       </c>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:7" s="46" customFormat="1" ht="94.8" customHeight="1">
       <c r="A15" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="B15" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="B15" s="47" t="s">
-        <v>280</v>
-      </c>
       <c r="C15" s="47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D15" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="47" t="s">
         <v>263</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>264</v>
       </c>
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>

--- a/Testing/Test Report/TestCases.xlsx
+++ b/Testing/Test Report/TestCases.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="371">
   <si>
     <t>ID</t>
   </si>
@@ -651,7 +651,7 @@
     <t>TC_LearningHub_deleteuser_001</t>
   </si>
   <si>
-    <t>Valid Input - Delete Normal User</t>
+    <t>Valid Input - Delete User</t>
   </si>
   <si>
     <r>
@@ -668,56 +668,19 @@
 2-admin should have xampp and it's control panel
 3- admin should have the database on the phpmyadmin (reach it through xampp control panel) 
 4- open the apache server and sql server
-5- Admin is logged in and navigated to the delete user page</t>
+5- Admin is logged in and from dropdown menu in navbar choose "profile" then click on delete user.</t>
     </r>
   </si>
   <si>
     <t>1.fill fields in delete user page
- Username:
-" HasnaaAmed "
-E-mail :
-" Hasnaa@yahoo.com "
+Username: 
+johndoe
+Email: john@example.com
 2.click on delete button</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">user "normal" is deleted successfully </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">user is deleted from database and sucess  message appear "User deleted successfully..."
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">from the database. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t>TC_LearningHub_deleteuser_002</t>
@@ -740,7 +703,7 @@
 2-admin should have xampp and it's control panel
 3- admin should have the database on the phpmyadmin (reach it through xampp control panel) 
 4- open the apache server and sql server
-6- Admin is logged in and navigated to the delete user page</t>
+6- Admin is logged in and from dropdown menu in navbar choose "profile" then click on delete user.</t>
     </r>
   </si>
   <si>
@@ -752,77 +715,15 @@
 2.click on delete button</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>user "Admin " is deleted successfully</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">sucess  message appear "User deleted successfully..."
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">from the database. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t>TC_LearningHub_deleteuser_003</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Invalid Input - Username </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>contains special characters</t>
-    </r>
+    <t>Invalid Input - Username 
+doesn't exist in database</t>
   </si>
   <si>
     <r>
@@ -839,7 +740,7 @@
 2-admin should have xampp and it's control panel
 3- admin should have the database on the phpmyadmin (reach it through xampp control panel) 
 4- open the apache server and sql server
-7- Admin is logged in and navigated to the delete user page</t>
+7- Admin is logged in and from dropdown menu in navbar choose "profile" then click on delete user.</t>
     </r>
   </si>
   <si>
@@ -904,32 +805,17 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Invalid Input - Username</t>
+      <t>Invalid Input- email not attached to</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>contains numbers</t>
+the entered username</t>
     </r>
   </si>
   <si>
@@ -947,73 +833,13 @@
 2-admin should have xampp and it's control panel
 3- admin should have the database on the phpmyadmin (reach it through xampp control panel) 
 4- open the apache server and sql server
-8- Admin is logged in and navigated to the delete user page</t>
-    </r>
-  </si>
-  <si>
-    <t>1.fill fields in delete user page
-Username:
-" HasnaaAmed22 "
-E-mail :
-" Hasnaa@yahoo.com "
-2.click on delete button</t>
-  </si>
-  <si>
-    <t>TC_LearningHub_deleteuser_005</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Invalid Input- not attached to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>the entered username</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1-admin should have a browser to navigate to signup page.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2-admin should have xampp and it's control panel
-3- admin should have the database on the phpmyadmin (reach it through xampp control panel) 
-4- open the apache server and sql server
-9- Admin is logged in and navigated to the delete user page</t>
+9- Admin is logged in and from dropdown menu in navbar choose "profile" then click on delete user.</t>
     </r>
   </si>
   <si>
     <t>1.fill fields in delete user page
 Username: 
-" HasnaaAmed " 
+" johndoe" 
 E-mail : 
 " Ahmed@yahoo.com "
 2.click on delete button</t>
@@ -1066,6 +892,38 @@
       </rPr>
       <t>and the user will not be deleted.</t>
     </r>
+  </si>
+  <si>
+    <t>TC_LearningHub_deleteuser_005</t>
+  </si>
+  <si>
+    <t>Invalid User role</t>
+  </si>
+  <si>
+    <r>
+      <t>1-user should have a browser to navigate to signup page.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2-user should have xampp and it's control panel
+3- user should have the database on the phpmyadmin (reach it through xampp control panel) 
+4- open the apache server and sql server
+5-user is logged in and from dropdown menu in navbar choose "profile".</t>
+    </r>
+  </si>
+  <si>
+    <t>1.validate that delet user 
+button not exist</t>
+  </si>
+  <si>
+    <t>delet user 
+button not exist</t>
   </si>
   <si>
     <t>TC_LearningHub_Follow_001</t>
@@ -2086,9 +1944,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -2172,19 +2030,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2195,10 +2044,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2218,8 +2068,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2248,21 +2099,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2279,8 +2115,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2294,13 +2147,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2308,9 +2160,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2381,19 +2239,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2411,7 +2275,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2423,7 +2311,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2435,7 +2377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2447,85 +2395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2537,25 +2413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2831,41 +2689,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2895,6 +2725,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2912,26 +2757,39 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2949,135 +2807,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3173,6 +3031,9 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3206,11 +3067,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3595,7 +3459,7 @@
   <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3641,7 +3505,7 @@
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -3653,10 +3517,10 @@
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="48"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="11"/>
       <c r="K2" s="14"/>
       <c r="L2" s="11"/>
@@ -3665,7 +3529,7 @@
       <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -3677,10 +3541,10 @@
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="48"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="11"/>
       <c r="K3" s="14"/>
       <c r="L3" s="11"/>
@@ -3689,7 +3553,7 @@
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -3701,10 +3565,10 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="48"/>
+      <c r="I4" s="50"/>
       <c r="J4" s="11"/>
       <c r="K4" s="14"/>
       <c r="L4" s="11"/>
@@ -3713,7 +3577,7 @@
       <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="52" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -3725,10 +3589,10 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="11"/>
       <c r="K5" s="14"/>
       <c r="L5" s="11"/>
@@ -3737,7 +3601,7 @@
       <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="53" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -3749,10 +3613,10 @@
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="48"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="11"/>
       <c r="K6" s="14"/>
       <c r="L6" s="11"/>
@@ -3761,7 +3625,7 @@
       <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -3773,10 +3637,10 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="48"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="11"/>
       <c r="K7" s="14"/>
       <c r="L7" s="11"/>
@@ -3785,7 +3649,7 @@
       <c r="A8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="53" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -3797,10 +3661,10 @@
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="48"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="11"/>
       <c r="K8" s="14"/>
       <c r="L8" s="11"/>
@@ -3809,7 +3673,7 @@
       <c r="A9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="53" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -3821,335 +3685,335 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="48"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="11"/>
       <c r="K9" s="14"/>
       <c r="L9" s="11"/>
     </row>
     <row r="10" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="52"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="56"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="58"/>
     </row>
     <row r="12" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="56"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="58"/>
     </row>
     <row r="13" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="60"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="62"/>
     </row>
     <row r="14" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
     </row>
     <row r="15" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
     </row>
     <row r="16" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
     </row>
     <row r="17" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
     </row>
     <row r="18" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
     </row>
     <row r="19" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
     </row>
     <row r="20" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
     </row>
     <row r="21" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
     </row>
     <row r="22" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
     </row>
     <row r="23" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
     </row>
     <row r="24" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
     </row>
     <row r="25" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
     </row>
     <row r="26" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
     </row>
     <row r="27" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
     </row>
     <row r="28" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
     </row>
     <row r="29" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
     </row>
     <row r="30" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
     </row>
     <row r="31" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
     </row>
     <row r="32" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
     </row>
     <row r="33" ht="14.4" customHeight="1" spans="1:12">
       <c r="A33" s="2"/>
@@ -4454,456 +4318,456 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A15" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>341</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A19" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>354</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A20" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A23" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="E23" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A25" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -4966,22 +4830,22 @@
       <c r="A2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="47" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="47" t="s">
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="48"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="11"/>
       <c r="K2" s="14"/>
       <c r="L2" s="11"/>
@@ -4990,22 +4854,22 @@
       <c r="A3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="47" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="47" t="s">
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="48"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="11"/>
       <c r="K3" s="14"/>
       <c r="L3" s="11"/>
@@ -5014,22 +4878,22 @@
       <c r="A4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="47" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="47" t="s">
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="48"/>
+      <c r="I4" s="50"/>
       <c r="J4" s="11"/>
       <c r="K4" s="14"/>
       <c r="L4" s="11"/>
@@ -5038,22 +4902,22 @@
       <c r="A5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="47" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47" t="s">
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="11"/>
       <c r="K5" s="14"/>
       <c r="L5" s="11"/>
@@ -5062,22 +4926,22 @@
       <c r="A6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="47" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="47" t="s">
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="48"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="11"/>
       <c r="K6" s="14"/>
       <c r="L6" s="11"/>
@@ -5086,22 +4950,22 @@
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="47" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="47" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="48"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="11"/>
       <c r="K7" s="14"/>
       <c r="L7" s="11"/>
@@ -5110,22 +4974,22 @@
       <c r="A8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="47" t="s">
+      <c r="D8" s="50"/>
+      <c r="E8" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="47" t="s">
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="48"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="11"/>
       <c r="K8" s="14"/>
       <c r="L8" s="11"/>
@@ -5134,347 +4998,347 @@
       <c r="A9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="47" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="47" t="s">
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="48"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="11"/>
       <c r="K9" s="14"/>
       <c r="L9" s="11"/>
     </row>
     <row r="10" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="52"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="56"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="58"/>
     </row>
     <row r="12" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="56"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="58"/>
     </row>
     <row r="13" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="60"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="62"/>
     </row>
     <row r="14" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
     </row>
     <row r="15" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
     </row>
     <row r="16" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
     </row>
     <row r="17" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
     </row>
     <row r="18" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
     </row>
     <row r="19" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
     </row>
     <row r="20" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
     </row>
     <row r="21" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
     </row>
     <row r="22" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
     </row>
     <row r="23" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
     </row>
     <row r="24" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
     </row>
     <row r="25" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
     </row>
     <row r="26" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
     </row>
     <row r="27" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
     </row>
     <row r="28" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
     </row>
     <row r="29" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
     </row>
     <row r="30" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
     </row>
     <row r="31" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
     </row>
     <row r="32" ht="14.4" customHeight="1" spans="1:12">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
     </row>
     <row r="33" ht="14.4" customHeight="1" spans="1:12">
       <c r="A33" s="2"/>
@@ -5790,7 +5654,7 @@
       <c r="A2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -5802,10 +5666,10 @@
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="48"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="11"/>
       <c r="K2" s="14"/>
       <c r="L2" s="11"/>
@@ -5814,7 +5678,7 @@
       <c r="A3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -5826,10 +5690,10 @@
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="48"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="11"/>
       <c r="K3" s="14"/>
       <c r="L3" s="11"/>
@@ -5838,7 +5702,7 @@
       <c r="A4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="48" t="s">
         <v>83</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -5850,10 +5714,10 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="48"/>
+      <c r="I4" s="50"/>
       <c r="J4" s="11"/>
       <c r="K4" s="14"/>
       <c r="L4" s="11"/>
@@ -5862,7 +5726,7 @@
       <c r="A5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="48" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -5874,10 +5738,10 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="11"/>
       <c r="K5" s="14"/>
       <c r="L5" s="11"/>
@@ -5886,7 +5750,7 @@
       <c r="A6" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="48" t="s">
         <v>90</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -5898,10 +5762,10 @@
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="48"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="11"/>
       <c r="K6" s="14"/>
       <c r="L6" s="11"/>
@@ -5910,7 +5774,7 @@
       <c r="A7" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="48" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -5922,10 +5786,10 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="48"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="11"/>
       <c r="K7" s="14"/>
       <c r="L7" s="11"/>
@@ -5934,7 +5798,7 @@
       <c r="A8" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="48" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -5946,10 +5810,10 @@
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="48"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="11"/>
       <c r="K8" s="14"/>
       <c r="L8" s="11"/>
@@ -5958,7 +5822,7 @@
       <c r="A9" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="48" t="s">
         <v>100</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -5970,10 +5834,10 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="48"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="11"/>
       <c r="K9" s="14"/>
       <c r="L9" s="11"/>
@@ -5982,7 +5846,7 @@
       <c r="A10" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="48" t="s">
         <v>104</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -5994,10 +5858,10 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="48"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="11"/>
       <c r="K10" s="14"/>
       <c r="L10" s="11"/>
@@ -6006,7 +5870,7 @@
       <c r="A11" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="48" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -6018,10 +5882,10 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="48"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="11"/>
       <c r="K11" s="14"/>
       <c r="L11" s="11"/>
@@ -6030,7 +5894,7 @@
       <c r="A12" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="48" t="s">
         <v>114</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -6042,10 +5906,10 @@
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="48"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="11"/>
       <c r="K12" s="14"/>
       <c r="L12" s="11"/>
@@ -6054,7 +5918,7 @@
       <c r="A13" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="48" t="s">
         <v>118</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -6066,16 +5930,16 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="I13" s="48"/>
+      <c r="I13" s="50"/>
     </row>
     <row r="14" ht="162.6" customHeight="1" spans="1:9">
       <c r="A14" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="48" t="s">
         <v>122</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -6087,16 +5951,16 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="48"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" ht="193.8" customHeight="1" spans="1:9">
       <c r="A15" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="48" t="s">
         <v>125</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -6108,16 +5972,16 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="48"/>
+      <c r="I15" s="50"/>
     </row>
     <row r="16" ht="165" customHeight="1" spans="1:9">
       <c r="A16" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="48" t="s">
         <v>128</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -6129,16 +5993,16 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="48"/>
+      <c r="I16" s="50"/>
     </row>
     <row r="17" ht="165" customHeight="1" spans="1:9">
       <c r="A17" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="48" t="s">
         <v>132</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -6150,16 +6014,16 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="48"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" ht="165" customHeight="1" spans="1:9">
       <c r="A18" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="48" t="s">
         <v>136</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -6171,32 +6035,32 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="I18" s="48"/>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" ht="165" customHeight="1" spans="1:9">
       <c r="A19" s="11"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="13"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" ht="165" customHeight="1" spans="1:9">
       <c r="A20" s="11"/>
-      <c r="B20" s="46"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="13"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="72">
@@ -6331,7 +6195,7 @@
       <c r="A2" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>140</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -6343,10 +6207,10 @@
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="48"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="11"/>
       <c r="K2" s="14"/>
       <c r="L2" s="11"/>
@@ -6355,7 +6219,7 @@
       <c r="A3" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>144</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -6367,10 +6231,10 @@
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="I3" s="48"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="11"/>
       <c r="K3" s="14"/>
       <c r="L3" s="11"/>
@@ -6379,7 +6243,7 @@
       <c r="A4" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="48" t="s">
         <v>148</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -6391,10 +6255,10 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="I4" s="48"/>
+      <c r="I4" s="50"/>
       <c r="J4" s="11"/>
       <c r="K4" s="14"/>
       <c r="L4" s="11"/>
@@ -6403,7 +6267,7 @@
       <c r="A5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="48" t="s">
         <v>152</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -6415,108 +6279,108 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="11"/>
       <c r="K5" s="14"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" ht="136.8" customHeight="1" spans="1:12">
       <c r="A6" s="11"/>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="11"/>
       <c r="K6" s="14"/>
       <c r="L6" s="11"/>
     </row>
     <row r="7" ht="136.8" customHeight="1" spans="1:12">
       <c r="A7" s="11"/>
-      <c r="B7" s="46"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="11"/>
       <c r="K7" s="14"/>
       <c r="L7" s="11"/>
     </row>
     <row r="8" ht="136.8" customHeight="1" spans="1:12">
       <c r="A8" s="11"/>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="13"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="11"/>
       <c r="K8" s="14"/>
       <c r="L8" s="11"/>
     </row>
     <row r="9" ht="136.8" customHeight="1" spans="1:12">
       <c r="A9" s="11"/>
-      <c r="B9" s="46"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="13"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="11"/>
       <c r="K9" s="14"/>
       <c r="L9" s="11"/>
     </row>
     <row r="10" ht="136.8" customHeight="1" spans="1:12">
       <c r="A10" s="11"/>
-      <c r="B10" s="46"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="13"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="11"/>
       <c r="K10" s="14"/>
       <c r="L10" s="11"/>
     </row>
     <row r="11" ht="136.8" customHeight="1" spans="1:12">
       <c r="A11" s="11"/>
-      <c r="B11" s="46"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="11"/>
       <c r="K11" s="14"/>
       <c r="L11" s="11"/>
     </row>
     <row r="12" ht="136.8" customHeight="1" spans="1:12">
       <c r="A12" s="11"/>
-      <c r="B12" s="46"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="13"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="11"/>
       <c r="K12" s="14"/>
       <c r="L12" s="11"/>
@@ -6580,13 +6444,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="40.1047619047619" customWidth="1"/>
     <col min="2" max="2" width="26.6666666666667" customWidth="1"/>
@@ -6597,19 +6461,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="47.25" spans="1:7">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="18" t="s">
@@ -6619,100 +6483,110 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="190.05" customHeight="1" spans="1:7">
-      <c r="A2" s="37" t="s">
+    <row r="2" ht="238" customHeight="1" spans="1:7">
+      <c r="A2" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-    </row>
-    <row r="3" ht="165.75" spans="1:7">
-      <c r="A3" s="37" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+    </row>
+    <row r="3" ht="180.75" spans="1:7">
+      <c r="A3" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" ht="228" customHeight="1" spans="1:7">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" ht="165.75" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" ht="235.95" customHeight="1" spans="1:7">
+      <c r="A5" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-    </row>
-    <row r="6" ht="235.95" customHeight="1" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="E5" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" s="33" customFormat="1" ht="240" customHeight="1" spans="1:5">
+      <c r="A6" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="C6" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="E6" s="46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:1">
+      <c r="A7" s="38"/>
+    </row>
+    <row r="8" ht="15.75" spans="1:1">
+      <c r="A8" s="38"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:1">
+      <c r="A9" s="38"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:1">
+      <c r="A10" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6765,76 +6639,76 @@
     </row>
     <row r="2" ht="199" customHeight="1" spans="1:7">
       <c r="A2" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
     </row>
     <row r="3" ht="195" customHeight="1" spans="1:7">
       <c r="A3" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
     </row>
     <row r="4" ht="249" customHeight="1" spans="1:7">
       <c r="A4" s="20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
     </row>
     <row r="5" ht="180.75" spans="1:7">
       <c r="A5" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
@@ -6905,22 +6779,22 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A2" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="11"/>
@@ -6929,22 +6803,22 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A3" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="11"/>
@@ -6953,22 +6827,22 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A4" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11"/>
@@ -6977,22 +6851,22 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A5" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="11"/>
@@ -7001,22 +6875,22 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A6" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="11"/>
@@ -7025,22 +6899,22 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A7" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="11"/>
@@ -7133,22 +7007,22 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A2" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="11"/>
@@ -7157,22 +7031,22 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A3" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="11"/>
@@ -7181,22 +7055,22 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A4" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11"/>
@@ -7205,22 +7079,22 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A5" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="11"/>
@@ -7229,22 +7103,22 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="157.8" customHeight="1" spans="1:12">
       <c r="A6" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="11"/>
@@ -7329,260 +7203,260 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="96" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="91.2" customHeight="1" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="87" customHeight="1" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="102" customHeight="1" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="100.2" customHeight="1" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="99.6" customHeight="1" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="95.4" customHeight="1" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="94.2" customHeight="1" spans="1:7">
       <c r="A10" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>282</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="95.4" customHeight="1" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="94.2" customHeight="1" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="94.8" customHeight="1" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="102.6" customHeight="1" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="94.8" customHeight="1" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>

--- a/Testing/Test Report/TestCases.xlsx
+++ b/Testing/Test Report/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7815" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7815" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -1928,9 +1928,6 @@
     <t>TC_LearningHub_DELETE _009</t>
   </si>
   <si>
-    <t xml:space="preserve">verifying that user can delete his his published video from the home page </t>
-  </si>
-  <si>
     <t>1- click on the Delete icon front of the user's Video only</t>
   </si>
   <si>
@@ -1940,25 +1937,16 @@
     <t>TC_LearningHub_DELETE _010</t>
   </si>
   <si>
-    <t xml:space="preserve">verifying that user can delete his his published video from the technology category page </t>
-  </si>
-  <si>
     <t xml:space="preserve">the technology  page  should be refreshed and the video should be deleted from this page and all other pages </t>
   </si>
   <si>
     <t>TC_LearningHub_DELETE _011</t>
   </si>
   <si>
-    <t xml:space="preserve">verifying that user can delete his his published video from the languages category page </t>
-  </si>
-  <si>
     <t xml:space="preserve">the languages  page  should be refreshed and the video should be deleted from this page and all other pages </t>
   </si>
   <si>
     <t>TC_LearningHub_DELETE _012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verifying that user can delete his his published video from the mathematics category page </t>
   </si>
   <si>
     <t>TC_LearningHub_DELETE _013</t>
@@ -2095,6 +2083,18 @@
   <si>
     <t>1- validate this information are exist  Username-Email- Followed categories and the Role is Admin
 2-validate that Add user and Del user buttons are not exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete his published video from the languages category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete  his published video from the technology category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete  his published video from the home page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete  his published video from the mathematics category page </t>
   </si>
 </sst>
 </file>
@@ -2523,7 +2523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2675,12 +2675,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2706,29 +2726,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3027,23 +3030,23 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
+      <c r="I1" s="69"/>
+      <c r="J1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="52"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="12" t="s">
         <v>6</v>
       </c>
@@ -3055,21 +3058,21 @@
       <c r="B2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="54" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56" t="s">
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="148.15" customHeight="1">
@@ -3079,21 +3082,21 @@
       <c r="B3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="143.44999999999999" customHeight="1">
@@ -3103,21 +3106,21 @@
       <c r="B4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56" t="s">
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="55"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="158.44999999999999" customHeight="1">
@@ -3127,21 +3130,21 @@
       <c r="B5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="55"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="144" customHeight="1">
@@ -3151,21 +3154,21 @@
       <c r="B6" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="154.9" customHeight="1">
@@ -3175,21 +3178,21 @@
       <c r="B7" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="54" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56" t="s">
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="55"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="145.9" customHeight="1">
@@ -3199,21 +3202,21 @@
       <c r="B8" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="54" t="s">
+      <c r="D8" s="61"/>
+      <c r="E8" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56" t="s">
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="55"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="156.6" customHeight="1">
@@ -3223,175 +3226,175 @@
       <c r="B9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="54" t="s">
+      <c r="D9" s="61"/>
+      <c r="E9" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56" t="s">
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="55"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="14.45" customHeight="1">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="66"/>
       <c r="L10" s="47"/>
     </row>
     <row r="11" spans="1:12" ht="14.45" customHeight="1">
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
       <c r="L11" s="48"/>
     </row>
     <row r="12" spans="1:12" ht="14.45" customHeight="1">
       <c r="A12" s="48"/>
       <c r="B12" s="48"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
       <c r="L12" s="48"/>
     </row>
     <row r="13" spans="1:12" ht="14.45" customHeight="1">
       <c r="A13" s="49"/>
       <c r="B13" s="49"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="66"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="1:12" ht="14.45" customHeight="1">
       <c r="A14" s="50"/>
       <c r="B14" s="50"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
       <c r="L14" s="50"/>
     </row>
     <row r="15" spans="1:12" ht="14.45" customHeight="1">
       <c r="A15" s="50"/>
       <c r="B15" s="50"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="50"/>
     </row>
     <row r="16" spans="1:12" ht="14.45" customHeight="1">
       <c r="A16" s="50"/>
       <c r="B16" s="50"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
       <c r="L16" s="50"/>
     </row>
     <row r="17" spans="1:12" ht="14.45" customHeight="1">
       <c r="A17" s="50"/>
       <c r="B17" s="50"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
       <c r="L17" s="50"/>
     </row>
     <row r="18" spans="1:12" ht="14.45" customHeight="1">
       <c r="A18" s="50"/>
       <c r="B18" s="50"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="50"/>
     </row>
     <row r="19" spans="1:12" ht="14.45" customHeight="1">
       <c r="A19" s="50"/>
       <c r="B19" s="50"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="50"/>
     </row>
     <row r="20" spans="1:12" ht="14.45" customHeight="1">
       <c r="A20" s="50"/>
       <c r="B20" s="50"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
       <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:12" ht="14.45" customHeight="1">
@@ -3732,6 +3735,78 @@
     <row r="135" ht="14.45" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -3740,78 +3815,6 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3822,8 +3825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4017,70 +4020,70 @@
         <v>322</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>294</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>299</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>303</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>307</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>321</v>
@@ -4090,16 +4093,16 @@
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>296</v>
@@ -4109,16 +4112,16 @@
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>300</v>
@@ -4128,16 +4131,16 @@
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>304</v>
@@ -4147,16 +4150,16 @@
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>308</v>
@@ -4166,16 +4169,16 @@
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>312</v>
@@ -4185,16 +4188,16 @@
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>315</v>
@@ -4204,16 +4207,16 @@
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>318</v>
@@ -4223,16 +4226,16 @@
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>307</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>321</v>
@@ -4242,73 +4245,73 @@
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>294</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>321</v>
@@ -4347,23 +4350,23 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
+      <c r="I1" s="69"/>
+      <c r="J1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="52"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="12" t="s">
         <v>6</v>
       </c>
@@ -4375,21 +4378,21 @@
       <c r="B2" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="56" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="56" t="s">
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="148.15" customHeight="1">
@@ -4399,21 +4402,21 @@
       <c r="B3" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="56" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="143.44999999999999" customHeight="1">
@@ -4423,21 +4426,21 @@
       <c r="B4" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="56" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56" t="s">
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="55"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="158.44999999999999" customHeight="1">
@@ -4447,21 +4450,21 @@
       <c r="B5" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="56" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="56" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="55"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="144" customHeight="1">
@@ -4471,21 +4474,21 @@
       <c r="B6" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="56" t="s">
+      <c r="D6" s="63"/>
+      <c r="E6" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="56" t="s">
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="154.9" customHeight="1">
@@ -4495,21 +4498,21 @@
       <c r="B7" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="63"/>
+      <c r="E7" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="56" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="55"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="145.9" customHeight="1">
@@ -4519,21 +4522,21 @@
       <c r="B8" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="56" t="s">
+      <c r="D8" s="63"/>
+      <c r="E8" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="56" t="s">
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="55"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="156.6" customHeight="1">
@@ -4543,175 +4546,175 @@
       <c r="B9" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="63"/>
+      <c r="E9" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="56" t="s">
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="55"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="14.45" customHeight="1">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="66"/>
       <c r="L10" s="47"/>
     </row>
     <row r="11" spans="1:12" ht="14.45" customHeight="1">
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
       <c r="L11" s="48"/>
     </row>
     <row r="12" spans="1:12" ht="14.45" customHeight="1">
       <c r="A12" s="48"/>
       <c r="B12" s="48"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
       <c r="L12" s="48"/>
     </row>
     <row r="13" spans="1:12" ht="14.45" customHeight="1">
       <c r="A13" s="49"/>
       <c r="B13" s="49"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="66"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="1:12" ht="14.45" customHeight="1">
       <c r="A14" s="50"/>
       <c r="B14" s="50"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
       <c r="L14" s="50"/>
     </row>
     <row r="15" spans="1:12" ht="14.45" customHeight="1">
       <c r="A15" s="50"/>
       <c r="B15" s="50"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="50"/>
     </row>
     <row r="16" spans="1:12" ht="14.45" customHeight="1">
       <c r="A16" s="50"/>
       <c r="B16" s="50"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
       <c r="L16" s="50"/>
     </row>
     <row r="17" spans="1:12" ht="14.45" customHeight="1">
       <c r="A17" s="50"/>
       <c r="B17" s="50"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
       <c r="L17" s="50"/>
     </row>
     <row r="18" spans="1:12" ht="14.45" customHeight="1">
       <c r="A18" s="50"/>
       <c r="B18" s="50"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="50"/>
     </row>
     <row r="19" spans="1:12" ht="14.45" customHeight="1">
       <c r="A19" s="50"/>
       <c r="B19" s="50"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="50"/>
     </row>
     <row r="20" spans="1:12" ht="14.45" customHeight="1">
       <c r="A20" s="50"/>
       <c r="B20" s="50"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
       <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:12" ht="14.45" customHeight="1">
@@ -5052,6 +5055,78 @@
     <row r="135" ht="14.45" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -5060,78 +5135,6 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5143,20 +5146,20 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
     <col min="10" max="10" width="21.28515625" customWidth="1"/>
     <col min="11" max="11" width="0.5703125" customWidth="1"/>
     <col min="12" max="12" width="16.7109375" customWidth="1"/>
@@ -5169,23 +5172,23 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
+      <c r="I1" s="69"/>
+      <c r="J1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="52"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="12" t="s">
         <v>6</v>
       </c>
@@ -5194,440 +5197,456 @@
       <c r="A2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="54" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56" t="s">
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="173.45" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="173.45" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56" t="s">
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="55"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="176.45" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="55"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="173.45" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="173.45" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="54" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56" t="s">
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="55"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="173.45" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="54" t="s">
+      <c r="D8" s="61"/>
+      <c r="E8" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56" t="s">
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="55"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="173.45" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="54" t="s">
+      <c r="D9" s="61"/>
+      <c r="E9" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56" t="s">
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="55"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="173.45" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="54" t="s">
+      <c r="D10" s="61"/>
+      <c r="E10" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56" t="s">
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="55"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="61"/>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="173.45" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="54" t="s">
+      <c r="D11" s="61"/>
+      <c r="E11" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56" t="s">
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="55"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="61"/>
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="173.45" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="54" t="s">
+      <c r="D12" s="61"/>
+      <c r="E12" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56" t="s">
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="55"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="61"/>
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="180" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="54" t="s">
+      <c r="D13" s="61"/>
+      <c r="E13" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56" t="s">
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="I13" s="57"/>
+      <c r="I13" s="63"/>
     </row>
     <row r="14" spans="1:12" ht="162.6" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="54" t="s">
+      <c r="D14" s="61"/>
+      <c r="E14" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56" t="s">
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="57"/>
+      <c r="I14" s="63"/>
     </row>
     <row r="15" spans="1:12" ht="193.9" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="61"/>
+      <c r="E15" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56" t="s">
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="57"/>
+      <c r="I15" s="63"/>
     </row>
     <row r="16" spans="1:12" ht="165" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="54" t="s">
+      <c r="D16" s="61"/>
+      <c r="E16" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56" t="s">
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="57"/>
+      <c r="I16" s="63"/>
     </row>
     <row r="17" spans="1:9" ht="165" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="54" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56" t="s">
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="57"/>
+      <c r="I17" s="63"/>
     </row>
     <row r="18" spans="1:9" ht="165" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="54" t="s">
+      <c r="D18" s="61"/>
+      <c r="E18" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56" t="s">
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="63"/>
     </row>
     <row r="19" spans="1:9" ht="165" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="63"/>
     </row>
     <row r="20" spans="1:9" ht="165" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="43"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:I11"/>
@@ -5636,46 +5655,30 @@
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5708,23 +5711,23 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
+      <c r="I1" s="69"/>
+      <c r="J1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="52"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="12" t="s">
         <v>6</v>
       </c>
@@ -5736,21 +5739,21 @@
       <c r="B2" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="54" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56" t="s">
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="136.9" customHeight="1">
@@ -5760,21 +5763,21 @@
       <c r="B3" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="136.9" customHeight="1">
@@ -5784,21 +5787,21 @@
       <c r="B4" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56" t="s">
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="55"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="136.9" customHeight="1">
@@ -5808,123 +5811,163 @@
       <c r="B5" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="55"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="136.9" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="43"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="136.9" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="43"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="55"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="136.9" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="43"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="55"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="136.9" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="43"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="55"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="136.9" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="43"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="55"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="61"/>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="136.9" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="43"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="55"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="61"/>
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="136.9" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="43"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="55"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="61"/>
       <c r="L12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:I11"/>
@@ -5933,46 +5976,6 @@
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6278,23 +6281,23 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
+      <c r="I1" s="69"/>
+      <c r="J1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="52"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="12" t="s">
         <v>6</v>
       </c>
@@ -6306,21 +6309,21 @@
       <c r="B2" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="54" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="54" t="s">
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
@@ -6330,21 +6333,21 @@
       <c r="B3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="54" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
@@ -6354,21 +6357,21 @@
       <c r="B4" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="54" t="s">
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="55"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
@@ -6378,21 +6381,21 @@
       <c r="B5" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="54" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="55"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
@@ -6402,21 +6405,21 @@
       <c r="B6" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="54" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
@@ -6426,25 +6429,41 @@
       <c r="B7" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="54" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="54" t="s">
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="55"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:I7"/>
@@ -6457,22 +6476,6 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6504,23 +6507,23 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
+      <c r="I1" s="69"/>
+      <c r="J1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="52"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="12" t="s">
         <v>6</v>
       </c>
@@ -6532,21 +6535,21 @@
       <c r="B2" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="54" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="54" t="s">
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
@@ -6556,21 +6559,21 @@
       <c r="B3" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="54" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
@@ -6580,21 +6583,21 @@
       <c r="B4" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="54" t="s">
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="55"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
@@ -6604,21 +6607,21 @@
       <c r="B5" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="54" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="60" t="s">
         <v>245</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="55"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
@@ -6628,25 +6631,41 @@
       <c r="B6" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="54" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:I5"/>
@@ -6655,22 +6674,6 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6680,7 +6683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -6762,7 +6765,7 @@
         <v>260</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>253</v>
@@ -6784,7 +6787,7 @@
         <v>264</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>265</v>
@@ -6819,13 +6822,13 @@
         <v>271</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>272</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>273</v>
@@ -6895,7 +6898,7 @@
         <v>283</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>280</v>
@@ -6917,7 +6920,7 @@
         <v>285</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>265</v>
@@ -6952,13 +6955,13 @@
         <v>288</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>272</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>289</v>

--- a/Testing/Test Report/TestCases.xlsx
+++ b/Testing/Test Report/TestCases.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7815" activeTab="8"/>
+    <workbookView windowWidth="19815" windowHeight="7815" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="375">
   <si>
     <t>ID</t>
   </si>
@@ -651,10 +651,17 @@
     <t>TC_LearningHub_deleteuser_001</t>
   </si>
   <si>
-    <t>Valid Input - Delete Normal User</t>
+    <t>Valid Input - Delete User</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1-admin should have a browser to navigate to signup page.</t>
     </r>
     <r>
@@ -668,65 +675,35 @@
 2-admin should have xampp and it's control panel
 3- admin should have the database on the phpmyadmin (reach it through xampp control panel) 
 4- open the apache server and sql server
-5- Admin is logged in and navigated to the delete user page</t>
+5- Admin is logged in and from dropdown menu in navbar choose "profile" then click on delete user.</t>
     </r>
   </si>
   <si>
     <t>1.fill fields in delete user page
- Username:
-" HasnaaAmed "
-E-mail :
-" Hasnaa@yahoo.com "
+Username: 
+johndoe
+Email: john@example.com
 2.click on delete button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is deleted from database and sucess  message appear "User deleted successfully..."
+</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_deleteuser_002</t>
+  </si>
+  <si>
+    <t>Valid Input- Delete Admin User</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">user "normal" is deleted successfully </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">from the database. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>TC_LearningHub_deleteuser_002</t>
-  </si>
-  <si>
-    <t>Valid Input- Delete Admin User</t>
-  </si>
-  <si>
-    <r>
       <t>1-admin should have a browser to navigate to signup page.</t>
     </r>
     <r>
@@ -740,7 +717,7 @@
 2-admin should have xampp and it's control panel
 3- admin should have the database on the phpmyadmin (reach it through xampp control panel) 
 4- open the apache server and sql server
-6- Admin is logged in and navigated to the delete user page</t>
+6- Admin is logged in and from dropdown menu in navbar choose "profile" then click on delete user.</t>
     </r>
   </si>
   <si>
@@ -752,80 +729,25 @@
 2.click on delete button</t>
   </si>
   <si>
+    <t xml:space="preserve">sucess  message appear "User deleted successfully..."
+</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_deleteuser_003</t>
+  </si>
+  <si>
+    <t>Invalid Input - Username 
+doesn't exist in database</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>user "Admin " is deleted successfully</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">from the database. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>TC_LearningHub_deleteuser_003</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Invalid Input - Username </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>contains special characters</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>1-admin should have a browser to navigate to signup page.</t>
     </r>
     <r>
@@ -839,7 +761,7 @@
 2-admin should have xampp and it's control panel
 3- admin should have the database on the phpmyadmin (reach it through xampp control panel) 
 4- open the apache server and sql server
-7- Admin is logged in and navigated to the delete user page</t>
+7- Admin is logged in and from dropdown menu in navbar choose "profile" then click on delete user.</t>
     </r>
   </si>
   <si>
@@ -905,35 +827,34 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>Invalid Input - Username</t>
+      <t>Invalid Input- email not attached to</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+the entered username</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>contains numbers</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>1-admin should have a browser to navigate to signup page.</t>
     </r>
     <r>
@@ -947,73 +868,13 @@
 2-admin should have xampp and it's control panel
 3- admin should have the database on the phpmyadmin (reach it through xampp control panel) 
 4- open the apache server and sql server
-8- Admin is logged in and navigated to the delete user page</t>
-    </r>
-  </si>
-  <si>
-    <t>1.fill fields in delete user page
-Username:
-" HasnaaAmed22 "
-E-mail :
-" Hasnaa@yahoo.com "
-2.click on delete button</t>
-  </si>
-  <si>
-    <t>TC_LearningHub_deleteuser_005</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Invalid Input- not attached to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>the entered username</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1-admin should have a browser to navigate to signup page.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2-admin should have xampp and it's control panel
-3- admin should have the database on the phpmyadmin (reach it through xampp control panel) 
-4- open the apache server and sql server
-9- Admin is logged in and navigated to the delete user page</t>
+9- Admin is logged in and from dropdown menu in navbar choose "profile" then click on delete user.</t>
     </r>
   </si>
   <si>
     <t>1.fill fields in delete user page
 Username: 
-" HasnaaAmed " 
+" johndoe" 
 E-mail : 
 " Ahmed@yahoo.com "
 2.click on delete button</t>
@@ -1066,6 +927,45 @@
       </rPr>
       <t>and the user will not be deleted.</t>
     </r>
+  </si>
+  <si>
+    <t>TC_LearningHub_deleteuser_005</t>
+  </si>
+  <si>
+    <t>Invalid User role</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-user should have a browser to navigate to signup page.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2-user should have xampp and it's control panel
+3- user should have the database on the phpmyadmin (reach it through xampp control panel) 
+4- open the apache server and sql server
+5-user is logged in and from dropdown menu in navbar choose "profile".</t>
+    </r>
+  </si>
+  <si>
+    <t>1.validate that delet user 
+button not exist</t>
+  </si>
+  <si>
+    <t>delet user 
+button not exist</t>
   </si>
   <si>
     <t>TC_LearningHub_Follow_001</t>
@@ -1697,6 +1597,9 @@
     <t>TC_LearningHub_NAV_003</t>
   </si>
   <si>
+    <t>verifying that user can navigate to mathematics  page after clicking mathematics from navigation bar</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 
 1-  click on mathematics from the navigation bar  </t>
   </si>
@@ -1710,6 +1613,11 @@
     <t>verifying that user can navigate to home page by clicking on learning hub icon</t>
   </si>
   <si>
+    <t xml:space="preserve">1- open learning hub website
+2- login as user
+3-navigate to language page </t>
+  </si>
+  <si>
     <t xml:space="preserve">1- click on learning hub icon </t>
   </si>
   <si>
@@ -1730,11 +1638,18 @@
   </si>
   <si>
     <t>TC_LearningHub_NAV_006</t>
+  </si>
+  <si>
+    <t>verify that the profile page of the user includes user infornations.</t>
   </si>
   <si>
     <t xml:space="preserve">1- open learning hub website
 2- login as user
 3- open profile page </t>
+  </si>
+  <si>
+    <t>1- validate this information are exist  Username-Email- Followed categories and the Role is Admin
+2-validate that Add user and Del user buttons are not exist</t>
   </si>
   <si>
     <r>
@@ -1802,12 +1717,20 @@
     <t>TC_LearningHub_NAV_010</t>
   </si>
   <si>
+    <t>verifying that admin can navigate to mathematics  page after clicking mathematics from navigation bar</t>
+  </si>
+  <si>
     <t>TC_LearningHub_NAV_011</t>
   </si>
   <si>
     <t>verifying that admin can navigate to home page by clicking on learning hub icon</t>
   </si>
   <si>
+    <t xml:space="preserve">1- open learning hub website
+2- login as admin
+3-navigate to language page </t>
+  </si>
+  <si>
     <t>TC_LearningHub_NAV_012</t>
   </si>
   <si>
@@ -1815,6 +1738,13 @@
   </si>
   <si>
     <t>TC_LearningHub_NAV_013</t>
+  </si>
+  <si>
+    <t>verify that the profile page of the admin includes user infornations</t>
+  </si>
+  <si>
+    <t>1- validate this information are exist  Username-Email- Followed categories and the Role is Admin
+2-validate that Add user and Del user buttons are exist</t>
   </si>
   <si>
     <t xml:space="preserve">the profile page should contains the user's informations Username-Email- Followed categories and the Role is Admin 
@@ -2065,43 +1995,19 @@
   </si>
   <si>
     <t xml:space="preserve">verifying that  admin can delete any published video from the mathematics category page </t>
-  </si>
-  <si>
-    <t>verifying that user can navigate to mathematics  page after clicking mathematics from navigation bar</t>
-  </si>
-  <si>
-    <t>verifying that admin can navigate to mathematics  page after clicking mathematics from navigation bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- open learning hub website
-2- login as user
-3-navigate to language page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- open learning hub website
-2- login as admin
-3-navigate to language page </t>
-  </si>
-  <si>
-    <t>verify that the profile page of the admin includes user infornations</t>
-  </si>
-  <si>
-    <t>1- validate this information are exist  Username-Email- Followed categories and the Role is Admin
-2-validate that Add user and Del user buttons are exist</t>
-  </si>
-  <si>
-    <t>verify that the profile page of the user includes user infornations.</t>
-  </si>
-  <si>
-    <t>1- validate this information are exist  Username-Email- Followed categories and the Role is Admin
-2-validate that Add user and Del user buttons are not exist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2183,6 +2089,150 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2196,15 +2246,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2253,8 +2296,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2518,12 +2747,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2549,16 +3020,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2645,97 +3123,125 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2997,12 +3503,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3012,557 +3518,557 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="68.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="0.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="28.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="0.285714285714286" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="10" width="31.85546875" customWidth="1"/>
+    <col min="8" max="8" width="28.7142857142857" customWidth="1"/>
+    <col min="9" max="10" width="31.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25">
+    <row r="1" ht="23.25" spans="1:12">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="157.9" customHeight="1">
-      <c r="A2" s="10" t="s">
+    <row r="2" ht="157.9" customHeight="1" spans="1:12">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="54" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" ht="148.15" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" ht="148.15" customHeight="1" spans="1:12">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" ht="143.44999999999999" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" ht="143.45" customHeight="1" spans="1:12">
+      <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" ht="158.44999999999999" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="I4" s="48"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" ht="158.45" customHeight="1" spans="1:12">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="144" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" ht="144" customHeight="1" spans="1:12">
+      <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="154.9" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" ht="154.9" customHeight="1" spans="1:12">
+      <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="54" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="145.9" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="I7" s="48"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" ht="145.9" customHeight="1" spans="1:12">
+      <c r="A8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="54" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="156.6" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="I8" s="48"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" ht="156.6" customHeight="1" spans="1:12">
+      <c r="A9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="54" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="47"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="48"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="48"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="49"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="50"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="50"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="50"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="50"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="50"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="50"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="50"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-    </row>
-    <row r="27" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.45" customHeight="1">
+      <c r="I9" s="48"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="52"/>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="56"/>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="56"/>
+    </row>
+    <row r="13" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="60"/>
+    </row>
+    <row r="14" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+    </row>
+    <row r="15" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+    </row>
+    <row r="16" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+    </row>
+    <row r="17" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+    </row>
+    <row r="18" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+    </row>
+    <row r="19" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+    </row>
+    <row r="20" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+    </row>
+    <row r="21" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+    </row>
+    <row r="22" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+    </row>
+    <row r="23" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+    </row>
+    <row r="24" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+    </row>
+    <row r="25" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+    </row>
+    <row r="26" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+    </row>
+    <row r="27" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+    </row>
+    <row r="28" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+    </row>
+    <row r="29" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+    </row>
+    <row r="30" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+    </row>
+    <row r="31" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+    </row>
+    <row r="32" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+    </row>
+    <row r="33" ht="14.45" customHeight="1" spans="1:12">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3576,7 +4082,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="14.45" customHeight="1">
+    <row r="34" ht="14.45" customHeight="1" spans="1:12">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3590,7 +4096,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="14.45" customHeight="1">
+    <row r="35" ht="14.45" customHeight="1" spans="1:12">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3604,7 +4110,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" ht="14.45" customHeight="1">
+    <row r="36" ht="14.45" customHeight="1" spans="1:12">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3618,7 +4124,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" ht="14.45" customHeight="1">
+    <row r="37" ht="14.45" customHeight="1" spans="1:12">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3632,17 +4138,17 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="39" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="40" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="41" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="42" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="43" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="44" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="45" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="46" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="47" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="48" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="38" ht="14.45" customHeight="1"/>
+    <row r="39" ht="14.45" customHeight="1"/>
+    <row r="40" ht="14.45" customHeight="1"/>
+    <row r="41" ht="14.45" customHeight="1"/>
+    <row r="42" ht="14.45" customHeight="1"/>
+    <row r="43" ht="14.45" customHeight="1"/>
+    <row r="44" ht="14.45" customHeight="1"/>
+    <row r="45" ht="14.45" customHeight="1"/>
+    <row r="46" ht="14.45" customHeight="1"/>
+    <row r="47" ht="14.45" customHeight="1"/>
+    <row r="48" ht="14.45" customHeight="1"/>
     <row r="49" ht="14.45" customHeight="1"/>
     <row r="50" ht="14.45" customHeight="1"/>
     <row r="51" ht="14.45" customHeight="1"/>
@@ -3732,6 +4238,78 @@
     <row r="135" ht="14.45" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -3740,104 +4318,34 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="37.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="2" width="37.7142857142857" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.4285714285714" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.1428571428571" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.2857142857143" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.8571428571429" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85714285714286" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3860,469 +4368,471 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="2" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="3" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="4" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="5" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="6" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="7" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="8" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="9" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>311</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="10" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="11" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="12" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="13" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="14" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="15" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="16" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="17" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="18" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="19" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="20" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A20" s="4" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="21" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="22" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="23" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A23" s="4" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="24" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="25" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A25" s="4" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView topLeftCell="B8" workbookViewId="0">
@@ -4332,557 +4842,557 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="0.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="37.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="0.285714285714286" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="10" width="31.85546875" customWidth="1"/>
+    <col min="8" max="8" width="28.7142857142857" customWidth="1"/>
+    <col min="9" max="10" width="31.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25">
+    <row r="1" ht="23.25" spans="1:12">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="157.9" customHeight="1">
-      <c r="A2" s="10" t="s">
+    <row r="2" ht="157.9" customHeight="1" spans="1:12">
+      <c r="A2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="56" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="56" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" ht="148.15" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" ht="148.15" customHeight="1" spans="1:12">
+      <c r="A3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="56" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" ht="143.44999999999999" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" ht="143.45" customHeight="1" spans="1:12">
+      <c r="A4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="56" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56" t="s">
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" ht="158.44999999999999" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="I4" s="48"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" ht="158.45" customHeight="1" spans="1:12">
+      <c r="A5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="56" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="56" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="144" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" ht="144" customHeight="1" spans="1:12">
+      <c r="A6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="56" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="56" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="154.9" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" ht="154.9" customHeight="1" spans="1:12">
+      <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="56" t="s">
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="145.9" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="I7" s="48"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" ht="145.9" customHeight="1" spans="1:12">
+      <c r="A8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="56" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="56" t="s">
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="156.6" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="I8" s="48"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" ht="156.6" customHeight="1" spans="1:12">
+      <c r="A9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="48"/>
+      <c r="E9" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="56" t="s">
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="47"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="48"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="48"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="49"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="50"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="50"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="50"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="50"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="50"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="50"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="50"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-    </row>
-    <row r="27" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.45" customHeight="1">
+      <c r="I9" s="48"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="52"/>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="56"/>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="56"/>
+    </row>
+    <row r="13" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="60"/>
+    </row>
+    <row r="14" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+    </row>
+    <row r="15" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+    </row>
+    <row r="16" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+    </row>
+    <row r="17" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+    </row>
+    <row r="18" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+    </row>
+    <row r="19" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+    </row>
+    <row r="20" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+    </row>
+    <row r="21" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+    </row>
+    <row r="22" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+    </row>
+    <row r="23" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+    </row>
+    <row r="24" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+    </row>
+    <row r="25" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+    </row>
+    <row r="26" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+    </row>
+    <row r="27" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+    </row>
+    <row r="28" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+    </row>
+    <row r="29" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+    </row>
+    <row r="30" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+    </row>
+    <row r="31" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+    </row>
+    <row r="32" ht="14.45" customHeight="1" spans="1:12">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+    </row>
+    <row r="33" ht="14.45" customHeight="1" spans="1:12">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4896,7 +5406,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="14.45" customHeight="1">
+    <row r="34" ht="14.45" customHeight="1" spans="1:12">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4910,7 +5420,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="14.45" customHeight="1">
+    <row r="35" ht="14.45" customHeight="1" spans="1:12">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4924,7 +5434,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" ht="14.45" customHeight="1">
+    <row r="36" ht="14.45" customHeight="1" spans="1:12">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4938,7 +5448,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" ht="14.45" customHeight="1">
+    <row r="37" ht="14.45" customHeight="1" spans="1:12">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4952,17 +5462,17 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="39" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="40" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="41" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="42" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="43" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="44" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="45" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="46" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="47" spans="1:12" ht="14.45" customHeight="1"/>
-    <row r="48" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="38" ht="14.45" customHeight="1"/>
+    <row r="39" ht="14.45" customHeight="1"/>
+    <row r="40" ht="14.45" customHeight="1"/>
+    <row r="41" ht="14.45" customHeight="1"/>
+    <row r="42" ht="14.45" customHeight="1"/>
+    <row r="43" ht="14.45" customHeight="1"/>
+    <row r="44" ht="14.45" customHeight="1"/>
+    <row r="45" ht="14.45" customHeight="1"/>
+    <row r="46" ht="14.45" customHeight="1"/>
+    <row r="47" ht="14.45" customHeight="1"/>
+    <row r="48" ht="14.45" customHeight="1"/>
     <row r="49" ht="14.45" customHeight="1"/>
     <row r="50" ht="14.45" customHeight="1"/>
     <row r="51" ht="14.45" customHeight="1"/>
@@ -5052,6 +5562,78 @@
     <row r="135" ht="14.45" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -5060,30 +5642,520 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="34.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="35.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="6.57142857142857" customWidth="1"/>
+    <col min="5" max="5" width="29.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="18.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="12.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="24.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="8.14285714285714" customWidth="1"/>
+    <col min="10" max="10" width="21.2857142857143" customWidth="1"/>
+    <col min="11" max="11" width="0.571428571428571" customWidth="1"/>
+    <col min="12" max="12" width="16.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23.25" spans="1:12">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="173.45" customHeight="1" spans="1:12">
+      <c r="A2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" ht="173.45" customHeight="1" spans="1:12">
+      <c r="A3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="48"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" ht="173.45" customHeight="1" spans="1:12">
+      <c r="A4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="48"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" ht="176.45" customHeight="1" spans="1:12">
+      <c r="A5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="48"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" ht="173.45" customHeight="1" spans="1:12">
+      <c r="A6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="48"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" ht="173.45" customHeight="1" spans="1:12">
+      <c r="A7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="48"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" ht="173.45" customHeight="1" spans="1:12">
+      <c r="A8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="48"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" ht="173.45" customHeight="1" spans="1:12">
+      <c r="A9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="48"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" ht="173.45" customHeight="1" spans="1:12">
+      <c r="A10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="48"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" ht="173.45" customHeight="1" spans="1:12">
+      <c r="A11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="48"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" ht="173.45" customHeight="1" spans="1:12">
+      <c r="A12" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="48"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" ht="180" customHeight="1" spans="1:9">
+      <c r="A13" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="48"/>
+    </row>
+    <row r="14" ht="162.6" customHeight="1" spans="1:9">
+      <c r="A14" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="48"/>
+    </row>
+    <row r="15" ht="193.9" customHeight="1" spans="1:9">
+      <c r="A15" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="48"/>
+    </row>
+    <row r="16" ht="165" customHeight="1" spans="1:9">
+      <c r="A16" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="48"/>
+    </row>
+    <row r="17" ht="165" customHeight="1" spans="1:9">
+      <c r="A17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="48"/>
+    </row>
+    <row r="18" ht="165" customHeight="1" spans="1:9">
+      <c r="A18" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="48"/>
+    </row>
+    <row r="19" ht="165" customHeight="1" spans="1:9">
+      <c r="A19" s="11"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+    </row>
+    <row r="20" ht="165" customHeight="1" spans="1:9">
+      <c r="A20" s="11"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:I11"/>
@@ -5092,6 +6164,313 @@
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="26.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="39.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="23.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="35.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="13.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="16.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23.25" spans="1:12">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="136.9" customHeight="1" spans="1:12">
+      <c r="A2" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" ht="136.9" customHeight="1" spans="1:12">
+      <c r="A3" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="48"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" ht="136.9" customHeight="1" spans="1:12">
+      <c r="A4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="48"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" ht="136.9" customHeight="1" spans="1:12">
+      <c r="A5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="48"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" ht="136.9" customHeight="1" spans="1:12">
+      <c r="A6" s="11"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" ht="136.9" customHeight="1" spans="1:12">
+      <c r="A7" s="11"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" ht="136.9" customHeight="1" spans="1:12">
+      <c r="A8" s="11"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" ht="136.9" customHeight="1" spans="1:12">
+      <c r="A9" s="11"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" ht="136.9" customHeight="1" spans="1:12">
+      <c r="A10" s="11"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" ht="136.9" customHeight="1" spans="1:12">
+      <c r="A11" s="11"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" ht="136.9" customHeight="1" spans="1:12">
+      <c r="A12" s="11"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:I9"/>
@@ -5100,14 +6479,508 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="40.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="26.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="31.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="23.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="22.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="47.25" spans="1:7">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="190.15" customHeight="1" spans="1:7">
+      <c r="A2" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" ht="180.75" spans="1:7">
+      <c r="A3" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+    </row>
+    <row r="4" ht="228" customHeight="1" spans="1:7">
+      <c r="A4" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" ht="180.75" spans="1:7">
+      <c r="A5" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" ht="235.9" customHeight="1" spans="1:7">
+      <c r="A6" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="32.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="25.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="35.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="26.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="22.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="16.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="47.25" spans="1:7">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="198.95" customHeight="1" spans="1:7">
+      <c r="A2" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" ht="195" customHeight="1" spans="1:7">
+      <c r="A3" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" ht="249" customHeight="1" spans="1:7">
+      <c r="A4" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" ht="180.75" spans="1:7">
+      <c r="A5" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" ht="15.75" spans="1:7">
+      <c r="A6" s="20"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="26.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="31.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="28.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="19.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="9" max="9" width="26.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="25.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23.25" spans="1:12">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
+      <c r="A2" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
+      <c r="A3" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
+      <c r="A4" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
+      <c r="A5" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
+      <c r="A6" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
+      <c r="A7" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:I5"/>
@@ -5116,6 +6989,194 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="30.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="32.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="38.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="26.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="11" max="11" width="15.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="16.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23.25" spans="1:12">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
+      <c r="A2" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
+      <c r="A3" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
+      <c r="A4" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
+      <c r="A5" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
+      <c r="A6" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:I3"/>
@@ -5124,534 +7185,6 @@
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="0.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="23.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="173.45" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" ht="173.45" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" ht="173.45" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" ht="176.45" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="173.45" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="173.45" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="173.45" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="173.45" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" ht="173.45" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" ht="173.45" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" ht="173.45" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" ht="180" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="57"/>
-    </row>
-    <row r="14" spans="1:12" ht="162.6" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="57"/>
-    </row>
-    <row r="15" spans="1:12" ht="193.9" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="57"/>
-    </row>
-    <row r="16" spans="1:12" ht="165" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" s="57"/>
-    </row>
-    <row r="17" spans="1:9" ht="165" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="57"/>
-    </row>
-    <row r="18" spans="1:9" ht="165" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="57"/>
-    </row>
-    <row r="19" spans="1:9" ht="165" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
-    </row>
-    <row r="20" spans="1:9" ht="165" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
-    </row>
-  </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:I5"/>
@@ -5660,1043 +7193,34 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="23.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="136.9" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" ht="136.9" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" ht="136.9" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" ht="136.9" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="136.9" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="136.9" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="136.9" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="136.9" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" ht="136.9" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" ht="136.9" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" ht="136.9" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="46.5">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="190.15" customHeight="1">
-      <c r="A2" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-    </row>
-    <row r="3" spans="1:7" ht="180">
-      <c r="A3" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-    </row>
-    <row r="4" spans="1:7" ht="228" customHeight="1">
-      <c r="A4" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-    </row>
-    <row r="5" spans="1:7" ht="180">
-      <c r="A5" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="1:7" ht="235.9" customHeight="1">
-      <c r="A6" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="46.5">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="198.95" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:7" ht="195" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" ht="249" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" ht="180">
-      <c r="A5" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="23.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="23.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
-        <v>244</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="36.7142857142857" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.4285714285714" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.8571428571429" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.5714285714286" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.5714285714286" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.1428571428571" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85714285714286" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6719,273 +7243,274 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="96" customHeight="1">
+    <row r="2" s="1" customFormat="1" ht="96" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="91.15" customHeight="1">
+    <row r="3" s="1" customFormat="1" ht="91.15" customHeight="1" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="87" customHeight="1">
+    <row r="4" s="1" customFormat="1" ht="87" customHeight="1" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>366</v>
+        <v>262</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
+    <row r="5" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>368</v>
+        <v>267</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="102" customHeight="1">
+    <row r="6" s="1" customFormat="1" ht="102" customHeight="1" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="100.15" customHeight="1">
+    <row r="7" s="1" customFormat="1" ht="100.15" customHeight="1" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>372</v>
+        <v>275</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>373</v>
+        <v>277</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="99.6" customHeight="1">
+    <row r="8" s="1" customFormat="1" ht="99.6" customHeight="1" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="95.45" customHeight="1">
+    <row r="9" s="1" customFormat="1" ht="95.45" customHeight="1" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="94.15" customHeight="1">
+    <row r="10" s="1" customFormat="1" ht="94.15" customHeight="1" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="95.45" customHeight="1">
+    <row r="11" s="1" customFormat="1" ht="95.45" customHeight="1" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="94.15" customHeight="1">
+    <row r="12" s="1" customFormat="1" ht="94.15" customHeight="1" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="94.9" customHeight="1">
+    <row r="13" s="1" customFormat="1" ht="94.9" customHeight="1" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="102.6" customHeight="1">
+    <row r="14" s="1" customFormat="1" ht="102.6" customHeight="1" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>371</v>
+        <v>297</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="94.9" customHeight="1">
+    <row r="15" s="1" customFormat="1" ht="94.9" customHeight="1" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Testing/Test Report/TestCases.xlsx
+++ b/Testing/Test Report/TestCases.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7815" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -1858,9 +1858,6 @@
     <t>TC_LearningHub_DELETE _009</t>
   </si>
   <si>
-    <t xml:space="preserve">verifying that user can delete his his published video from the home page </t>
-  </si>
-  <si>
     <t>1- click on the Delete icon front of the user's Video only</t>
   </si>
   <si>
@@ -1870,25 +1867,16 @@
     <t>TC_LearningHub_DELETE _010</t>
   </si>
   <si>
-    <t xml:space="preserve">verifying that user can delete his his published video from the technology category page </t>
-  </si>
-  <si>
     <t xml:space="preserve">the technology  page  should be refreshed and the video should be deleted from this page and all other pages </t>
   </si>
   <si>
     <t>TC_LearningHub_DELETE _011</t>
   </si>
   <si>
-    <t xml:space="preserve">verifying that user can delete his his published video from the languages category page </t>
-  </si>
-  <si>
     <t xml:space="preserve">the languages  page  should be refreshed and the video should be deleted from this page and all other pages </t>
   </si>
   <si>
     <t>TC_LearningHub_DELETE _012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verifying that user can delete his his published video from the mathematics category page </t>
   </si>
   <si>
     <t>TC_LearningHub_DELETE _013</t>
@@ -1995,19 +1983,25 @@
   </si>
   <si>
     <t xml:space="preserve">verifying that  admin can delete any published video from the mathematics category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete  his published video from the home page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete  his published video from the technology category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete his published video from the languages category page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying that user can delete  his published video from the mathematics category page </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2089,150 +2083,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2246,8 +2096,44 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2296,194 +2182,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2747,254 +2447,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3011,32 +2469,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3132,116 +2580,103 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3503,12 +2938,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3518,557 +2953,557 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="68.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="28.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="0.285714285714286" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="0.28515625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="28.7142857142857" customWidth="1"/>
-    <col min="9" max="10" width="31.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="10" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" spans="1:12">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" ht="23.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="15" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:12" ht="157.9" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="47" t="s">
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" ht="148.15" customHeight="1" spans="1:12">
-      <c r="A3" s="11" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="148.15" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="47" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" ht="143.45" customHeight="1" spans="1:12">
-      <c r="A4" s="11" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="143.44999999999999" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="47" t="s">
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" ht="158.45" customHeight="1" spans="1:12">
-      <c r="A5" s="11" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="158.44999999999999" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="47" t="s">
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" ht="144" customHeight="1" spans="1:12">
-      <c r="A6" s="11" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="144" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="47" t="s">
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" ht="154.9" customHeight="1" spans="1:12">
-      <c r="A7" s="11" t="s">
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="154.9" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="47" t="s">
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" ht="145.9" customHeight="1" spans="1:12">
-      <c r="A8" s="11" t="s">
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="145.9" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="47" t="s">
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" ht="156.6" customHeight="1" spans="1:12">
-      <c r="A9" s="11" t="s">
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="156.6" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="54"/>
+      <c r="E9" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="47" t="s">
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="52"/>
-    </row>
-    <row r="11" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="56"/>
-    </row>
-    <row r="12" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="56"/>
-    </row>
-    <row r="13" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="60"/>
-    </row>
-    <row r="14" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-    </row>
-    <row r="15" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-    </row>
-    <row r="16" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-    </row>
-    <row r="17" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-    </row>
-    <row r="18" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-    </row>
-    <row r="19" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-    </row>
-    <row r="20" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-    </row>
-    <row r="21" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-    </row>
-    <row r="22" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-    </row>
-    <row r="23" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-    </row>
-    <row r="24" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-    </row>
-    <row r="25" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-    </row>
-    <row r="26" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-    </row>
-    <row r="27" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-    </row>
-    <row r="28" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-    </row>
-    <row r="29" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-    </row>
-    <row r="30" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-    </row>
-    <row r="31" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-    </row>
-    <row r="32" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-    </row>
-    <row r="33" ht="14.45" customHeight="1" spans="1:12">
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="47"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="47"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="48"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="49"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="49"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="49"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="49"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="49"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="49"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="49"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.45" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4082,7 +3517,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" ht="14.45" customHeight="1" spans="1:12">
+    <row r="34" spans="1:12" ht="14.45" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4096,7 +3531,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" ht="14.45" customHeight="1" spans="1:12">
+    <row r="35" spans="1:12" ht="14.45" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4110,7 +3545,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" ht="14.45" customHeight="1" spans="1:12">
+    <row r="36" spans="1:12" ht="14.45" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4124,7 +3559,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" ht="14.45" customHeight="1" spans="1:12">
+    <row r="37" spans="1:12" ht="14.45" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4138,17 +3573,17 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" ht="14.45" customHeight="1"/>
-    <row r="39" ht="14.45" customHeight="1"/>
-    <row r="40" ht="14.45" customHeight="1"/>
-    <row r="41" ht="14.45" customHeight="1"/>
-    <row r="42" ht="14.45" customHeight="1"/>
-    <row r="43" ht="14.45" customHeight="1"/>
-    <row r="44" ht="14.45" customHeight="1"/>
-    <row r="45" ht="14.45" customHeight="1"/>
-    <row r="46" ht="14.45" customHeight="1"/>
-    <row r="47" ht="14.45" customHeight="1"/>
-    <row r="48" ht="14.45" customHeight="1"/>
+    <row r="38" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="39" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="40" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="41" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="42" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="43" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="44" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="45" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="46" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="47" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="48" spans="1:12" ht="14.45" customHeight="1"/>
     <row r="49" ht="14.45" customHeight="1"/>
     <row r="50" ht="14.45" customHeight="1"/>
     <row r="51" ht="14.45" customHeight="1"/>
@@ -4238,6 +3673,78 @@
     <row r="135" ht="14.45" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -4246,130 +3753,56 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="37.7142857142857" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.4285714285714" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.1428571428571" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.2857142857143" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.8571428571429" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85714285714286" style="2"/>
+    <col min="1" max="2" width="37.7109375" style="71" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="71" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="71" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="71" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="71" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="70" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="69" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A2" s="72" t="s">
         <v>301</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4387,8 +3820,8 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A3" s="72" t="s">
         <v>306</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -4406,8 +3839,8 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A4" s="72" t="s">
         <v>310</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -4425,8 +3858,8 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A5" s="72" t="s">
         <v>314</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -4444,8 +3877,8 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A6" s="72" t="s">
         <v>318</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -4463,8 +3896,8 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A7" s="72" t="s">
         <v>322</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -4482,8 +3915,8 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A8" s="72" t="s">
         <v>325</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -4501,8 +3934,8 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A9" s="72" t="s">
         <v>328</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4520,75 +3953,75 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A10" s="72" t="s">
         <v>331</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>303</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>335</v>
+    <row r="11" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A11" s="72" t="s">
+        <v>334</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>308</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A12" s="4" t="s">
-        <v>338</v>
+    <row r="12" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A12" s="72" t="s">
+        <v>336</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A13" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>342</v>
+    <row r="13" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A13" s="72" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>374</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>316</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>330</v>
@@ -4596,37 +4029,37 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="E14" s="7" t="s">
+    <row r="14" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A14" s="72" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>305</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A15" s="4" t="s">
-        <v>347</v>
+    <row r="15" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A15" s="72" t="s">
+        <v>343</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>309</v>
@@ -4634,18 +4067,18 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A16" s="4" t="s">
-        <v>350</v>
+    <row r="16" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A16" s="72" t="s">
+        <v>346</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>313</v>
@@ -4653,18 +4086,18 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A17" s="4" t="s">
-        <v>353</v>
+    <row r="17" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A17" s="72" t="s">
+        <v>349</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>317</v>
@@ -4672,18 +4105,18 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A18" s="4" t="s">
-        <v>356</v>
+    <row r="18" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A18" s="72" t="s">
+        <v>352</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>321</v>
@@ -4691,18 +4124,18 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A19" s="4" t="s">
-        <v>360</v>
+    <row r="19" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A19" s="72" t="s">
+        <v>356</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>324</v>
@@ -4710,18 +4143,18 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A20" s="4" t="s">
-        <v>362</v>
+    <row r="20" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A20" s="72" t="s">
+        <v>358</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>327</v>
@@ -4729,18 +4162,18 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A21" s="4" t="s">
-        <v>364</v>
+    <row r="21" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A21" s="72" t="s">
+        <v>360</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>316</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>330</v>
@@ -4748,75 +4181,75 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A22" s="4" t="s">
-        <v>366</v>
+    <row r="22" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A22" s="72" t="s">
+        <v>362</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>303</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A23" s="4" t="s">
-        <v>369</v>
+    <row r="23" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A23" s="72" t="s">
+        <v>365</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A24" s="4" t="s">
-        <v>371</v>
+    <row r="24" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A24" s="72" t="s">
+        <v>367</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
-      <c r="A25" s="4" t="s">
-        <v>373</v>
+    <row r="25" spans="1:7" s="70" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A25" s="72" t="s">
+        <v>369</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>330</v>
@@ -4826,13 +4259,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView topLeftCell="B8" workbookViewId="0">
@@ -4842,557 +4274,557 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="45.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="37.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="0.285714285714286" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="0.28515625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="28.7142857142857" customWidth="1"/>
-    <col min="9" max="10" width="31.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="10" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" spans="1:12">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" ht="23.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="15" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:12" ht="157.9" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="47" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="47" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" ht="148.15" customHeight="1" spans="1:12">
-      <c r="A3" s="11" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="148.15" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="47" t="s">
+      <c r="D3" s="56"/>
+      <c r="E3" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="47" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" ht="143.45" customHeight="1" spans="1:12">
-      <c r="A4" s="11" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="143.44999999999999" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="47" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="47" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" ht="158.45" customHeight="1" spans="1:12">
-      <c r="A5" s="11" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="158.44999999999999" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="47" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" ht="144" customHeight="1" spans="1:12">
-      <c r="A6" s="11" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="144" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="47" t="s">
+      <c r="D6" s="56"/>
+      <c r="E6" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="47" t="s">
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" ht="154.9" customHeight="1" spans="1:12">
-      <c r="A7" s="11" t="s">
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="154.9" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="47" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="47" t="s">
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" ht="145.9" customHeight="1" spans="1:12">
-      <c r="A8" s="11" t="s">
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="145.9" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="47" t="s">
+      <c r="D8" s="56"/>
+      <c r="E8" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="47" t="s">
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" ht="156.6" customHeight="1" spans="1:12">
-      <c r="A9" s="11" t="s">
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="156.6" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="47" t="s">
+      <c r="D9" s="56"/>
+      <c r="E9" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="47" t="s">
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="52"/>
-    </row>
-    <row r="11" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="56"/>
-    </row>
-    <row r="12" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="56"/>
-    </row>
-    <row r="13" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="60"/>
-    </row>
-    <row r="14" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-    </row>
-    <row r="15" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-    </row>
-    <row r="16" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-    </row>
-    <row r="17" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-    </row>
-    <row r="18" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-    </row>
-    <row r="19" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-    </row>
-    <row r="20" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-    </row>
-    <row r="21" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-    </row>
-    <row r="22" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-    </row>
-    <row r="23" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-    </row>
-    <row r="24" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-    </row>
-    <row r="25" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-    </row>
-    <row r="26" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-    </row>
-    <row r="27" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-    </row>
-    <row r="28" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-    </row>
-    <row r="29" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-    </row>
-    <row r="30" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-    </row>
-    <row r="31" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-    </row>
-    <row r="32" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-    </row>
-    <row r="33" ht="14.45" customHeight="1" spans="1:12">
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="47"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="47"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="48"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="49"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="49"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="49"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="49"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="49"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="49"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="49"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.45" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -5406,7 +4838,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" ht="14.45" customHeight="1" spans="1:12">
+    <row r="34" spans="1:12" ht="14.45" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -5420,7 +4852,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" ht="14.45" customHeight="1" spans="1:12">
+    <row r="35" spans="1:12" ht="14.45" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -5434,7 +4866,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" ht="14.45" customHeight="1" spans="1:12">
+    <row r="36" spans="1:12" ht="14.45" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -5448,7 +4880,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" ht="14.45" customHeight="1" spans="1:12">
+    <row r="37" spans="1:12" ht="14.45" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -5462,17 +4894,17 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" ht="14.45" customHeight="1"/>
-    <row r="39" ht="14.45" customHeight="1"/>
-    <row r="40" ht="14.45" customHeight="1"/>
-    <row r="41" ht="14.45" customHeight="1"/>
-    <row r="42" ht="14.45" customHeight="1"/>
-    <row r="43" ht="14.45" customHeight="1"/>
-    <row r="44" ht="14.45" customHeight="1"/>
-    <row r="45" ht="14.45" customHeight="1"/>
-    <row r="46" ht="14.45" customHeight="1"/>
-    <row r="47" ht="14.45" customHeight="1"/>
-    <row r="48" ht="14.45" customHeight="1"/>
+    <row r="38" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="39" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="40" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="41" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="42" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="43" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="44" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="45" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="46" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="47" spans="1:12" ht="14.45" customHeight="1"/>
+    <row r="48" spans="1:12" ht="14.45" customHeight="1"/>
     <row r="49" ht="14.45" customHeight="1"/>
     <row r="50" ht="14.45" customHeight="1"/>
     <row r="51" ht="14.45" customHeight="1"/>
@@ -5562,6 +4994,78 @@
     <row r="135" ht="14.45" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -5570,6 +5074,534 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="0.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="51"/>
+      <c r="L1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="173.45" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="173.45" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="173.45" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="176.45" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="E5" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="173.45" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="173.45" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="173.45" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="173.45" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="54"/>
+      <c r="E9" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="173.45" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" ht="173.45" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" ht="173.45" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="54"/>
+      <c r="E12" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" ht="180" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="54"/>
+      <c r="E13" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="56"/>
+    </row>
+    <row r="14" spans="1:12" ht="162.6" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="56"/>
+    </row>
+    <row r="15" spans="1:12" ht="193.9" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="56"/>
+    </row>
+    <row r="16" spans="1:12" ht="165" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="54"/>
+      <c r="E16" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="56"/>
+    </row>
+    <row r="17" spans="1:9" ht="165" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="56"/>
+    </row>
+    <row r="18" spans="1:9" ht="165" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="E18" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="56"/>
+    </row>
+    <row r="19" spans="1:9" ht="165" customHeight="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
+    </row>
+    <row r="20" spans="1:9" ht="165" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:I3"/>
@@ -5578,6 +5610,287 @@
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="51"/>
+      <c r="L1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="136.9" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="136.9" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="136.9" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="136.9" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="E5" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="136.9" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="136.9" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="136.9" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="136.9" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="136.9" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" ht="136.9" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" ht="136.9" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:I5"/>
@@ -5586,536 +5899,14 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="34.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="35.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="6.57142857142857" customWidth="1"/>
-    <col min="5" max="5" width="29.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="12.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="24.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="8.14285714285714" customWidth="1"/>
-    <col min="10" max="10" width="21.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="0.571428571428571" customWidth="1"/>
-    <col min="12" max="12" width="16.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23.25" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" ht="176.45" customHeight="1" spans="1:12">
-      <c r="A5" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A6" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A7" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A8" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A10" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A11" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A12" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" ht="180" customHeight="1" spans="1:9">
-      <c r="A13" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="48"/>
-    </row>
-    <row r="14" ht="162.6" customHeight="1" spans="1:9">
-      <c r="A14" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="48"/>
-    </row>
-    <row r="15" ht="193.9" customHeight="1" spans="1:9">
-      <c r="A15" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="48"/>
-    </row>
-    <row r="16" ht="165" customHeight="1" spans="1:9">
-      <c r="A16" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" s="48"/>
-    </row>
-    <row r="17" ht="165" customHeight="1" spans="1:9">
-      <c r="A17" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="48"/>
-    </row>
-    <row r="18" ht="165" customHeight="1" spans="1:9">
-      <c r="A18" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="48"/>
-    </row>
-    <row r="19" ht="165" customHeight="1" spans="1:9">
-      <c r="A19" s="11"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-    </row>
-    <row r="20" ht="165" customHeight="1" spans="1:9">
-      <c r="A20" s="11"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="72">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -6124,6 +5915,490 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="46.5">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="190.15" customHeight="1">
+      <c r="A2" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:7" ht="210">
+      <c r="A3" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:7" ht="228" customHeight="1">
+      <c r="A4" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" ht="210">
+      <c r="A5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7" ht="235.9" customHeight="1">
+      <c r="A6" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="46.5">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="198.95" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" ht="195" customHeight="1">
+      <c r="A3" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" ht="249" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" ht="180">
+      <c r="A5" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="16"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="51"/>
+      <c r="L1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="54"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="I4" s="54"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="E5" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:I3"/>
@@ -6132,6 +6407,188 @@
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="51"/>
+      <c r="L1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="I2" s="54"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" s="54"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="E5" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="157.9" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:I5"/>
@@ -6140,305 +6597,14 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="26.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="39.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="23.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="35.7142857142857" customWidth="1"/>
-    <col min="10" max="10" width="13.2857142857143" customWidth="1"/>
-    <col min="12" max="12" width="16.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23.25" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A2" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A3" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A4" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A5" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A6" s="11"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A7" s="11"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A8" s="11"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A9" s="11"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A10" s="11"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A11" s="11"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A12" s="11"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="48">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -6447,780 +6613,32 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="40.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="26.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="31.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="23.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="22.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="47.25" spans="1:7">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="190.15" customHeight="1" spans="1:7">
-      <c r="A2" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-    </row>
-    <row r="3" ht="180.75" spans="1:7">
-      <c r="A3" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-    </row>
-    <row r="4" ht="228" customHeight="1" spans="1:7">
-      <c r="A4" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" ht="180.75" spans="1:7">
-      <c r="A5" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-    </row>
-    <row r="6" ht="235.9" customHeight="1" spans="1:7">
-      <c r="A6" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="32.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="25.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="35.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="26.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="22.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="16.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="47.25" spans="1:7">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="198.95" customHeight="1" spans="1:7">
-      <c r="A2" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" ht="195" customHeight="1" spans="1:7">
-      <c r="A3" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" ht="249" customHeight="1" spans="1:7">
-      <c r="A4" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" ht="180.75" spans="1:7">
-      <c r="A5" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" ht="15.75" spans="1:7">
-      <c r="A6" s="20"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
-  <cols>
-    <col min="1" max="1" width="26.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="31.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="28.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="19.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="9" max="9" width="26.7142857142857" customWidth="1"/>
-    <col min="11" max="11" width="25.5714285714286" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23.25" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A2" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A3" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A4" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A5" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A6" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A7" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
-  <cols>
-    <col min="1" max="1" width="30.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="32.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="38.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="26.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="11" max="11" width="15.4285714285714" customWidth="1"/>
-    <col min="12" max="12" width="16.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23.25" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A2" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A3" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A4" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A5" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A6" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.7142857142857" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.4285714285714" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.8571428571429" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.5714285714286" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.5714285714286" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.1428571428571" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85714285714286" style="2"/>
+    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7243,7 +6661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="96" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="96" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>252</v>
       </c>
@@ -7262,7 +6680,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="91.15" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="91.15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>257</v>
       </c>
@@ -7281,7 +6699,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="87" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="87" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>261</v>
       </c>
@@ -7300,7 +6718,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>265</v>
       </c>
@@ -7319,7 +6737,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="102" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="102" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>270</v>
       </c>
@@ -7338,11 +6756,11 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="100.15" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="100.15" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>275</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -7351,13 +6769,13 @@
       <c r="D7" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>278</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="99.6" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="99.6" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>279</v>
       </c>
@@ -7376,7 +6794,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="95.45" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="95.45" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>283</v>
       </c>
@@ -7395,7 +6813,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="94.15" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="94.15" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>286</v>
       </c>
@@ -7414,7 +6832,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="95.45" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="95.45" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>288</v>
       </c>
@@ -7433,7 +6851,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="94.15" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="94.15" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>290</v>
       </c>
@@ -7452,7 +6870,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="94.9" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="94.9" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>293</v>
       </c>
@@ -7471,11 +6889,11 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="102.6" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="102.6" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>296</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -7484,13 +6902,13 @@
       <c r="D14" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="94.9" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="94.9" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>299</v>
       </c>
@@ -7511,6 +6929,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Testing/Test Report/TestCases.xlsx
+++ b/Testing/Test Report/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="19815" windowHeight="7815" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -971,7 +971,7 @@
     <t>TC_LearningHub_Follow_001</t>
   </si>
   <si>
-    <t>Follow a Category Page successfully</t>
+    <t>User can select a Category Page  and follow it successfully</t>
   </si>
   <si>
     <r>
@@ -1084,7 +1084,7 @@
     <t>TC_LearningHub_Follow_002</t>
   </si>
   <si>
-    <t>Unfollow a Category Page successfully</t>
+    <t>User can select a cateogry page "already follow it "and  unfollow it successfully</t>
   </si>
   <si>
     <r>
@@ -1169,34 +1169,7 @@
     <t>TC_LearningHub_Follow_003</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>prevent following the same category</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>page twice</t>
-    </r>
+    <t>User can' follow the same category page twice</t>
   </si>
   <si>
     <r>
@@ -1264,34 +1237,8 @@
     <t>TC_LearningHub_Follow_004</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF050E17"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Prevent unfollowing a category page that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF050E17"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF050E17"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>has not been followed</t>
-    </r>
+    <t>User can't unfollow a category page that 
+has not been followed</t>
   </si>
   <si>
     <t xml:space="preserve"> 
@@ -2002,10 +1949,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -2103,9 +2050,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2119,24 +2066,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2159,14 +2106,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2196,18 +2136,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2218,7 +2158,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2226,8 +2172,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2298,13 +2245,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2316,121 +2395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2448,37 +2419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2748,17 +2695,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2813,24 +2749,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2845,152 +2763,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6498,7 +6445,7 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -6641,8 +6588,8 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -6755,7 +6702,7 @@
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" ht="15.75" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6" s="20"/>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>

--- a/Testing/Test Report/TestCases.xlsx
+++ b/Testing/Test Report/TestCases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\Documents\GitHub\learning-hub\Testing\Test Report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CE0B2F-76BD-4FD7-AB1E-E6853546A2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="388">
   <si>
     <t>ID</t>
   </si>
@@ -49,131 +55,28 @@
     <t>TC_LearningHub_Register_001</t>
   </si>
   <si>
-    <t>Test with valid inputs in all fields.</t>
-  </si>
-  <si>
-    <t>1-user should have a browser to navigate to signup page.
-2-User should have xampp  and it's control panel
-3- user should have the database on the phpmyadmin (reach it through xampp control panel) 
-4- open the apache server and sql server</t>
-  </si>
-  <si>
-    <t>Email: john@example.com
-Username: johndoe
-Password: test123!
-Confirm Password: test123!</t>
-  </si>
-  <si>
-    <t>"Registration successfully" message should appear and user 
-should be able to log in to his/her account from the login page.</t>
-  </si>
-  <si>
     <t>TC_LearningHub_Register_002</t>
   </si>
   <si>
-    <t>Test with an invalid username containing special characters.</t>
-  </si>
-  <si>
-    <t>Email: jane@example.com
-Username: janedoe@
-Password: test123!
-Confirm Password: test123!</t>
-  </si>
-  <si>
-    <t>A message should appear saying "the data entered are not valid"
- with the type of error for invalid username containing special characters.</t>
-  </si>
-  <si>
     <t>TC_LearningHub_Register_003</t>
   </si>
   <si>
-    <t>Test with an invalid email format.</t>
-  </si>
-  <si>
-    <t>Email: janeexample.com
-Username: janedoe
-Password: test123!
-Confirm Password: test123!</t>
-  </si>
-  <si>
-    <t>A message should appear saying "the data entered are not valid"
- with the type of error for invalid email format.</t>
-  </si>
-  <si>
     <t>TC_LearningHub_Register_004</t>
   </si>
   <si>
-    <t>Test with an invalid password containing less than five characters.</t>
-  </si>
-  <si>
-    <t>Email: josh@example.com
-Username: joshua
-Password: test
-Confirm Password: test</t>
-  </si>
-  <si>
-    <t>A message should appear saying "the data entered are not valid" with
- the type of error for invalid password containing less than five characters.</t>
-  </si>
-  <si>
     <t>TC_LearningHub_Register_005</t>
   </si>
   <si>
-    <t>Test with an invalid password not containing any numeric value.</t>
-  </si>
-  <si>
-    <t>Email: sarah@example.com
-Username: sarahjones
-Password: testing!
-Confirm Password: testing!</t>
-  </si>
-  <si>
-    <t>A message should appear saying "the data entered are not valid" with
- the type of error for invalid password not containing any numeric value.</t>
-  </si>
-  <si>
     <t>TC_LearningHub_Register_006</t>
   </si>
   <si>
-    <t xml:space="preserve"> Test with an invalid password not containing any special character.</t>
-  </si>
-  <si>
-    <t>Email: sam@example.com
-Username: samuel
-Password: testing1
-Confirm Password: testing1</t>
-  </si>
-  <si>
-    <t>A message should appear saying "the data entered are not valid" with
- the type of error for invalid password not containing any special character</t>
-  </si>
-  <si>
     <t>TC_LearningHub_Register_007</t>
   </si>
   <si>
     <t xml:space="preserve"> Test with confirm password not matching the password field.</t>
   </si>
   <si>
-    <t>Email: tom@example.com
-Username: tommy
-Password: test123!
-Confirm Password: test1234!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A message should appear saying "the data entered are not valid" with
- the type of error for confirm password not matching the password field.</t>
-  </si>
-  <si>
     <t>TC_LearningHub_Register_008</t>
-  </si>
-  <si>
-    <t>Test with a username that is already taken.</t>
-  </si>
-  <si>
-    <t>Email: chris@example.com
-Username: johndoe
-Password: test123!
-Confirm Password: test123!</t>
   </si>
   <si>
     <t>A message should appear saying "Username is already taken.
@@ -181,9 +84,6 @@
   </si>
   <si>
     <t>TC_LearningHub_adduser_001</t>
-  </si>
-  <si>
-    <t>Valid Input - Add Normal User</t>
   </si>
   <si>
     <t>1-user should have a browser to navigate to signup page.
@@ -193,125 +93,34 @@
 5-  Admin is logged in and navigated to the add user page</t>
   </si>
   <si>
-    <t>Username: "testuser"
-Email: "testuser@example.com"
-Password: "Abc123@"
-Confirm Password: "Abc123@"
-Role: Normal User</t>
-  </si>
-  <si>
-    <t>User is added successfully to the database and a success message is displayed.</t>
-  </si>
-  <si>
     <t>TC_LearningHub_adduser_002</t>
   </si>
   <si>
-    <t>Valid Input - Add Admin User</t>
-  </si>
-  <si>
-    <t>Username: "testadmin"
-Email: "testadmin@example.com"
-Password: "Abc123@"
-Confirm Password: "Abc123@"
-Role: Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Admin user is added successfully to the database and a success message is displayed.</t>
-  </si>
-  <si>
     <t>TC_LearningHub_adduser_003</t>
   </si>
   <si>
-    <t>Invalid Input - Username contains special characters</t>
-  </si>
-  <si>
-    <t>Username: "test!user"
-Email: "testuser@example.com"
-Password: "Abc123@"
-Confirm Password: "Abc123@"
-Role: Normal User</t>
-  </si>
-  <si>
-    <t>A validation error message is displayed saying "Username must not contain Special characters" and the user is not added to the database.</t>
-  </si>
-  <si>
     <t>TC_LearningHub_adduser_004</t>
   </si>
   <si>
-    <t>Invalid Input - Username contains numbers</t>
-  </si>
-  <si>
-    <t>Username: "test123"
-Email: "testuser@example.com"
-Password: "Abc123@"
-Confirm Password: "Abc123@"
-Role: Normal User</t>
-  </si>
-  <si>
     <t>A validation error message is displayed saying "Username must not contain Numbers" and the user is not added to the database.</t>
   </si>
   <si>
     <t>TC_LearningHub_adduser_005</t>
   </si>
   <si>
-    <t>Invalid Input - Invalid email format</t>
-  </si>
-  <si>
-    <t>Username: "testuser"
-Email: "testuserexample.com"
-Password: "Abc123@"
-Confirm Password: "Abc123@"
-Role: Normal User</t>
-  </si>
-  <si>
     <t>A validation error message is displayed saying "Email must be in valid format Ex: example@example.com" and the user is not added to the database.</t>
   </si>
   <si>
     <t>TC_LearningHub_adduser_006</t>
   </si>
   <si>
-    <t>Invalid Input - Password too short</t>
-  </si>
-  <si>
-    <t>Username: "testuser"
-Email: "testuser@example.com"
-Password: "abc1@"
-Confirm Password: "abc1@"
-Role: Normal User</t>
-  </si>
-  <si>
     <t>A validation error message is displayed saying "Password must be at least five characters" and the user is not added to the database.</t>
   </si>
   <si>
     <t>TC_LearningHub_adduser_007</t>
   </si>
   <si>
-    <t>Password does not contain numeric value</t>
-  </si>
-  <si>
-    <t>Username: "testuser"
-Email: "testuser@example.com"
-Password: "Abcdef@"
-Confirm Password: "Abcdef@"
-Role: Normal User</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A validation error message is displayed saying "Password must have at least one numeric value" and the user is not added to the database.</t>
-  </si>
-  <si>
     <t>TC_LearningHub_adduser_008</t>
-  </si>
-  <si>
-    <t>Password does not contain special character</t>
-  </si>
-  <si>
-    <t>Username: "testuser"
-Email: "testuser@example.com"
-Password: "Abcdef123"
-Confirm Password: "Abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system should display an error message to the admin saying "the data entered are not valid and hint about the invalid data" </t>
   </si>
   <si>
     <t>TC_LearningHub_Add_001</t>
@@ -1943,18 +1752,284 @@
   <si>
     <t xml:space="preserve">verifying that  admin can delete any published video from the mathematics category page </t>
   </si>
+  <si>
+    <t xml:space="preserve">Test with valid Email, Username, Password &amp;
+ Confirm Password in all fields. </t>
+  </si>
+  <si>
+    <t>1-user should have a browser to navigate to signup page.
+2-User should have xampp  and it's control panel
+3- user should have the database on the phpmyadmin (reach it through xampp control panel) 
+4- open the apache server and sql server
+5- navigate to the signup page</t>
+  </si>
+  <si>
+    <t>1-User should enter the following data in the Email: "john@example.com",
+Username: "johndoe",
+Password: "test123!"&amp;
+Confirm Password: "test123!"
+2- press submit button</t>
+  </si>
+  <si>
+    <t>Registration successfully message should appear and user 
+should be able to log in to his/her account from the login page.</t>
+  </si>
+  <si>
+    <t>Test with an invalid username "blank" 
+and valid email, password &amp; confirmpasword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User should enter Email: "jane@example.com",
+Username: "",
+Password:"test123!" &amp;
+Confirm Password: "test123!"
+</t>
+  </si>
+  <si>
+    <t>A message should appear saying “the data entered are not valid”with type of  the error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-User should enter the data  
+Email: "jane@example.com",
+Password:"test123!" 
+Confirm Password: "test123!" &amp;
+Username: "janedoe@".
+</t>
+  </si>
+  <si>
+    <t>Test with an invalid username containing number 
+and valid email, password &amp; confirmpasword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User should enter Email: "jane@example.com",
+Password:"test123!",
+Confirm Password: "test123!" &amp;
+Username: "janedoe1"
+</t>
+  </si>
+  <si>
+    <t>Test with an invalid email format and valid username,
+ password and confirm password.</t>
+  </si>
+  <si>
+    <t>1- user should enter Email: "janeexample.com",
+Username: "janedoe",
+Password: "test123!" &amp;
+Confirm Password: "test123!"
+2- press submit button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A message should appear saying "the data entered are not valid".
+</t>
+  </si>
+  <si>
+    <t>Test with an invalid password containing
+ less than five characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user should enter 
+Email: "josh@example.com",
+Username: "joshua",
+Password: "te1@" </t>
+  </si>
+  <si>
+    <t>A message should appear saying "the data entered are not valid" .</t>
+  </si>
+  <si>
+    <t>Test with an invalid password
+ not containing any numeric value.</t>
+  </si>
+  <si>
+    <t>user should enter
+Email: "motarek@example.com",
+Username: "sarahjones",
+Password: "testing!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A message should appear saying "the data entered are not valid" 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test with an invalid password 
+not containing any special character.</t>
+  </si>
+  <si>
+    <t>user should enter Email: "sam@example.com",
+Username: "samuel",
+Password: "testing1"</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_Register_009</t>
+  </si>
+  <si>
+    <t>user should entre Email: "tom@example.com",
+Username: "tommy",
+Password: "test123!",
+Confirm Password:" test1234!"
+2- press submit button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A message should appear saying "passwords don't match".</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_Register_010</t>
+  </si>
+  <si>
+    <t>Test with a username that is already taken and valid email, 
+password, confirm password.</t>
+  </si>
+  <si>
+    <t>1-user should have a browser to navigate to signup page.
+2-User should have xampp  and it's control panel
+3- user should have the database on the phpmyadmin (reach it through xampp control panel) 
+4- open the apache server and sql server
+5- navigate to the signup page
+6- there's an user account exist in the system with user name  "johndoe"</t>
+  </si>
+  <si>
+    <t>1- user should enter Email: "johner@example.com",
+Username: "johndoe",
+Password: "test123!" &amp;
+Confirm Password: "test123!"
+2- press submit button.</t>
+  </si>
+  <si>
+    <t>Admin adding normal user with valid data</t>
+  </si>
+  <si>
+    <t>A validation error message is displayed saying "the data entered are not valid" and hint about the invalid data and the user will not be added to the database</t>
+  </si>
+  <si>
+    <t>Admin add admin with invalid username containing
+speical character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin add admin with empty username </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_adduser_009</t>
+  </si>
+  <si>
+    <t>Admin add admin with invalid username containing
+number</t>
+  </si>
+  <si>
+    <t>Admin add normal user with invalid email format
+number</t>
+  </si>
+  <si>
+    <t>Admin add normal user with invalid password doesn’t contains numbers</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_adduser_010</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_adduser_011</t>
+  </si>
+  <si>
+    <t>Admin add normal user with invalid password doesn’t contains special characters</t>
+  </si>
+  <si>
+    <t>Admin add normal user with invalid confirm password that doesn’t match confirm password</t>
+  </si>
+  <si>
+    <t>Admin adding admin with valid data</t>
+  </si>
+  <si>
+    <t>Admin adding admin with invalid data rpeated
+ user name is not unique</t>
+  </si>
+  <si>
+    <t>a message will appear saying "Username is already taken. Please choose a different username.” and the user will not be added to the database.</t>
+  </si>
+  <si>
+    <t>a message will appear saying User added successfully to the database and a success message is displayed.</t>
+  </si>
+  <si>
+    <t>a message will appear saying User is added successfully to the database and a success message is displayed.</t>
+  </si>
+  <si>
+    <t>Admin add normal user with invalid password contains four characters</t>
+  </si>
+  <si>
+    <t>Test with an invalid username "contains special charachter" containing special characters and valid email, password &amp; confirmpasword</t>
+  </si>
+  <si>
+    <t>admin should enter Username: "testuser",
+Email: "testuser@example.com",
+Password: "Abc123@",
+Confirm Password: "Abc123@"and choose 
+Role: Normal User</t>
+  </si>
+  <si>
+    <t>admin should enter Username: "",
+Email: "testadmin@example.com",
+Password: "Abc123@",
+Confirm Password: "Abc123@" and choose
+Role: Admin</t>
+  </si>
+  <si>
+    <t>admin should enter Username: "Abc",
+Email: "testadmin@example.com",
+Password: "Abc123@",
+Confirm Password: "Abc123@" and choose
+Role: Admin</t>
+  </si>
+  <si>
+    <t>admin should enter Username: "Abc1",
+Email: "testadmin@example.com",
+Password: "Abc123@",
+Confirm Password: "Abc123@" and choose
+Role: Admin</t>
+  </si>
+  <si>
+    <t>admin should enter Username: "test123",
+Email: "testuser@example",
+Password: "Abc123@",
+Confirm Password: "Abc123@"and choose
+Role: Normal User</t>
+  </si>
+  <si>
+    <t>admin should enter Username: "testuser",
+Email: "testuserexample.com",
+Password: "Abca",
+Confirm Password: "Abca"and choose
+Role: Normal User</t>
+  </si>
+  <si>
+    <t>admin should enter Username: "test123",
+Email: "testuser@example.com",
+Password: "Abc@",
+Confirm Password: "Abc@" and choose
+Role: Normal User</t>
+  </si>
+  <si>
+    <t>admin should enter Username: "testuser",
+Email: "testuser@example.com",
+Password: "abc1",
+Confirm Password: "abc1" and choose 
+Role: Normal User</t>
+  </si>
+  <si>
+    <t>admin should enter Username: "testuser",
+Email: "testuser@example.com",
+Password: "abc1@",
+Confirm Password: "abc1!" and choose
+Role: Normal User</t>
+  </si>
+  <si>
+    <t>admin should enter Username: "testuse",
+Email: "testuse@example.com",
+Password: "Abc123@",
+Confirm Password: "Abc123@"and choose 
+Role: Admin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2036,150 +2111,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2193,8 +2124,84 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF374151"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF374151"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2243,194 +2250,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2696,252 +2517,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2967,23 +2572,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3004,7 +2602,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3055,7 +2653,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3070,129 +2668,170 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3450,294 +3089,315 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="68.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="28.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="0.285714285714286" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="28.7142857142857" customWidth="1"/>
-    <col min="9" max="10" width="31.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="68.5546875" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" customWidth="1"/>
+    <col min="9" max="10" width="31.88671875" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" spans="1:12">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" ht="31.2">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="75"/>
+      <c r="E1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="75"/>
+      <c r="J1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="15" t="s">
+      <c r="K1" s="75"/>
+      <c r="L1" s="49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:12" ht="157.94999999999999" customHeight="1">
+      <c r="A2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="65" t="s">
+        <v>334</v>
+      </c>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="50"/>
+    </row>
+    <row r="3" spans="1:12" ht="183.6" customHeight="1">
+      <c r="A3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B3" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="1:12" ht="143.4" customHeight="1">
+      <c r="A4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13" t="s">
+      <c r="B4" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="50"/>
+    </row>
+    <row r="5" spans="1:12" ht="158.4" customHeight="1">
+      <c r="A5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="47" t="s">
+      <c r="B5" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="66"/>
+      <c r="E5" s="65" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="I5" s="66"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="50"/>
+    </row>
+    <row r="6" spans="1:12" ht="144" customHeight="1">
+      <c r="A6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" ht="148.15" customHeight="1" spans="1:12">
-      <c r="A3" s="11" t="s">
+      <c r="B6" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="50"/>
+    </row>
+    <row r="7" spans="1:12" ht="154.94999999999999" customHeight="1">
+      <c r="A7" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B7" s="51" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="50"/>
+    </row>
+    <row r="8" spans="1:12" ht="145.94999999999999" customHeight="1">
+      <c r="A8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13" t="s">
+      <c r="B8" s="52" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="73"/>
+      <c r="E8" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="50"/>
+    </row>
+    <row r="9" spans="1:12" ht="156.6" customHeight="1">
+      <c r="A9" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" s="66"/>
+      <c r="E9" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="50"/>
+    </row>
+    <row r="10" spans="1:12" ht="184.8" customHeight="1">
+      <c r="A10" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="B10" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" ht="143.45" customHeight="1" spans="1:12">
-      <c r="A4" s="11" t="s">
+      <c r="C10" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" s="66"/>
+      <c r="E10" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="50"/>
+    </row>
+    <row r="11" spans="1:12" ht="235.2" customHeight="1">
+      <c r="A11" s="50" t="s">
+        <v>355</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="D11" s="66"/>
+      <c r="E11" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" ht="158.45" customHeight="1" spans="1:12">
-      <c r="A5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" ht="144" customHeight="1" spans="1:12">
-      <c r="A6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" ht="154.9" customHeight="1" spans="1:12">
-      <c r="A7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" ht="145.9" customHeight="1" spans="1:12">
-      <c r="A8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" ht="156.6" customHeight="1" spans="1:12">
-      <c r="A9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="52"/>
-    </row>
-    <row r="11" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="56"/>
-    </row>
-    <row r="12" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="56"/>
-    </row>
-    <row r="13" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="50"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="45"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="61"/>
       <c r="D13" s="62"/>
       <c r="E13" s="63"/>
@@ -3747,275 +3407,275 @@
       <c r="I13" s="62"/>
       <c r="J13" s="63"/>
       <c r="K13" s="62"/>
-      <c r="L13" s="60"/>
-    </row>
-    <row r="14" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-    </row>
-    <row r="15" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-    </row>
-    <row r="16" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-    </row>
-    <row r="17" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-    </row>
-    <row r="18" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-    </row>
-    <row r="19" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-    </row>
-    <row r="20" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-    </row>
-    <row r="21" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-    </row>
-    <row r="22" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-    </row>
-    <row r="23" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-    </row>
-    <row r="24" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-    </row>
-    <row r="25" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-    </row>
-    <row r="26" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-    </row>
-    <row r="27" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-    </row>
-    <row r="28" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-    </row>
-    <row r="29" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-    </row>
-    <row r="30" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-    </row>
-    <row r="31" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-    </row>
-    <row r="32" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-    </row>
-    <row r="33" ht="14.45" customHeight="1" spans="1:12">
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="47"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="47"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="47"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="47"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="47"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="47"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="47"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.4" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4029,7 +3689,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" ht="14.45" customHeight="1" spans="1:12">
+    <row r="34" spans="1:12" ht="14.4" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4043,7 +3703,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" ht="14.45" customHeight="1" spans="1:12">
+    <row r="35" spans="1:12" ht="14.4" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4057,7 +3717,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" ht="14.45" customHeight="1" spans="1:12">
+    <row r="36" spans="1:12" ht="14.4" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4071,7 +3731,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" ht="14.45" customHeight="1" spans="1:12">
+    <row r="37" spans="1:12" ht="14.4" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4085,104 +3745,104 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" ht="14.45" customHeight="1"/>
-    <row r="39" ht="14.45" customHeight="1"/>
-    <row r="40" ht="14.45" customHeight="1"/>
-    <row r="41" ht="14.45" customHeight="1"/>
-    <row r="42" ht="14.45" customHeight="1"/>
-    <row r="43" ht="14.45" customHeight="1"/>
-    <row r="44" ht="14.45" customHeight="1"/>
-    <row r="45" ht="14.45" customHeight="1"/>
-    <row r="46" ht="14.45" customHeight="1"/>
-    <row r="47" ht="14.45" customHeight="1"/>
-    <row r="48" ht="14.45" customHeight="1"/>
-    <row r="49" ht="14.45" customHeight="1"/>
-    <row r="50" ht="14.45" customHeight="1"/>
-    <row r="51" ht="14.45" customHeight="1"/>
-    <row r="52" ht="14.45" customHeight="1"/>
-    <row r="53" ht="14.45" customHeight="1"/>
-    <row r="54" ht="14.45" customHeight="1"/>
-    <row r="55" ht="14.45" customHeight="1"/>
-    <row r="56" ht="14.45" customHeight="1"/>
-    <row r="57" ht="14.45" customHeight="1"/>
-    <row r="58" ht="14.45" customHeight="1"/>
-    <row r="59" ht="14.45" customHeight="1"/>
-    <row r="60" ht="14.45" customHeight="1"/>
-    <row r="61" ht="14.45" customHeight="1"/>
-    <row r="62" ht="14.45" customHeight="1"/>
-    <row r="63" ht="14.45" customHeight="1"/>
-    <row r="64" ht="14.45" customHeight="1"/>
-    <row r="65" ht="14.45" customHeight="1"/>
-    <row r="66" ht="14.45" customHeight="1"/>
-    <row r="67" ht="14.45" customHeight="1"/>
-    <row r="68" ht="14.45" customHeight="1"/>
-    <row r="69" ht="14.45" customHeight="1"/>
-    <row r="70" ht="14.45" customHeight="1"/>
-    <row r="71" ht="14.45" customHeight="1"/>
-    <row r="72" ht="14.45" customHeight="1"/>
-    <row r="73" ht="14.45" customHeight="1"/>
-    <row r="74" ht="14.45" customHeight="1"/>
-    <row r="75" ht="14.45" customHeight="1"/>
-    <row r="76" ht="14.45" customHeight="1"/>
-    <row r="77" ht="14.45" customHeight="1"/>
-    <row r="78" ht="14.45" customHeight="1"/>
-    <row r="79" ht="14.45" customHeight="1"/>
-    <row r="80" ht="14.45" customHeight="1"/>
-    <row r="81" ht="14.45" customHeight="1"/>
-    <row r="82" ht="14.45" customHeight="1"/>
-    <row r="83" ht="14.45" customHeight="1"/>
-    <row r="84" ht="14.45" customHeight="1"/>
-    <row r="85" ht="14.45" customHeight="1"/>
-    <row r="86" ht="14.45" customHeight="1"/>
-    <row r="87" ht="14.45" customHeight="1"/>
-    <row r="88" ht="14.45" customHeight="1"/>
-    <row r="89" ht="14.45" customHeight="1"/>
-    <row r="90" ht="14.45" customHeight="1"/>
-    <row r="91" ht="14.45" customHeight="1"/>
-    <row r="92" ht="14.45" customHeight="1"/>
-    <row r="93" ht="14.45" customHeight="1"/>
-    <row r="94" ht="14.45" customHeight="1"/>
-    <row r="95" ht="14.45" customHeight="1"/>
-    <row r="96" ht="14.45" customHeight="1"/>
-    <row r="97" ht="14.45" customHeight="1"/>
-    <row r="98" ht="14.45" customHeight="1"/>
-    <row r="99" ht="14.45" customHeight="1"/>
-    <row r="100" ht="14.45" customHeight="1"/>
-    <row r="101" ht="14.45" customHeight="1"/>
-    <row r="102" ht="14.45" customHeight="1"/>
-    <row r="103" ht="14.45" customHeight="1"/>
-    <row r="104" ht="14.45" customHeight="1"/>
-    <row r="105" ht="14.45" customHeight="1"/>
-    <row r="106" ht="14.45" customHeight="1"/>
-    <row r="107" ht="14.45" customHeight="1"/>
-    <row r="108" ht="14.45" customHeight="1"/>
-    <row r="109" ht="14.45" customHeight="1"/>
-    <row r="110" ht="14.45" customHeight="1"/>
-    <row r="111" ht="14.45" customHeight="1"/>
-    <row r="112" ht="14.45" customHeight="1"/>
-    <row r="113" ht="14.45" customHeight="1"/>
-    <row r="114" ht="14.45" customHeight="1"/>
-    <row r="115" ht="14.45" customHeight="1"/>
-    <row r="116" ht="14.45" customHeight="1"/>
-    <row r="117" ht="14.45" customHeight="1"/>
-    <row r="118" ht="14.45" customHeight="1"/>
-    <row r="119" ht="14.45" customHeight="1"/>
-    <row r="120" ht="14.45" customHeight="1"/>
-    <row r="121" ht="14.45" customHeight="1"/>
-    <row r="122" ht="14.45" customHeight="1"/>
-    <row r="123" ht="14.45" customHeight="1"/>
-    <row r="124" ht="14.45" customHeight="1"/>
-    <row r="125" ht="14.45" customHeight="1"/>
-    <row r="126" ht="14.45" customHeight="1"/>
-    <row r="127" ht="14.45" customHeight="1"/>
-    <row r="128" ht="14.45" customHeight="1"/>
-    <row r="129" ht="14.45" customHeight="1"/>
-    <row r="130" ht="14.45" customHeight="1"/>
-    <row r="131" ht="14.45" customHeight="1"/>
-    <row r="132" ht="14.45" customHeight="1"/>
-    <row r="133" ht="14.45" customHeight="1"/>
-    <row r="134" ht="14.45" customHeight="1"/>
-    <row r="135" ht="14.45" customHeight="1"/>
+    <row r="38" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="39" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="40" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="41" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="42" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="43" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="44" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="45" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="46" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="47" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="48" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="49" ht="14.4" customHeight="1"/>
+    <row r="50" ht="14.4" customHeight="1"/>
+    <row r="51" ht="14.4" customHeight="1"/>
+    <row r="52" ht="14.4" customHeight="1"/>
+    <row r="53" ht="14.4" customHeight="1"/>
+    <row r="54" ht="14.4" customHeight="1"/>
+    <row r="55" ht="14.4" customHeight="1"/>
+    <row r="56" ht="14.4" customHeight="1"/>
+    <row r="57" ht="14.4" customHeight="1"/>
+    <row r="58" ht="14.4" customHeight="1"/>
+    <row r="59" ht="14.4" customHeight="1"/>
+    <row r="60" ht="14.4" customHeight="1"/>
+    <row r="61" ht="14.4" customHeight="1"/>
+    <row r="62" ht="14.4" customHeight="1"/>
+    <row r="63" ht="14.4" customHeight="1"/>
+    <row r="64" ht="14.4" customHeight="1"/>
+    <row r="65" ht="14.4" customHeight="1"/>
+    <row r="66" ht="14.4" customHeight="1"/>
+    <row r="67" ht="14.4" customHeight="1"/>
+    <row r="68" ht="14.4" customHeight="1"/>
+    <row r="69" ht="14.4" customHeight="1"/>
+    <row r="70" ht="14.4" customHeight="1"/>
+    <row r="71" ht="14.4" customHeight="1"/>
+    <row r="72" ht="14.4" customHeight="1"/>
+    <row r="73" ht="14.4" customHeight="1"/>
+    <row r="74" ht="14.4" customHeight="1"/>
+    <row r="75" ht="14.4" customHeight="1"/>
+    <row r="76" ht="14.4" customHeight="1"/>
+    <row r="77" ht="14.4" customHeight="1"/>
+    <row r="78" ht="14.4" customHeight="1"/>
+    <row r="79" ht="14.4" customHeight="1"/>
+    <row r="80" ht="14.4" customHeight="1"/>
+    <row r="81" ht="14.4" customHeight="1"/>
+    <row r="82" ht="14.4" customHeight="1"/>
+    <row r="83" ht="14.4" customHeight="1"/>
+    <row r="84" ht="14.4" customHeight="1"/>
+    <row r="85" ht="14.4" customHeight="1"/>
+    <row r="86" ht="14.4" customHeight="1"/>
+    <row r="87" ht="14.4" customHeight="1"/>
+    <row r="88" ht="14.4" customHeight="1"/>
+    <row r="89" ht="14.4" customHeight="1"/>
+    <row r="90" ht="14.4" customHeight="1"/>
+    <row r="91" ht="14.4" customHeight="1"/>
+    <row r="92" ht="14.4" customHeight="1"/>
+    <row r="93" ht="14.4" customHeight="1"/>
+    <row r="94" ht="14.4" customHeight="1"/>
+    <row r="95" ht="14.4" customHeight="1"/>
+    <row r="96" ht="14.4" customHeight="1"/>
+    <row r="97" ht="14.4" customHeight="1"/>
+    <row r="98" ht="14.4" customHeight="1"/>
+    <row r="99" ht="14.4" customHeight="1"/>
+    <row r="100" ht="14.4" customHeight="1"/>
+    <row r="101" ht="14.4" customHeight="1"/>
+    <row r="102" ht="14.4" customHeight="1"/>
+    <row r="103" ht="14.4" customHeight="1"/>
+    <row r="104" ht="14.4" customHeight="1"/>
+    <row r="105" ht="14.4" customHeight="1"/>
+    <row r="106" ht="14.4" customHeight="1"/>
+    <row r="107" ht="14.4" customHeight="1"/>
+    <row r="108" ht="14.4" customHeight="1"/>
+    <row r="109" ht="14.4" customHeight="1"/>
+    <row r="110" ht="14.4" customHeight="1"/>
+    <row r="111" ht="14.4" customHeight="1"/>
+    <row r="112" ht="14.4" customHeight="1"/>
+    <row r="113" ht="14.4" customHeight="1"/>
+    <row r="114" ht="14.4" customHeight="1"/>
+    <row r="115" ht="14.4" customHeight="1"/>
+    <row r="116" ht="14.4" customHeight="1"/>
+    <row r="117" ht="14.4" customHeight="1"/>
+    <row r="118" ht="14.4" customHeight="1"/>
+    <row r="119" ht="14.4" customHeight="1"/>
+    <row r="120" ht="14.4" customHeight="1"/>
+    <row r="121" ht="14.4" customHeight="1"/>
+    <row r="122" ht="14.4" customHeight="1"/>
+    <row r="123" ht="14.4" customHeight="1"/>
+    <row r="124" ht="14.4" customHeight="1"/>
+    <row r="125" ht="14.4" customHeight="1"/>
+    <row r="126" ht="14.4" customHeight="1"/>
+    <row r="127" ht="14.4" customHeight="1"/>
+    <row r="128" ht="14.4" customHeight="1"/>
+    <row r="129" ht="14.4" customHeight="1"/>
+    <row r="130" ht="14.4" customHeight="1"/>
+    <row r="131" ht="14.4" customHeight="1"/>
+    <row r="132" ht="14.4" customHeight="1"/>
+    <row r="133" ht="14.4" customHeight="1"/>
+    <row r="134" ht="14.4" customHeight="1"/>
+    <row r="135" ht="14.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
     <mergeCell ref="C1:D1"/>
@@ -4267,32 +3927,30 @@
     <mergeCell ref="J20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="37.7142857142857" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.4285714285714" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.1428571428571" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.2857142857143" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.8571428571429" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85714285714286" style="2"/>
+    <col min="1" max="2" width="37.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4315,1045 +3973,1073 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L136"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="45.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="37.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="0.285714285714286" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="28.7142857142857" customWidth="1"/>
-    <col min="9" max="10" width="31.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.5546875" customWidth="1"/>
+    <col min="4" max="4" width="0.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" customWidth="1"/>
+    <col min="9" max="10" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" spans="1:12">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" ht="23.4">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="85"/>
+      <c r="E1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="85"/>
+      <c r="J1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="15" t="s">
+      <c r="K1" s="85"/>
+      <c r="L1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" ht="148.15" customHeight="1" spans="1:12">
-      <c r="A3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" ht="143.45" customHeight="1" spans="1:12">
-      <c r="A4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" ht="158.45" customHeight="1" spans="1:12">
-      <c r="A5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" ht="144" customHeight="1" spans="1:12">
-      <c r="A6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" ht="154.9" customHeight="1" spans="1:12">
-      <c r="A7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" ht="145.9" customHeight="1" spans="1:12">
-      <c r="A8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" ht="156.6" customHeight="1" spans="1:12">
-      <c r="A9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="52"/>
-    </row>
-    <row r="11" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="56"/>
-    </row>
-    <row r="12" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="56"/>
-    </row>
-    <row r="13" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="60"/>
-    </row>
-    <row r="14" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-    </row>
-    <row r="15" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-    </row>
-    <row r="16" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-    </row>
-    <row r="17" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-    </row>
-    <row r="18" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-    </row>
-    <row r="19" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-    </row>
-    <row r="20" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-    </row>
-    <row r="21" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-    </row>
-    <row r="22" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-    </row>
-    <row r="23" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-    </row>
-    <row r="24" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-    </row>
-    <row r="25" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-    </row>
-    <row r="26" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-    </row>
-    <row r="27" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-    </row>
-    <row r="28" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-    </row>
-    <row r="29" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-    </row>
-    <row r="30" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-    </row>
-    <row r="31" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-    </row>
-    <row r="32" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-    </row>
-    <row r="33" ht="14.45" customHeight="1" spans="1:12">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" ht="14.45" customHeight="1" spans="1:12">
+    <row r="2" spans="1:12" ht="157.94999999999999" customHeight="1">
+      <c r="A2" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="78"/>
+      <c r="E2" s="77" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="77" t="s">
+        <v>375</v>
+      </c>
+      <c r="I2" s="78"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="54"/>
+    </row>
+    <row r="3" spans="1:12" ht="148.19999999999999" customHeight="1">
+      <c r="A3" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="78"/>
+      <c r="E3" s="77" t="s">
+        <v>379</v>
+      </c>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="I3" s="78"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="54"/>
+    </row>
+    <row r="4" spans="1:12" ht="143.4" customHeight="1">
+      <c r="A4" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="78"/>
+      <c r="E4" s="77" t="s">
+        <v>380</v>
+      </c>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="I4" s="78"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="54"/>
+    </row>
+    <row r="5" spans="1:12" ht="143.4" customHeight="1">
+      <c r="A5" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="78"/>
+      <c r="E5" s="77" t="s">
+        <v>381</v>
+      </c>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="54"/>
+    </row>
+    <row r="6" spans="1:12" ht="158.4" customHeight="1">
+      <c r="A6" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="78"/>
+      <c r="E6" s="77" t="s">
+        <v>382</v>
+      </c>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="78"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="54"/>
+    </row>
+    <row r="7" spans="1:12" ht="144" customHeight="1">
+      <c r="A7" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="78"/>
+      <c r="E7" s="77" t="s">
+        <v>383</v>
+      </c>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="78"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="54"/>
+    </row>
+    <row r="8" spans="1:12" ht="144" customHeight="1">
+      <c r="A8" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="78"/>
+      <c r="E8" s="77" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="78"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="54"/>
+    </row>
+    <row r="9" spans="1:12" ht="154.94999999999999" customHeight="1">
+      <c r="A9" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="77" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="78"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="54"/>
+    </row>
+    <row r="10" spans="1:12" ht="154.94999999999999" customHeight="1">
+      <c r="A10" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="78"/>
+      <c r="E10" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="54"/>
+    </row>
+    <row r="11" spans="1:12" ht="157.94999999999999" customHeight="1">
+      <c r="A11" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="78"/>
+      <c r="E11" s="77" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="77" t="s">
+        <v>374</v>
+      </c>
+      <c r="I11" s="78"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="54"/>
+    </row>
+    <row r="12" spans="1:12" ht="157.94999999999999" customHeight="1">
+      <c r="A12" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="78"/>
+      <c r="E12" s="77" t="s">
+        <v>387</v>
+      </c>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="77" t="s">
+        <v>373</v>
+      </c>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="54"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A13" s="44"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="58"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="47"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="47"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="47"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="47"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="47"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="47"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="47"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+    </row>
+    <row r="34" spans="1:12" ht="14.4" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -5367,7 +5053,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" ht="14.45" customHeight="1" spans="1:12">
+    <row r="35" spans="1:12" ht="14.4" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -5381,7 +5067,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" ht="14.45" customHeight="1" spans="1:12">
+    <row r="36" spans="1:12" ht="14.4" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -5395,7 +5081,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" ht="14.45" customHeight="1" spans="1:12">
+    <row r="37" spans="1:12" ht="14.4" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -5409,106 +5095,120 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" ht="14.45" customHeight="1"/>
-    <row r="39" ht="14.45" customHeight="1"/>
-    <row r="40" ht="14.45" customHeight="1"/>
-    <row r="41" ht="14.45" customHeight="1"/>
-    <row r="42" ht="14.45" customHeight="1"/>
-    <row r="43" ht="14.45" customHeight="1"/>
-    <row r="44" ht="14.45" customHeight="1"/>
-    <row r="45" ht="14.45" customHeight="1"/>
-    <row r="46" ht="14.45" customHeight="1"/>
-    <row r="47" ht="14.45" customHeight="1"/>
-    <row r="48" ht="14.45" customHeight="1"/>
-    <row r="49" ht="14.45" customHeight="1"/>
-    <row r="50" ht="14.45" customHeight="1"/>
-    <row r="51" ht="14.45" customHeight="1"/>
-    <row r="52" ht="14.45" customHeight="1"/>
-    <row r="53" ht="14.45" customHeight="1"/>
-    <row r="54" ht="14.45" customHeight="1"/>
-    <row r="55" ht="14.45" customHeight="1"/>
-    <row r="56" ht="14.45" customHeight="1"/>
-    <row r="57" ht="14.45" customHeight="1"/>
-    <row r="58" ht="14.45" customHeight="1"/>
-    <row r="59" ht="14.45" customHeight="1"/>
-    <row r="60" ht="14.45" customHeight="1"/>
-    <row r="61" ht="14.45" customHeight="1"/>
-    <row r="62" ht="14.45" customHeight="1"/>
-    <row r="63" ht="14.45" customHeight="1"/>
-    <row r="64" ht="14.45" customHeight="1"/>
-    <row r="65" ht="14.45" customHeight="1"/>
-    <row r="66" ht="14.45" customHeight="1"/>
-    <row r="67" ht="14.45" customHeight="1"/>
-    <row r="68" ht="14.45" customHeight="1"/>
-    <row r="69" ht="14.45" customHeight="1"/>
-    <row r="70" ht="14.45" customHeight="1"/>
-    <row r="71" ht="14.45" customHeight="1"/>
-    <row r="72" ht="14.45" customHeight="1"/>
-    <row r="73" ht="14.45" customHeight="1"/>
-    <row r="74" ht="14.45" customHeight="1"/>
-    <row r="75" ht="14.45" customHeight="1"/>
-    <row r="76" ht="14.45" customHeight="1"/>
-    <row r="77" ht="14.45" customHeight="1"/>
-    <row r="78" ht="14.45" customHeight="1"/>
-    <row r="79" ht="14.45" customHeight="1"/>
-    <row r="80" ht="14.45" customHeight="1"/>
-    <row r="81" ht="14.45" customHeight="1"/>
-    <row r="82" ht="14.45" customHeight="1"/>
-    <row r="83" ht="14.45" customHeight="1"/>
-    <row r="84" ht="14.45" customHeight="1"/>
-    <row r="85" ht="14.45" customHeight="1"/>
-    <row r="86" ht="14.45" customHeight="1"/>
-    <row r="87" ht="14.45" customHeight="1"/>
-    <row r="88" ht="14.45" customHeight="1"/>
-    <row r="89" ht="14.45" customHeight="1"/>
-    <row r="90" ht="14.45" customHeight="1"/>
-    <row r="91" ht="14.45" customHeight="1"/>
-    <row r="92" ht="14.45" customHeight="1"/>
-    <row r="93" ht="14.45" customHeight="1"/>
-    <row r="94" ht="14.45" customHeight="1"/>
-    <row r="95" ht="14.45" customHeight="1"/>
-    <row r="96" ht="14.45" customHeight="1"/>
-    <row r="97" ht="14.45" customHeight="1"/>
-    <row r="98" ht="14.45" customHeight="1"/>
-    <row r="99" ht="14.45" customHeight="1"/>
-    <row r="100" ht="14.45" customHeight="1"/>
-    <row r="101" ht="14.45" customHeight="1"/>
-    <row r="102" ht="14.45" customHeight="1"/>
-    <row r="103" ht="14.45" customHeight="1"/>
-    <row r="104" ht="14.45" customHeight="1"/>
-    <row r="105" ht="14.45" customHeight="1"/>
-    <row r="106" ht="14.45" customHeight="1"/>
-    <row r="107" ht="14.45" customHeight="1"/>
-    <row r="108" ht="14.45" customHeight="1"/>
-    <row r="109" ht="14.45" customHeight="1"/>
-    <row r="110" ht="14.45" customHeight="1"/>
-    <row r="111" ht="14.45" customHeight="1"/>
-    <row r="112" ht="14.45" customHeight="1"/>
-    <row r="113" ht="14.45" customHeight="1"/>
-    <row r="114" ht="14.45" customHeight="1"/>
-    <row r="115" ht="14.45" customHeight="1"/>
-    <row r="116" ht="14.45" customHeight="1"/>
-    <row r="117" ht="14.45" customHeight="1"/>
-    <row r="118" ht="14.45" customHeight="1"/>
-    <row r="119" ht="14.45" customHeight="1"/>
-    <row r="120" ht="14.45" customHeight="1"/>
-    <row r="121" ht="14.45" customHeight="1"/>
-    <row r="122" ht="14.45" customHeight="1"/>
-    <row r="123" ht="14.45" customHeight="1"/>
-    <row r="124" ht="14.45" customHeight="1"/>
-    <row r="125" ht="14.45" customHeight="1"/>
-    <row r="126" ht="14.45" customHeight="1"/>
-    <row r="127" ht="14.45" customHeight="1"/>
-    <row r="128" ht="14.45" customHeight="1"/>
-    <row r="129" ht="14.45" customHeight="1"/>
-    <row r="130" ht="14.45" customHeight="1"/>
-    <row r="131" ht="14.45" customHeight="1"/>
-    <row r="132" ht="14.45" customHeight="1"/>
-    <row r="133" ht="14.45" customHeight="1"/>
-    <row r="134" ht="14.45" customHeight="1"/>
-    <row r="135" ht="14.45" customHeight="1"/>
+    <row r="38" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="40" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="41" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="42" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="43" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="44" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="45" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="46" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="47" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="48" spans="1:12" ht="14.4" customHeight="1"/>
+    <row r="49" ht="14.4" customHeight="1"/>
+    <row r="50" ht="14.4" customHeight="1"/>
+    <row r="51" ht="14.4" customHeight="1"/>
+    <row r="52" ht="14.4" customHeight="1"/>
+    <row r="53" ht="14.4" customHeight="1"/>
+    <row r="54" ht="14.4" customHeight="1"/>
+    <row r="55" ht="14.4" customHeight="1"/>
+    <row r="56" ht="14.4" customHeight="1"/>
+    <row r="57" ht="14.4" customHeight="1"/>
+    <row r="58" ht="14.4" customHeight="1"/>
+    <row r="59" ht="14.4" customHeight="1"/>
+    <row r="60" ht="14.4" customHeight="1"/>
+    <row r="61" ht="14.4" customHeight="1"/>
+    <row r="62" ht="14.4" customHeight="1"/>
+    <row r="63" ht="14.4" customHeight="1"/>
+    <row r="64" ht="14.4" customHeight="1"/>
+    <row r="65" ht="14.4" customHeight="1"/>
+    <row r="66" ht="14.4" customHeight="1"/>
+    <row r="67" ht="14.4" customHeight="1"/>
+    <row r="68" ht="14.4" customHeight="1"/>
+    <row r="69" ht="14.4" customHeight="1"/>
+    <row r="70" ht="14.4" customHeight="1"/>
+    <row r="71" ht="14.4" customHeight="1"/>
+    <row r="72" ht="14.4" customHeight="1"/>
+    <row r="73" ht="14.4" customHeight="1"/>
+    <row r="74" ht="14.4" customHeight="1"/>
+    <row r="75" ht="14.4" customHeight="1"/>
+    <row r="76" ht="14.4" customHeight="1"/>
+    <row r="77" ht="14.4" customHeight="1"/>
+    <row r="78" ht="14.4" customHeight="1"/>
+    <row r="79" ht="14.4" customHeight="1"/>
+    <row r="80" ht="14.4" customHeight="1"/>
+    <row r="81" ht="14.4" customHeight="1"/>
+    <row r="82" ht="14.4" customHeight="1"/>
+    <row r="83" ht="14.4" customHeight="1"/>
+    <row r="84" ht="14.4" customHeight="1"/>
+    <row r="85" ht="14.4" customHeight="1"/>
+    <row r="86" ht="14.4" customHeight="1"/>
+    <row r="87" ht="14.4" customHeight="1"/>
+    <row r="88" ht="14.4" customHeight="1"/>
+    <row r="89" ht="14.4" customHeight="1"/>
+    <row r="90" ht="14.4" customHeight="1"/>
+    <row r="91" ht="14.4" customHeight="1"/>
+    <row r="92" ht="14.4" customHeight="1"/>
+    <row r="93" ht="14.4" customHeight="1"/>
+    <row r="94" ht="14.4" customHeight="1"/>
+    <row r="95" ht="14.4" customHeight="1"/>
+    <row r="96" ht="14.4" customHeight="1"/>
+    <row r="97" ht="14.4" customHeight="1"/>
+    <row r="98" ht="14.4" customHeight="1"/>
+    <row r="99" ht="14.4" customHeight="1"/>
+    <row r="100" ht="14.4" customHeight="1"/>
+    <row r="101" ht="14.4" customHeight="1"/>
+    <row r="102" ht="14.4" customHeight="1"/>
+    <row r="103" ht="14.4" customHeight="1"/>
+    <row r="104" ht="14.4" customHeight="1"/>
+    <row r="105" ht="14.4" customHeight="1"/>
+    <row r="106" ht="14.4" customHeight="1"/>
+    <row r="107" ht="14.4" customHeight="1"/>
+    <row r="108" ht="14.4" customHeight="1"/>
+    <row r="109" ht="14.4" customHeight="1"/>
+    <row r="110" ht="14.4" customHeight="1"/>
+    <row r="111" ht="14.4" customHeight="1"/>
+    <row r="112" ht="14.4" customHeight="1"/>
+    <row r="113" ht="14.4" customHeight="1"/>
+    <row r="114" ht="14.4" customHeight="1"/>
+    <row r="115" ht="14.4" customHeight="1"/>
+    <row r="116" ht="14.4" customHeight="1"/>
+    <row r="117" ht="14.4" customHeight="1"/>
+    <row r="118" ht="14.4" customHeight="1"/>
+    <row r="119" ht="14.4" customHeight="1"/>
+    <row r="120" ht="14.4" customHeight="1"/>
+    <row r="121" ht="14.4" customHeight="1"/>
+    <row r="122" ht="14.4" customHeight="1"/>
+    <row r="123" ht="14.4" customHeight="1"/>
+    <row r="124" ht="14.4" customHeight="1"/>
+    <row r="125" ht="14.4" customHeight="1"/>
+    <row r="126" ht="14.4" customHeight="1"/>
+    <row r="127" ht="14.4" customHeight="1"/>
+    <row r="128" ht="14.4" customHeight="1"/>
+    <row r="129" ht="14.4" customHeight="1"/>
+    <row r="130" ht="14.4" customHeight="1"/>
+    <row r="131" ht="14.4" customHeight="1"/>
+    <row r="132" ht="14.4" customHeight="1"/>
+    <row r="133" ht="14.4" customHeight="1"/>
+    <row r="134" ht="14.4" customHeight="1"/>
+    <row r="135" ht="14.4" customHeight="1"/>
+    <row r="136" ht="14.4" customHeight="1"/>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="84">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -5525,10 +5225,10 @@
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:I6"/>
@@ -5537,22 +5237,6 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:I12"/>
@@ -5589,477 +5273,496 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="34.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="35.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="6.57142857142857" customWidth="1"/>
-    <col min="5" max="5" width="29.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="12.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="24.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="8.14285714285714" customWidth="1"/>
-    <col min="10" max="10" width="21.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="0.571428571428571" customWidth="1"/>
-    <col min="12" max="12" width="16.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="0.5546875" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" spans="1:12">
+    <row r="1" spans="1:12" ht="23.4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="85"/>
+      <c r="E1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="85"/>
+      <c r="J1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="15" t="s">
+      <c r="K1" s="85"/>
+      <c r="L1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="90"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="88"/>
+      <c r="E3" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="90"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="88"/>
+      <c r="E4" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="176.4" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="88"/>
+      <c r="E5" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="88"/>
+      <c r="E6" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="88"/>
+      <c r="E7" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="90"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="88"/>
+      <c r="E8" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="88"/>
+      <c r="E9" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="90"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="88"/>
+      <c r="E10" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="90"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="88"/>
+      <c r="E11" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" ht="173.4" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="88"/>
+      <c r="E12" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" ht="180" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B13" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C13" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="88"/>
+      <c r="E13" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13" t="s">
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="47" t="s">
+      <c r="I13" s="90"/>
+    </row>
+    <row r="14" spans="1:12" ht="162.6" customHeight="1">
+      <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A3" s="11" t="s">
+      <c r="B14" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="C14" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="88"/>
+      <c r="E14" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="I14" s="90"/>
+    </row>
+    <row r="15" spans="1:12" ht="193.95" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="88"/>
+      <c r="E15" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A4" s="11" t="s">
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="I15" s="90"/>
+    </row>
+    <row r="16" spans="1:12" ht="165" customHeight="1">
+      <c r="A16" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13" t="s">
+      <c r="B16" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" ht="176.45" customHeight="1" spans="1:12">
-      <c r="A5" s="11" t="s">
+      <c r="C16" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="88"/>
+      <c r="E16" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13" t="s">
+      <c r="I16" s="90"/>
+    </row>
+    <row r="17" spans="1:9" ht="165" customHeight="1">
+      <c r="A17" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="47" t="s">
+      <c r="B17" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A6" s="11" t="s">
+      <c r="C17" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="88"/>
+      <c r="E17" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="I17" s="90"/>
+    </row>
+    <row r="18" spans="1:9" ht="165" customHeight="1">
+      <c r="A18" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="47" t="s">
+      <c r="B18" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A7" s="11" t="s">
+      <c r="C18" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="88"/>
+      <c r="E18" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A8" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A10" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A11" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" ht="173.45" customHeight="1" spans="1:12">
-      <c r="A12" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" ht="180" customHeight="1" spans="1:9">
-      <c r="A13" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="48"/>
-    </row>
-    <row r="14" ht="162.6" customHeight="1" spans="1:9">
-      <c r="A14" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="48"/>
-    </row>
-    <row r="15" ht="193.9" customHeight="1" spans="1:9">
-      <c r="A15" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="48"/>
-    </row>
-    <row r="16" ht="165" customHeight="1" spans="1:9">
-      <c r="A16" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" s="48"/>
-    </row>
-    <row r="17" ht="165" customHeight="1" spans="1:9">
-      <c r="A17" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="48"/>
-    </row>
-    <row r="18" ht="165" customHeight="1" spans="1:9">
-      <c r="A18" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="48"/>
-    </row>
-    <row r="19" ht="165" customHeight="1" spans="1:9">
-      <c r="A19" s="11"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-    </row>
-    <row r="20" ht="165" customHeight="1" spans="1:9">
-      <c r="A20" s="11"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
+      <c r="I18" s="90"/>
+    </row>
+    <row r="19" spans="1:9" ht="165" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="90"/>
+    </row>
+    <row r="20" spans="1:9" ht="165" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="72">
@@ -6138,251 +5841,249 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="26.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="39.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="23.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="35.7142857142857" customWidth="1"/>
-    <col min="10" max="10" width="13.2857142857143" customWidth="1"/>
-    <col min="12" max="12" width="16.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" spans="1:12">
+    <row r="1" spans="1:12" ht="23.4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="85"/>
+      <c r="E1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="85"/>
+      <c r="J1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="15" t="s">
+      <c r="K1" s="85"/>
+      <c r="L1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A2" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A3" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A4" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A5" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A6" s="11"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A7" s="11"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A8" s="11"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A9" s="11"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A10" s="11"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A11" s="11"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" ht="136.9" customHeight="1" spans="1:12">
-      <c r="A12" s="11"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="11"/>
+    <row r="2" spans="1:12" ht="136.94999999999999" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="90"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" ht="136.94999999999999" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="88"/>
+      <c r="E3" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="90"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="136.94999999999999" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="88"/>
+      <c r="E4" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="136.94999999999999" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="88"/>
+      <c r="E5" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" ht="136.94999999999999" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" ht="136.94999999999999" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" ht="136.94999999999999" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" ht="136.94999999999999" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" ht="136.94999999999999" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" ht="136.94999999999999" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" ht="136.94999999999999" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -6436,479 +6137,473 @@
     <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="26.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="31.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="23.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="22.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47.25" spans="1:7">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:7" ht="46.8">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="190.15" customHeight="1" spans="1:7">
-      <c r="A2" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-    </row>
-    <row r="3" ht="180.75" spans="1:7">
-      <c r="A3" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-    </row>
-    <row r="4" ht="228" customHeight="1" spans="1:7">
-      <c r="A4" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" ht="180.75" spans="1:7">
-      <c r="A5" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-    </row>
-    <row r="6" ht="235.9" customHeight="1" spans="1:7">
-      <c r="A6" s="37" t="s">
-        <v>175</v>
+    <row r="2" spans="1:7" ht="190.2" customHeight="1">
+      <c r="A2" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="1:7" ht="172.8">
+      <c r="A3" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="1:7" ht="228" customHeight="1">
+      <c r="A4" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" spans="1:7" ht="172.8">
+      <c r="A5" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="1:7" ht="235.95" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>177</v>
+        <v>132</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>133</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="25.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="35.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="26.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="22.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="16.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47.25" spans="1:7">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7" ht="46.8">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="198.95" customHeight="1" spans="1:7">
-      <c r="A2" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" ht="195" customHeight="1" spans="1:7">
-      <c r="A3" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" ht="249" customHeight="1" spans="1:7">
-      <c r="A4" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" ht="180.75" spans="1:7">
-      <c r="A5" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+    <row r="2" spans="1:7" ht="198.9" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" ht="195" customHeight="1">
+      <c r="A3" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" ht="249" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" ht="158.4">
+      <c r="A5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="20"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="31.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="28.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="19.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="9" max="9" width="26.7142857142857" customWidth="1"/>
-    <col min="11" max="11" width="25.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5546875" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" spans="1:12">
+    <row r="1" spans="1:12" ht="23.4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="85"/>
+      <c r="E1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="85"/>
+      <c r="J1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="15" t="s">
+      <c r="K1" s="85"/>
+      <c r="L1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A2" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A3" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A4" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A5" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A6" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A7" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="11"/>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="157.94999999999999" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="88"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="157.94999999999999" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="88"/>
+      <c r="E3" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="87" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="88"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="157.94999999999999" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="88"/>
+      <c r="E4" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="87" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="88"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="157.94999999999999" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="88"/>
+      <c r="E5" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="88"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="157.94999999999999" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="88"/>
+      <c r="E6" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" s="88"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="157.94999999999999" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="88"/>
+      <c r="E7" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="87" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" s="88"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -6928,6 +6623,10 @@
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:I5"/>
@@ -6936,183 +6635,177 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="32.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="38.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="26.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="11" max="11" width="15.4285714285714" customWidth="1"/>
-    <col min="12" max="12" width="16.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" spans="1:12">
+    <row r="1" spans="1:12" ht="23.4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="85"/>
+      <c r="E1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="85"/>
+      <c r="J1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="15" t="s">
+      <c r="K1" s="85"/>
+      <c r="L1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A2" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A3" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A4" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A5" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="157.9" customHeight="1" spans="1:12">
-      <c r="A6" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="11"/>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="157.94999999999999" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" s="88"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="157.94999999999999" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="88"/>
+      <c r="E3" s="87" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" s="88"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="157.94999999999999" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="88"/>
+      <c r="E4" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="I4" s="88"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="157.94999999999999" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="88"/>
+      <c r="E5" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" s="88"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="157.94999999999999" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="88"/>
+      <c r="E6" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" s="88"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -7142,32 +6835,30 @@
     <mergeCell ref="J6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.7142857142857" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.4285714285714" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.8571428571429" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.5714285714286" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.5714285714286" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.1428571428571" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85714285714286" style="2"/>
+    <col min="1" max="1" width="36.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7190,274 +6881,273 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="96" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="96" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="91.15" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="91.2" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="87" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="87" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="96.6" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="102" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="102" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="100.15" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="100.2" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="99.6" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="99.6" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="95.45" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="95.4" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="94.15" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="94.2" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="95.45" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="95.4" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="94.15" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="94.2" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="94.9" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="94.95" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="102.6" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="102.6" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>297</v>
+        <v>253</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="94.9" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="94.95" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Testing/Test Report/TestCases.xlsx
+++ b/Testing/Test Report/TestCases.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\Documents\GitHub\learning-hub\Testing\Test Report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CE0B2F-76BD-4FD7-AB1E-E6853546A2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="395">
   <si>
     <t>ID</t>
   </si>
@@ -55,28 +49,172 @@
     <t>TC_LearningHub_Register_001</t>
   </si>
   <si>
+    <t xml:space="preserve">Test with valid Email, Username, Password &amp;
+ Confirm Password in all fields. </t>
+  </si>
+  <si>
+    <t>1-user should have a browser to navigate to signup page.
+2-User should have xampp  and it's control panel
+3- user should have the database on the phpmyadmin (reach it through xampp control panel) 
+4- open the apache server and sql server
+5- navigate to the signup page</t>
+  </si>
+  <si>
+    <t>1-User should enter the following data in the Email: "john@example.com",
+Username: "johndoe",
+Password: "test123!"&amp;
+Confirm Password: "test123!"
+2- press submit button</t>
+  </si>
+  <si>
+    <t>Registration successfully message should appear and user 
+should be able to log in to his/her account from the login page.</t>
+  </si>
+  <si>
     <t>TC_LearningHub_Register_002</t>
   </si>
   <si>
+    <t>Test with an invalid username "blank" 
+and valid email, password &amp; confirmpasword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User should enter Email: "jane@example.com",
+Username: "",
+Password:"test123!" &amp;
+Confirm Password: "test123!"
+</t>
+  </si>
+  <si>
+    <t>A message should appear saying “the data entered are not valid”with type of  the error.</t>
+  </si>
+  <si>
     <t>TC_LearningHub_Register_003</t>
   </si>
   <si>
+    <t>Test with an invalid username "contains special charachter" containing special characters and valid email, password &amp; confirmpasword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-User should enter the data  
+Email: "jane@example.com",
+Password:"test123!" 
+Confirm Password: "test123!" &amp;
+Username: "janedoe@".
+</t>
+  </si>
+  <si>
     <t>TC_LearningHub_Register_004</t>
   </si>
   <si>
+    <t>Test with an invalid username containing number 
+and valid email, password &amp; confirmpasword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User should enter Email: "jane@example.com",
+Password:"test123!",
+Confirm Password: "test123!" &amp;
+Username: "janedoe1"
+</t>
+  </si>
+  <si>
     <t>TC_LearningHub_Register_005</t>
   </si>
   <si>
+    <t>Test with an invalid email format and valid username,
+ password and confirm password.</t>
+  </si>
+  <si>
+    <t>1- user should enter Email: "janeexample.com",
+Username: "janedoe",
+Password: "test123!" &amp;
+Confirm Password: "test123!"
+2- press submit button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A message should appear saying "the data entered are not valid".
+</t>
+  </si>
+  <si>
     <t>TC_LearningHub_Register_006</t>
   </si>
   <si>
+    <t>Test with an invalid password containing
+ less than five characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user should enter 
+Email: "josh@example.com",
+Username: "joshua",
+Password: "te1@" </t>
+  </si>
+  <si>
+    <t>A message should appear saying "the data entered are not valid" .</t>
+  </si>
+  <si>
     <t>TC_LearningHub_Register_007</t>
   </si>
   <si>
+    <t>Test with an invalid password
+ not containing any numeric value.</t>
+  </si>
+  <si>
+    <t>user should enter
+Email: "motarek@example.com",
+Username: "sarahjones",
+Password: "testing!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A message should appear saying "the data entered are not valid" 
+ </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_Register_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test with an invalid password 
+not containing any special character.</t>
+  </si>
+  <si>
+    <t>user should enter Email: "sam@example.com",
+Username: "samuel",
+Password: "testing1"</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_Register_009</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Test with confirm password not matching the password field.</t>
   </si>
   <si>
-    <t>TC_LearningHub_Register_008</t>
+    <t>user should entre Email: "tom@example.com",
+Username: "tommy",
+Password: "test123!",
+Confirm Password:" test1234!"
+2- press submit button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A message should appear saying "passwords don't match".</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_Register_010</t>
+  </si>
+  <si>
+    <t>Test with a username that is already taken and valid email, 
+password, confirm password.</t>
+  </si>
+  <si>
+    <t>1-user should have a browser to navigate to signup page.
+2-User should have xampp  and it's control panel
+3- user should have the database on the phpmyadmin (reach it through xampp control panel) 
+4- open the apache server and sql server
+5- navigate to the signup page
+6- there's an user account exist in the system with user name  "johndoe"</t>
+  </si>
+  <si>
+    <t>1- user should enter Email: "johner@example.com",
+Username: "johndoe",
+Password: "test123!" &amp;
+Confirm Password: "test123!"
+2- press submit button.</t>
   </si>
   <si>
     <t>A message should appear saying "Username is already taken.
@@ -84,6 +222,9 @@
   </si>
   <si>
     <t>TC_LearningHub_adduser_001</t>
+  </si>
+  <si>
+    <t>Admin adding normal user with valid data</t>
   </si>
   <si>
     <t>1-user should have a browser to navigate to signup page.
@@ -93,34 +234,159 @@
 5-  Admin is logged in and navigated to the add user page</t>
   </si>
   <si>
+    <t>admin should enter Username: "testuser",
+Email: "testuser@example.com",
+Password: "Abc123@",
+Confirm Password: "Abc123@"and choose 
+Role: Normal User</t>
+  </si>
+  <si>
+    <t>a message will appear saying User is added successfully to the database and a success message is displayed.</t>
+  </si>
+  <si>
     <t>TC_LearningHub_adduser_002</t>
   </si>
   <si>
+    <t xml:space="preserve">Admin add admin with empty username </t>
+  </si>
+  <si>
+    <t>admin should enter Username: "",
+Email: "testadmin@example.com",
+Password: "Abc123@",
+Confirm Password: "Abc123@" and choose
+Role: Admin</t>
+  </si>
+  <si>
+    <t>A validation error message is displayed saying "the data entered are not valid" and hint about the invalid data and the user will not be added to the database</t>
+  </si>
+  <si>
     <t>TC_LearningHub_adduser_003</t>
   </si>
   <si>
+    <t>Admin add admin with invalid username containing
+speical character</t>
+  </si>
+  <si>
+    <t>admin should enter Username: "Abc",
+Email: "testadmin@example.com",
+Password: "Abc123@",
+Confirm Password: "Abc123@" and choose
+Role: Admin</t>
+  </si>
+  <si>
     <t>TC_LearningHub_adduser_004</t>
   </si>
   <si>
+    <t>Admin add admin with invalid username containing
+number</t>
+  </si>
+  <si>
+    <t>admin should enter Username: "Abc1",
+Email: "testadmin@example.com",
+Password: "Abc123@",
+Confirm Password: "Abc123@" and choose
+Role: Admin</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_adduser_005</t>
+  </si>
+  <si>
+    <t>Admin add normal user with invalid email format
+number</t>
+  </si>
+  <si>
+    <t>admin should enter Username: "test123",
+Email: "testuser@example",
+Password: "Abc123@",
+Confirm Password: "Abc123@"and choose
+Role: Normal User</t>
+  </si>
+  <si>
     <t>A validation error message is displayed saying "Username must not contain Numbers" and the user is not added to the database.</t>
   </si>
   <si>
-    <t>TC_LearningHub_adduser_005</t>
+    <t>TC_LearningHub_adduser_006</t>
+  </si>
+  <si>
+    <t>Admin add normal user with invalid password contains four characters</t>
+  </si>
+  <si>
+    <t>admin should enter Username: "testuser",
+Email: "testuserexample.com",
+Password: "Abca",
+Confirm Password: "Abca"and choose
+Role: Normal User</t>
   </si>
   <si>
     <t>A validation error message is displayed saying "Email must be in valid format Ex: example@example.com" and the user is not added to the database.</t>
   </si>
   <si>
-    <t>TC_LearningHub_adduser_006</t>
+    <t>TC_LearningHub_adduser_007</t>
+  </si>
+  <si>
+    <t>Admin add normal user with invalid password doesn’t contains numbers</t>
+  </si>
+  <si>
+    <t>admin should enter Username: "test123",
+Email: "testuser@example.com",
+Password: "Abc@",
+Confirm Password: "Abc@" and choose
+Role: Normal User</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_adduser_008</t>
+  </si>
+  <si>
+    <t>Admin add normal user with invalid password doesn’t contains special characters</t>
+  </si>
+  <si>
+    <t>admin should enter Username: "testuser",
+Email: "testuser@example.com",
+Password: "abc1",
+Confirm Password: "abc1" and choose 
+Role: Normal User</t>
   </si>
   <si>
     <t>A validation error message is displayed saying "Password must be at least five characters" and the user is not added to the database.</t>
   </si>
   <si>
-    <t>TC_LearningHub_adduser_007</t>
-  </si>
-  <si>
-    <t>TC_LearningHub_adduser_008</t>
+    <t>TC_LearningHub_adduser_009</t>
+  </si>
+  <si>
+    <t>Admin add normal user with invalid confirm password that doesn’t match confirm password</t>
+  </si>
+  <si>
+    <t>admin should enter Username: "testuser",
+Email: "testuser@example.com",
+Password: "abc1@",
+Confirm Password: "abc1!" and choose
+Role: Normal User</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_adduser_010</t>
+  </si>
+  <si>
+    <t>Admin adding admin with valid data</t>
+  </si>
+  <si>
+    <t>admin should enter Username: "testuse",
+Email: "testuse@example.com",
+Password: "Abc123@",
+Confirm Password: "Abc123@"and choose 
+Role: Admin</t>
+  </si>
+  <si>
+    <t>a message will appear saying User added successfully to the database and a success message is displayed.</t>
+  </si>
+  <si>
+    <t>TC_LearningHub_adduser